--- a/BackTest/2019-10-29 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-29 BackTest ENJ.xlsx
@@ -801,13 +801,17 @@
         <v>74.01000000000006</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -847,7 +851,11 @@
       <c r="K13" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -1010,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="K17" t="n">
         <v>73.40000000000001</v>
@@ -1219,14 +1227,12 @@
         <v>73.43000000000009</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1262,14 +1268,12 @@
         <v>73.40500000000009</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1305,14 +1309,12 @@
         <v>73.41000000000008</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>73.59999999999999</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1348,14 +1350,12 @@
         <v>73.41500000000008</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>73.59999999999999</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1391,14 +1391,12 @@
         <v>73.42000000000007</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>73.59999999999999</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1434,14 +1432,12 @@
         <v>73.43500000000007</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>73.7</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1606,14 +1602,12 @@
         <v>73.49500000000006</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>73.7</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1649,14 +1643,12 @@
         <v>73.49500000000006</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1692,14 +1684,12 @@
         <v>73.49500000000006</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1735,14 +1725,12 @@
         <v>73.49500000000006</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1778,14 +1766,12 @@
         <v>73.52000000000007</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>73.7</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1821,14 +1807,12 @@
         <v>73.54500000000006</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>73.7</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1864,14 +1848,12 @@
         <v>73.57500000000006</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>74</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1907,14 +1889,12 @@
         <v>73.60500000000005</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>74</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1950,14 +1930,12 @@
         <v>73.63500000000005</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>74</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -1993,14 +1971,12 @@
         <v>73.66500000000005</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>74</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -2036,14 +2012,12 @@
         <v>73.70000000000003</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -2079,14 +2053,12 @@
         <v>73.73000000000003</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>73.40000000000001</v>
       </c>
@@ -3355,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
@@ -3363,11 +3335,11 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>1.02224795640327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3396,11 +3368,17 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3434,8 +3412,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3469,8 +3453,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3504,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3536,11 +3532,17 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3574,8 +3576,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3609,8 +3617,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3644,8 +3658,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3679,8 +3699,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3714,8 +3740,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3749,8 +3781,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3784,8 +3822,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3819,8 +3863,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3854,8 +3904,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3889,8 +3945,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3924,8 +3986,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3959,8 +4027,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3994,8 +4068,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4029,8 +4109,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4064,8 +4150,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4099,8 +4191,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4134,8 +4232,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4169,8 +4273,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4204,8 +4314,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4239,8 +4355,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4274,8 +4396,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4309,8 +4437,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4344,8 +4478,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4379,8 +4519,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4560,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4449,8 +4601,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4484,8 +4642,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4519,8 +4683,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4554,8 +4724,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4589,8 +4765,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4624,8 +4806,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4659,8 +4847,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4694,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4729,8 +4929,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4764,8 +4970,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4799,8 +5011,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4834,8 +5052,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4869,8 +5093,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4904,8 +5134,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4939,8 +5175,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4974,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5009,8 +5257,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5044,8 +5298,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5079,8 +5339,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5114,8 +5380,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5149,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5184,8 +5462,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5219,8 +5503,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5254,8 +5544,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5289,8 +5585,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5324,8 +5626,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5359,8 +5667,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5394,8 +5708,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5429,8 +5749,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5464,8 +5790,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5499,8 +5831,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5534,8 +5872,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5913,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5604,8 +5954,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5639,8 +5995,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5674,8 +6036,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5709,8 +6077,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5744,8 +6118,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +6159,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5814,8 +6200,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5849,8 +6241,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5884,8 +6282,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5919,8 +6323,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5954,8 +6364,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5989,8 +6405,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6024,8 +6446,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6059,8 +6487,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6094,8 +6528,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6129,8 +6569,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6164,8 +6610,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +6651,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6234,8 +6692,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6269,8 +6733,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6304,8 +6774,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6339,8 +6815,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6374,8 +6856,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6409,8 +6897,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6444,8 +6938,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6479,8 +6979,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6514,8 +7020,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6549,8 +7061,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6584,8 +7102,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6619,8 +7143,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6654,8 +7184,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6689,8 +7225,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7266,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6759,8 +7307,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6794,8 +7348,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6829,8 +7389,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6864,8 +7430,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6899,8 +7471,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6934,8 +7512,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6969,8 +7553,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7004,8 +7594,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +7635,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7074,8 +7676,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7109,8 +7717,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7144,8 +7758,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7179,8 +7799,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7214,8 +7840,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7249,8 +7881,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7284,8 +7922,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7319,8 +7963,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +8004,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7389,8 +8045,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7424,8 +8086,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7459,8 +8127,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7494,8 +8168,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7529,8 +8209,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7564,8 +8250,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7599,8 +8291,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7634,8 +8332,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7669,8 +8373,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7704,8 +8414,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7739,8 +8455,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7774,8 +8496,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7806,13 +8534,19 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M200" t="n">
-        <v>1</v>
+        <v>1.035871934604905</v>
       </c>
     </row>
     <row r="201">
@@ -7841,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-29 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M266"/>
+  <dimension ref="A1:M267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>74.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>74.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>74.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>74.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>23228.8471</v>
       </c>
       <c r="G2" t="n">
-        <v>74.61000000000003</v>
+        <v>74.64833333333328</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>74.2</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>74.2</v>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>74.2</v>
       </c>
       <c r="E3" t="n">
-        <v>74</v>
+        <v>74.2</v>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>74.57000000000002</v>
+        <v>74.64166666666661</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="E4" t="n">
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="F4" t="n">
-        <v>43098.5328</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="n">
-        <v>74.52000000000002</v>
+        <v>74.62499999999994</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>73.5</v>
       </c>
       <c r="F5" t="n">
-        <v>3932.3642</v>
+        <v>43098.5328</v>
       </c>
       <c r="G5" t="n">
-        <v>74.47000000000003</v>
+        <v>74.61333333333327</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>73.5</v>
       </c>
       <c r="C6" t="n">
-        <v>73.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="D6" t="n">
         <v>73.5</v>
       </c>
       <c r="E6" t="n">
-        <v>73.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="F6" t="n">
-        <v>3150</v>
+        <v>3932.3642</v>
       </c>
       <c r="G6" t="n">
-        <v>74.42000000000003</v>
+        <v>74.58999999999995</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="C7" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="C7" t="n">
-        <v>73.3</v>
-      </c>
       <c r="D7" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="E7" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
       <c r="F7" t="n">
-        <v>12000</v>
+        <v>3150</v>
       </c>
       <c r="G7" t="n">
-        <v>74.34500000000003</v>
+        <v>74.57166666666662</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>73.40000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>73.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="D8" t="n">
         <v>73.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>73.40000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>511</v>
+        <v>12000</v>
       </c>
       <c r="G8" t="n">
-        <v>74.28500000000004</v>
+        <v>74.55166666666661</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>73.40000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>2056</v>
+        <v>511</v>
       </c>
       <c r="G9" t="n">
-        <v>74.22500000000005</v>
+        <v>74.53333333333327</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>73.40000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>480.9999</v>
+        <v>2056</v>
       </c>
       <c r="G10" t="n">
-        <v>74.16000000000005</v>
+        <v>74.5116666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>73.40000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>646.4353</v>
+        <v>480.9999</v>
       </c>
       <c r="G11" t="n">
-        <v>74.09000000000006</v>
+        <v>74.48666666666661</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,23 +795,19 @@
         <v>73.40000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1942</v>
+        <v>646.4353</v>
       </c>
       <c r="G12" t="n">
-        <v>74.01000000000006</v>
+        <v>74.4616666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K12" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -834,286 +830,240 @@
         <v>73.40000000000001</v>
       </c>
       <c r="F13" t="n">
+        <v>1942</v>
+      </c>
+      <c r="G13" t="n">
+        <v>74.4366666666666</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="F14" t="n">
         <v>1017</v>
       </c>
-      <c r="G13" t="n">
-        <v>73.94000000000007</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="G14" t="n">
+        <v>74.40999999999993</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="K13" t="n">
+      <c r="C15" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D15" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="E15" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9999.999900000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>74.38999999999993</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>74.36999999999993</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>74.33833333333327</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>31525.5787</v>
+      </c>
+      <c r="G18" t="n">
+        <v>74.32833333333325</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10400</v>
+      </c>
+      <c r="G19" t="n">
+        <v>74.31666666666658</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9999.999900000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>73.86500000000007</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K14" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>73.79500000000007</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G16" t="n">
-        <v>73.72500000000008</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="C17" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>31525.5787</v>
-      </c>
-      <c r="G17" t="n">
-        <v>73.66500000000009</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="C18" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="D18" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10400</v>
-      </c>
-      <c r="G18" t="n">
-        <v>73.61500000000009</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K18" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1096</v>
-      </c>
-      <c r="G19" t="n">
-        <v>73.56500000000008</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1135,10 +1085,10 @@
         <v>73.40000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>767</v>
+        <v>1096</v>
       </c>
       <c r="G20" t="n">
-        <v>73.51500000000009</v>
+        <v>74.30666666666657</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1150,11 +1100,11 @@
         <v>73.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>73.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1178,10 +1128,10 @@
         <v>73.40000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>1107.9999</v>
+        <v>767</v>
       </c>
       <c r="G21" t="n">
-        <v>73.46500000000009</v>
+        <v>74.29499999999989</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1195,11 +1145,7 @@
       <c r="K21" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1209,36 +1155,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>73.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>73.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>73.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>73.5</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>557.6786</v>
+        <v>1107.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>73.43000000000009</v>
+        <v>74.28333333333322</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K22" t="n">
         <v>73.40000000000001</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1262,24 +1210,26 @@
         <v>73.5</v>
       </c>
       <c r="F23" t="n">
-        <v>1553.954</v>
+        <v>557.6786</v>
       </c>
       <c r="G23" t="n">
-        <v>73.40500000000009</v>
+        <v>74.26499999999987</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K23" t="n">
         <v>73.40000000000001</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1291,38 +1241,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>73.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="C24" t="n">
-        <v>73.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="D24" t="n">
-        <v>73.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="E24" t="n">
-        <v>73.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="F24" t="n">
-        <v>962.7007</v>
+        <v>1553.954</v>
       </c>
       <c r="G24" t="n">
-        <v>73.41000000000008</v>
+        <v>74.24666666666653</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>73.5</v>
+      </c>
       <c r="K24" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>73.5</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1344,10 +1292,10 @@
         <v>73.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>962.7007</v>
       </c>
       <c r="G25" t="n">
-        <v>73.41500000000008</v>
+        <v>74.23166666666654</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1357,11 +1305,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>73.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1376,19 +1324,19 @@
         <v>73.59999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>73.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>73.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>73.59999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>6528.0911</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="n">
-        <v>73.42000000000007</v>
+        <v>74.21666666666654</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1398,11 +1346,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>73.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1414,7 +1362,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>73.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C27" t="n">
         <v>73.7</v>
@@ -1423,13 +1371,13 @@
         <v>73.7</v>
       </c>
       <c r="E27" t="n">
-        <v>73.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>10000</v>
+        <v>6528.0911</v>
       </c>
       <c r="G27" t="n">
-        <v>73.43500000000007</v>
+        <v>74.19999999999987</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1438,14 +1386,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1467,28 +1409,20 @@
         <v>73.7</v>
       </c>
       <c r="F28" t="n">
-        <v>6886.0174</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>73.45000000000007</v>
+        <v>74.17999999999988</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1510,28 +1444,20 @@
         <v>73.7</v>
       </c>
       <c r="F29" t="n">
-        <v>7970</v>
+        <v>6886.0174</v>
       </c>
       <c r="G29" t="n">
-        <v>73.46500000000006</v>
+        <v>74.15999999999988</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1553,28 +1479,20 @@
         <v>73.7</v>
       </c>
       <c r="F30" t="n">
-        <v>20095.7304</v>
+        <v>7970</v>
       </c>
       <c r="G30" t="n">
-        <v>73.48000000000006</v>
+        <v>74.13999999999989</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="K30" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1587,19 +1505,19 @@
         <v>73.7</v>
       </c>
       <c r="C31" t="n">
-        <v>74</v>
+        <v>73.7</v>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>73.7</v>
       </c>
       <c r="E31" t="n">
-        <v>73.5</v>
+        <v>73.7</v>
       </c>
       <c r="F31" t="n">
-        <v>9566.7248</v>
+        <v>20095.7304</v>
       </c>
       <c r="G31" t="n">
-        <v>73.49500000000006</v>
+        <v>74.11999999999989</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1608,14 +1526,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1625,22 +1537,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>73.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="C32" t="n">
-        <v>73.40000000000001</v>
+        <v>74</v>
       </c>
       <c r="D32" t="n">
-        <v>73.40000000000001</v>
+        <v>74</v>
       </c>
       <c r="E32" t="n">
-        <v>73.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="F32" t="n">
-        <v>466.7694</v>
+        <v>9566.7248</v>
       </c>
       <c r="G32" t="n">
-        <v>73.49500000000006</v>
+        <v>74.10499999999989</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1649,14 +1561,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1678,10 +1584,10 @@
         <v>73.40000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>14765.7233</v>
+        <v>466.7694</v>
       </c>
       <c r="G33" t="n">
-        <v>73.49500000000006</v>
+        <v>74.08166666666655</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1690,14 +1596,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1719,10 +1619,10 @@
         <v>73.40000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>5797.7717</v>
+        <v>14765.7233</v>
       </c>
       <c r="G34" t="n">
-        <v>73.49500000000006</v>
+        <v>74.05666666666656</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1731,14 +1631,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1748,22 +1642,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>73.7</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>73.7</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>73.7</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>73.7</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>12426</v>
+        <v>5797.7717</v>
       </c>
       <c r="G35" t="n">
-        <v>73.52000000000007</v>
+        <v>74.03166666666655</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1772,14 +1666,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1792,19 +1680,19 @@
         <v>73.7</v>
       </c>
       <c r="C36" t="n">
-        <v>73.8</v>
+        <v>73.7</v>
       </c>
       <c r="D36" t="n">
-        <v>73.8</v>
+        <v>73.7</v>
       </c>
       <c r="E36" t="n">
         <v>73.7</v>
       </c>
       <c r="F36" t="n">
-        <v>4352.9644</v>
+        <v>12426</v>
       </c>
       <c r="G36" t="n">
-        <v>73.54500000000006</v>
+        <v>74.01333333333322</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1813,14 +1701,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1830,22 +1712,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>74</v>
+        <v>73.7</v>
       </c>
       <c r="C37" t="n">
-        <v>74</v>
+        <v>73.8</v>
       </c>
       <c r="D37" t="n">
-        <v>74</v>
+        <v>73.8</v>
       </c>
       <c r="E37" t="n">
-        <v>74</v>
+        <v>73.7</v>
       </c>
       <c r="F37" t="n">
-        <v>3267</v>
+        <v>4352.9644</v>
       </c>
       <c r="G37" t="n">
-        <v>73.57500000000006</v>
+        <v>73.99499999999989</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1854,14 +1736,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1883,10 +1759,10 @@
         <v>74</v>
       </c>
       <c r="F38" t="n">
-        <v>2070</v>
+        <v>3267</v>
       </c>
       <c r="G38" t="n">
-        <v>73.60500000000005</v>
+        <v>73.97999999999989</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1895,14 +1771,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1924,10 +1794,10 @@
         <v>74</v>
       </c>
       <c r="F39" t="n">
-        <v>5666.9999</v>
+        <v>2070</v>
       </c>
       <c r="G39" t="n">
-        <v>73.63500000000005</v>
+        <v>73.9649999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1936,14 +1806,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1956,19 +1820,19 @@
         <v>74</v>
       </c>
       <c r="C40" t="n">
-        <v>74.09999999999999</v>
+        <v>74</v>
       </c>
       <c r="D40" t="n">
-        <v>74.09999999999999</v>
+        <v>74</v>
       </c>
       <c r="E40" t="n">
         <v>74</v>
       </c>
       <c r="F40" t="n">
-        <v>1031.3152</v>
+        <v>5666.9999</v>
       </c>
       <c r="G40" t="n">
-        <v>73.66500000000005</v>
+        <v>73.95166666666657</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1977,14 +1841,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1994,7 +1852,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>74.09999999999999</v>
+        <v>74</v>
       </c>
       <c r="C41" t="n">
         <v>74.09999999999999</v>
@@ -2003,13 +1861,13 @@
         <v>74.09999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>74.09999999999999</v>
+        <v>74</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>1031.3152</v>
       </c>
       <c r="G41" t="n">
-        <v>73.70000000000003</v>
+        <v>73.93833333333325</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2018,14 +1876,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2047,10 +1899,10 @@
         <v>74.09999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>73.73000000000003</v>
+        <v>73.93166666666659</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2059,14 +1911,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2088,10 +1934,10 @@
         <v>74.09999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>3508</v>
+        <v>60</v>
       </c>
       <c r="G43" t="n">
-        <v>73.76000000000002</v>
+        <v>73.91999999999992</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2100,14 +1946,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2129,10 +1969,10 @@
         <v>74.09999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>1412</v>
+        <v>3508</v>
       </c>
       <c r="G44" t="n">
-        <v>73.78500000000003</v>
+        <v>73.90833333333326</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2141,14 +1981,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2158,22 +1992,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>74.2</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>74.2</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>74.2</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>74.2</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>2336</v>
+        <v>1412</v>
       </c>
       <c r="G45" t="n">
-        <v>73.81500000000003</v>
+        <v>73.9016666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2182,14 +2016,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2211,10 +2039,10 @@
         <v>74.2</v>
       </c>
       <c r="F46" t="n">
-        <v>2634</v>
+        <v>2336</v>
       </c>
       <c r="G46" t="n">
-        <v>73.84500000000004</v>
+        <v>73.89666666666659</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2223,14 +2051,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2252,10 +2074,10 @@
         <v>74.2</v>
       </c>
       <c r="F47" t="n">
-        <v>10000</v>
+        <v>2634</v>
       </c>
       <c r="G47" t="n">
-        <v>73.87000000000003</v>
+        <v>73.88666666666659</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2264,14 +2086,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2281,22 +2097,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
       <c r="C48" t="n">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
       <c r="D48" t="n">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
       <c r="E48" t="n">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
       <c r="F48" t="n">
         <v>10000</v>
       </c>
       <c r="G48" t="n">
-        <v>73.90000000000003</v>
+        <v>73.87499999999993</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2305,14 +2121,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2322,22 +2132,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>74.40000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="C49" t="n">
-        <v>74.09999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="D49" t="n">
-        <v>74.40000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="E49" t="n">
-        <v>74.09999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="F49" t="n">
-        <v>11030</v>
+        <v>10000</v>
       </c>
       <c r="G49" t="n">
-        <v>73.93500000000003</v>
+        <v>73.87666666666659</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2346,14 +2156,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2363,22 +2167,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C50" t="n">
         <v>74.09999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E50" t="n">
         <v>74.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>687.6248000000001</v>
+        <v>11030</v>
       </c>
       <c r="G50" t="n">
-        <v>73.95500000000003</v>
+        <v>73.86833333333327</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2387,14 +2191,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2404,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>74.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>74.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>74.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>74.40000000000001</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>940</v>
+        <v>687.6248000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>73.99000000000004</v>
+        <v>73.8566666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2428,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2445,7 +2237,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>74.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>74.5</v>
@@ -2457,10 +2249,10 @@
         <v>74.40000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>46874.8187</v>
+        <v>940</v>
       </c>
       <c r="G52" t="n">
-        <v>74.04500000000003</v>
+        <v>73.85499999999993</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2469,14 +2261,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2495,13 +2281,13 @@
         <v>74.5</v>
       </c>
       <c r="E53" t="n">
-        <v>74.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>3000</v>
+        <v>46874.8187</v>
       </c>
       <c r="G53" t="n">
-        <v>74.10000000000002</v>
+        <v>73.84666666666659</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2510,14 +2296,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2527,22 +2307,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>74.09999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="C54" t="n">
-        <v>74.09999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="D54" t="n">
-        <v>74.09999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="E54" t="n">
-        <v>74.09999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G54" t="n">
-        <v>74.13500000000002</v>
+        <v>73.84499999999993</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2551,14 +2331,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2342,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>74.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>74.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>74.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>74.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="n">
-        <v>74.17500000000001</v>
+        <v>73.83166666666661</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2592,14 +2366,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2612,19 +2380,19 @@
         <v>74.5</v>
       </c>
       <c r="C56" t="n">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="D56" t="n">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="E56" t="n">
         <v>74.5</v>
       </c>
       <c r="F56" t="n">
-        <v>18997.9466</v>
+        <v>4000</v>
       </c>
       <c r="G56" t="n">
-        <v>74.215</v>
+        <v>73.82999999999993</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2633,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2650,7 +2412,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="C57" t="n">
         <v>74.59999999999999</v>
@@ -2659,13 +2421,13 @@
         <v>74.59999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="F57" t="n">
-        <v>10000</v>
+        <v>18997.9466</v>
       </c>
       <c r="G57" t="n">
-        <v>74.245</v>
+        <v>73.82999999999993</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2674,14 +2436,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2703,10 +2459,10 @@
         <v>74.59999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="n">
-        <v>74.27500000000001</v>
+        <v>73.83333333333327</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2715,14 +2471,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2744,10 +2494,10 @@
         <v>74.59999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>12921.1813</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="n">
-        <v>74.30499999999999</v>
+        <v>73.83666666666662</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2756,14 +2506,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2773,22 +2517,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>5005</v>
+        <v>12921.1813</v>
       </c>
       <c r="G60" t="n">
-        <v>74.35499999999999</v>
+        <v>73.83999999999996</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2797,14 +2541,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +2552,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>75.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="C61" t="n">
-        <v>75.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D61" t="n">
-        <v>75.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="E61" t="n">
-        <v>75.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="F61" t="n">
-        <v>6253.7683</v>
+        <v>5005</v>
       </c>
       <c r="G61" t="n">
-        <v>74.405</v>
+        <v>73.84999999999997</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2838,14 +2576,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2855,22 +2587,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>75.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>75.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>75.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>75.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>6253.7683</v>
       </c>
       <c r="G62" t="n">
-        <v>74.465</v>
+        <v>73.85833333333331</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2879,14 +2611,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2899,19 +2625,19 @@
         <v>75.3</v>
       </c>
       <c r="C63" t="n">
-        <v>75.59999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="D63" t="n">
-        <v>75.59999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="E63" t="n">
-        <v>74.7</v>
+        <v>75.3</v>
       </c>
       <c r="F63" t="n">
-        <v>17344.6691</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>74.52500000000001</v>
+        <v>73.87666666666664</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2920,14 +2646,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2937,22 +2657,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="C64" t="n">
-        <v>76.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>76.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>75.5</v>
+        <v>74.7</v>
       </c>
       <c r="F64" t="n">
-        <v>63531.2904</v>
+        <v>17344.6691</v>
       </c>
       <c r="G64" t="n">
-        <v>74.595</v>
+        <v>73.90333333333332</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2961,14 +2681,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2978,22 +2692,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="C65" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="C65" t="n">
-        <v>75.90000000000001</v>
-      </c>
       <c r="D65" t="n">
-        <v>76.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="E65" t="n">
-        <v>75.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="F65" t="n">
-        <v>6031.8017</v>
+        <v>63531.2904</v>
       </c>
       <c r="G65" t="n">
-        <v>74.69</v>
+        <v>73.94666666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3002,14 +2716,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3019,22 +2727,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>75.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>75.59999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>75.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>75.59999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>1250</v>
+        <v>6031.8017</v>
       </c>
       <c r="G66" t="n">
-        <v>74.77</v>
+        <v>73.98666666666665</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3043,14 +2751,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3060,22 +2762,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="C67" t="n">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="E67" t="n">
-        <v>76</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>25653.8848</v>
+        <v>1250</v>
       </c>
       <c r="G67" t="n">
-        <v>74.85999999999999</v>
+        <v>74.02333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3084,14 +2786,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3101,22 +2797,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>75.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="C68" t="n">
-        <v>75.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="D68" t="n">
-        <v>75.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="E68" t="n">
-        <v>75.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="F68" t="n">
-        <v>4829</v>
+        <v>25653.8848</v>
       </c>
       <c r="G68" t="n">
-        <v>74.89999999999999</v>
+        <v>74.06833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3125,14 +2821,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3154,10 +2844,10 @@
         <v>75.09999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>10000</v>
+        <v>4829</v>
       </c>
       <c r="G69" t="n">
-        <v>74.93499999999997</v>
+        <v>74.09666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3166,14 +2856,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3183,22 +2867,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>75.7</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>75.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>75.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>75.7</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>6980</v>
+        <v>10000</v>
       </c>
       <c r="G70" t="n">
-        <v>75.01499999999999</v>
+        <v>74.12500000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3207,14 +2891,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3224,22 +2902,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="C71" t="n">
         <v>75.8</v>
       </c>
-      <c r="C71" t="n">
-        <v>75.90000000000001</v>
-      </c>
       <c r="D71" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="E71" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="F71" t="n">
-        <v>19990</v>
+        <v>6980</v>
       </c>
       <c r="G71" t="n">
-        <v>75.08499999999998</v>
+        <v>74.16500000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3248,14 +2926,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3265,7 +2937,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="C72" t="n">
         <v>75.90000000000001</v>
@@ -3274,13 +2946,13 @@
         <v>75.90000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="F72" t="n">
-        <v>19157.6679</v>
+        <v>19990</v>
       </c>
       <c r="G72" t="n">
-        <v>75.15499999999999</v>
+        <v>74.20666666666669</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3289,14 +2961,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3306,22 +2972,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>75.40000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>75.40000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>75.40000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>75.40000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>30000</v>
+        <v>19157.6679</v>
       </c>
       <c r="G73" t="n">
-        <v>75.19999999999999</v>
+        <v>74.24833333333336</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3330,14 +2996,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3347,22 +3007,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>3189.327176781002</v>
+        <v>30000</v>
       </c>
       <c r="G74" t="n">
-        <v>75.285</v>
+        <v>74.28166666666669</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3371,14 +3031,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3388,22 +3042,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>75.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="C75" t="n">
-        <v>75.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="D75" t="n">
-        <v>75.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="E75" t="n">
-        <v>75.5</v>
+        <v>75.8</v>
       </c>
       <c r="F75" t="n">
-        <v>3640000</v>
+        <v>3189.327176781002</v>
       </c>
       <c r="G75" t="n">
-        <v>75.33999999999999</v>
+        <v>74.32500000000003</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3412,14 +3066,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3438,13 +3086,13 @@
         <v>75.59999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>75.59999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="F76" t="n">
-        <v>3220000</v>
+        <v>3640000</v>
       </c>
       <c r="G76" t="n">
-        <v>75.39499999999998</v>
+        <v>74.36500000000004</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3453,14 +3101,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3479,13 +3121,13 @@
         <v>75.59999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>75.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>1904119</v>
+        <v>3220000</v>
       </c>
       <c r="G77" t="n">
-        <v>75.44499999999998</v>
+        <v>74.40500000000004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3494,14 +3136,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3511,22 +3147,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>75.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>75.3</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>75.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>75.3</v>
+        <v>75.5</v>
       </c>
       <c r="F78" t="n">
-        <v>2399.7012</v>
+        <v>1904119</v>
       </c>
       <c r="G78" t="n">
-        <v>75.48999999999998</v>
+        <v>74.44166666666673</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3535,14 +3171,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3552,22 +3182,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="C79" t="n">
         <v>75.3</v>
       </c>
       <c r="D79" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="E79" t="n">
         <v>75.3</v>
       </c>
       <c r="F79" t="n">
-        <v>941.9999</v>
+        <v>2399.7012</v>
       </c>
       <c r="G79" t="n">
-        <v>75.53</v>
+        <v>74.4733333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3576,14 +3206,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3593,22 +3217,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="D80" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E80" t="n">
         <v>75.3</v>
       </c>
       <c r="F80" t="n">
-        <v>3186501.2039</v>
+        <v>941.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>75.55499999999999</v>
+        <v>74.50500000000008</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3617,14 +3241,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3643,13 +3261,13 @@
         <v>75.5</v>
       </c>
       <c r="E81" t="n">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="F81" t="n">
-        <v>7392000</v>
+        <v>3186501.2039</v>
       </c>
       <c r="G81" t="n">
-        <v>75.575</v>
+        <v>74.54000000000009</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3658,14 +3276,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3687,10 +3299,10 @@
         <v>75.5</v>
       </c>
       <c r="F82" t="n">
-        <v>9663652.2039</v>
+        <v>7392000</v>
       </c>
       <c r="G82" t="n">
-        <v>75.58500000000001</v>
+        <v>74.57500000000009</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3699,14 +3311,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3728,10 +3334,10 @@
         <v>75.5</v>
       </c>
       <c r="F83" t="n">
-        <v>9614347.7961</v>
+        <v>9663652.2039</v>
       </c>
       <c r="G83" t="n">
-        <v>75.595</v>
+        <v>74.60833333333342</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3740,14 +3346,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3769,10 +3369,10 @@
         <v>75.5</v>
       </c>
       <c r="F84" t="n">
-        <v>4242000</v>
+        <v>9614347.7961</v>
       </c>
       <c r="G84" t="n">
-        <v>75.595</v>
+        <v>74.64166666666675</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3781,14 +3381,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3807,13 +3401,13 @@
         <v>75.5</v>
       </c>
       <c r="E85" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="F85" t="n">
-        <v>2081000</v>
+        <v>4242000</v>
       </c>
       <c r="G85" t="n">
-        <v>75.56500000000001</v>
+        <v>74.67333333333342</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3822,14 +3416,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3839,22 +3427,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="C86" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="D86" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="E86" t="n">
         <v>75.40000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>10480000</v>
+        <v>2081000</v>
       </c>
       <c r="G86" t="n">
-        <v>75.54500000000002</v>
+        <v>74.70500000000008</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3863,14 +3451,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3892,10 +3474,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>20400000</v>
+        <v>10480000</v>
       </c>
       <c r="G87" t="n">
-        <v>75.51500000000001</v>
+        <v>74.73333333333341</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3904,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3933,10 +3509,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>20000000</v>
+        <v>20400000</v>
       </c>
       <c r="G88" t="n">
-        <v>75.53000000000003</v>
+        <v>74.76166666666674</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3945,14 +3521,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3974,10 +3544,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>19840000</v>
+        <v>20000000</v>
       </c>
       <c r="G89" t="n">
-        <v>75.54500000000004</v>
+        <v>74.79000000000006</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3986,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4006,19 +3570,19 @@
         <v>75.40000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E90" t="n">
         <v>75.40000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>12401000</v>
+        <v>19840000</v>
       </c>
       <c r="G90" t="n">
-        <v>75.53000000000004</v>
+        <v>74.8183333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4027,14 +3591,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4047,19 +3605,19 @@
         <v>75.40000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="D91" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="E91" t="n">
         <v>75.40000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>3010000</v>
+        <v>12401000</v>
       </c>
       <c r="G91" t="n">
-        <v>75.51000000000005</v>
+        <v>74.8483333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4068,14 +3626,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4085,22 +3637,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>13510142.3034</v>
+        <v>3010000</v>
       </c>
       <c r="G92" t="n">
-        <v>75.48000000000005</v>
+        <v>74.87166666666673</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4109,14 +3661,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4126,7 +3672,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="C93" t="n">
         <v>75.5</v>
@@ -4135,13 +3681,13 @@
         <v>75.5</v>
       </c>
       <c r="E93" t="n">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="F93" t="n">
-        <v>4620000</v>
+        <v>13510142.3034</v>
       </c>
       <c r="G93" t="n">
-        <v>75.48500000000004</v>
+        <v>74.90666666666674</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4150,14 +3696,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4179,10 +3719,10 @@
         <v>75.5</v>
       </c>
       <c r="F94" t="n">
-        <v>16170141.8426</v>
+        <v>4620000</v>
       </c>
       <c r="G94" t="n">
-        <v>75.47000000000004</v>
+        <v>74.94166666666675</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4191,14 +3731,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4220,10 +3754,10 @@
         <v>75.5</v>
       </c>
       <c r="F95" t="n">
-        <v>17500000</v>
+        <v>16170141.8426</v>
       </c>
       <c r="G95" t="n">
-        <v>75.46500000000005</v>
+        <v>74.97666666666674</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4232,14 +3766,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4261,10 +3789,10 @@
         <v>75.5</v>
       </c>
       <c r="F96" t="n">
-        <v>17156605.0198</v>
+        <v>17500000</v>
       </c>
       <c r="G96" t="n">
-        <v>75.46000000000005</v>
+        <v>75.00666666666675</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4273,14 +3801,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4299,13 +3821,13 @@
         <v>75.5</v>
       </c>
       <c r="E97" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="F97" t="n">
-        <v>17567145.2043</v>
+        <v>17156605.0198</v>
       </c>
       <c r="G97" t="n">
-        <v>75.45500000000006</v>
+        <v>75.03500000000008</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4314,14 +3836,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4340,13 +3856,13 @@
         <v>75.5</v>
       </c>
       <c r="E98" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>16872854.7957</v>
+        <v>17567145.2043</v>
       </c>
       <c r="G98" t="n">
-        <v>75.45500000000006</v>
+        <v>75.06000000000009</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4355,14 +3871,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4381,13 +3891,13 @@
         <v>75.5</v>
       </c>
       <c r="E99" t="n">
-        <v>75</v>
+        <v>75.5</v>
       </c>
       <c r="F99" t="n">
-        <v>16694507.1284</v>
+        <v>16872854.7957</v>
       </c>
       <c r="G99" t="n">
-        <v>75.46000000000005</v>
+        <v>75.08500000000008</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4396,14 +3906,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4425,10 +3929,10 @@
         <v>75</v>
       </c>
       <c r="F100" t="n">
-        <v>16104860.8878</v>
+        <v>16694507.1284</v>
       </c>
       <c r="G100" t="n">
-        <v>75.46000000000005</v>
+        <v>75.11000000000008</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4437,14 +3941,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4466,10 +3964,10 @@
         <v>75</v>
       </c>
       <c r="F101" t="n">
-        <v>12128372.3973</v>
+        <v>16104860.8878</v>
       </c>
       <c r="G101" t="n">
-        <v>75.46000000000005</v>
+        <v>75.13333333333341</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4478,14 +3976,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4495,22 +3987,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="C102" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="D102" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="E102" t="n">
-        <v>75.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="F102" t="n">
-        <v>1184000</v>
+        <v>12128372.3973</v>
       </c>
       <c r="G102" t="n">
-        <v>75.45500000000006</v>
+        <v>75.15666666666674</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4519,14 +4011,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4548,10 +4034,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>6365697.248</v>
+        <v>1184000</v>
       </c>
       <c r="G103" t="n">
-        <v>75.45000000000006</v>
+        <v>75.17833333333338</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4560,14 +4046,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4589,10 +4069,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>8208000</v>
+        <v>6365697.248</v>
       </c>
       <c r="G104" t="n">
-        <v>75.44500000000006</v>
+        <v>75.20000000000005</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4601,14 +4081,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4630,10 +4104,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>13014000</v>
+        <v>8208000</v>
       </c>
       <c r="G105" t="n">
-        <v>75.44000000000007</v>
+        <v>75.22166666666671</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4642,14 +4116,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4674,7 +4142,7 @@
         <v>13014000</v>
       </c>
       <c r="G106" t="n">
-        <v>75.44000000000007</v>
+        <v>75.2416666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4683,14 +4151,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4712,10 +4174,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>9289298.806299999</v>
+        <v>13014000</v>
       </c>
       <c r="G107" t="n">
-        <v>75.44000000000007</v>
+        <v>75.2616666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4724,14 +4186,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4753,10 +4209,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>10800565.40935</v>
+        <v>9289298.806299999</v>
       </c>
       <c r="G108" t="n">
-        <v>75.44000000000007</v>
+        <v>75.28166666666669</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4765,14 +4221,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4788,16 +4238,16 @@
         <v>75.40000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E109" t="n">
         <v>75.40000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>3515899.1813</v>
+        <v>10800565.40935</v>
       </c>
       <c r="G109" t="n">
-        <v>75.44000000000007</v>
+        <v>75.30000000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4806,14 +4256,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4829,16 +4273,16 @@
         <v>75.40000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="E110" t="n">
         <v>75.40000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>17430000</v>
+        <v>3515899.1813</v>
       </c>
       <c r="G110" t="n">
-        <v>75.44000000000007</v>
+        <v>75.32166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4847,14 +4291,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4876,10 +4314,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>16870427</v>
+        <v>17430000</v>
       </c>
       <c r="G111" t="n">
-        <v>75.44000000000007</v>
+        <v>75.34333333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4888,14 +4326,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4917,10 +4349,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>17150000</v>
+        <v>16870427</v>
       </c>
       <c r="G112" t="n">
-        <v>75.44500000000008</v>
+        <v>75.35833333333332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4929,14 +4361,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4958,10 +4384,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>6539573</v>
+        <v>17150000</v>
       </c>
       <c r="G113" t="n">
-        <v>75.44000000000008</v>
+        <v>75.37333333333331</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4970,14 +4396,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4999,10 +4419,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>14460000</v>
+        <v>6539573</v>
       </c>
       <c r="G114" t="n">
-        <v>75.43500000000009</v>
+        <v>75.38833333333331</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5011,14 +4431,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5031,19 +4445,19 @@
         <v>75.40000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E115" t="n">
         <v>75.40000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>7394551.0202</v>
+        <v>14460000</v>
       </c>
       <c r="G115" t="n">
-        <v>75.43000000000009</v>
+        <v>75.40999999999995</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5052,14 +4466,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5069,7 +4477,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C116" t="n">
         <v>75.5</v>
@@ -5078,13 +4486,13 @@
         <v>75.5</v>
       </c>
       <c r="E116" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>16281851.0365</v>
+        <v>7394551.0202</v>
       </c>
       <c r="G116" t="n">
-        <v>75.43000000000009</v>
+        <v>75.42666666666663</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5093,14 +4501,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5122,10 +4524,10 @@
         <v>75.5</v>
       </c>
       <c r="F117" t="n">
-        <v>2777839.3017</v>
+        <v>16281851.0365</v>
       </c>
       <c r="G117" t="n">
-        <v>75.43000000000009</v>
+        <v>75.44166666666662</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5134,14 +4536,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5151,22 +4547,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="C118" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="D118" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="E118" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="F118" t="n">
-        <v>441.4769</v>
+        <v>2777839.3017</v>
       </c>
       <c r="G118" t="n">
-        <v>75.4250000000001</v>
+        <v>75.45666666666662</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5175,14 +4571,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5192,22 +4582,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>75.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>21615.6174</v>
+        <v>441.4769</v>
       </c>
       <c r="G119" t="n">
-        <v>75.4250000000001</v>
+        <v>75.46999999999994</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5216,14 +4606,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5233,22 +4617,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>75.2</v>
+        <v>75.5</v>
       </c>
       <c r="C120" t="n">
-        <v>75.2</v>
+        <v>75.5</v>
       </c>
       <c r="D120" t="n">
-        <v>75.2</v>
+        <v>75.5</v>
       </c>
       <c r="E120" t="n">
-        <v>75.2</v>
+        <v>75.5</v>
       </c>
       <c r="F120" t="n">
-        <v>33.0728</v>
+        <v>21615.6174</v>
       </c>
       <c r="G120" t="n">
-        <v>75.4100000000001</v>
+        <v>75.48499999999993</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5257,14 +4641,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5274,22 +4652,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>75.5</v>
+        <v>75.2</v>
       </c>
       <c r="C121" t="n">
-        <v>75.5</v>
+        <v>75.2</v>
       </c>
       <c r="D121" t="n">
-        <v>75.5</v>
+        <v>75.2</v>
       </c>
       <c r="E121" t="n">
-        <v>75.5</v>
+        <v>75.2</v>
       </c>
       <c r="F121" t="n">
-        <v>11640</v>
+        <v>33.0728</v>
       </c>
       <c r="G121" t="n">
-        <v>75.4100000000001</v>
+        <v>75.48833333333326</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5298,14 +4676,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5318,19 +4690,19 @@
         <v>75.5</v>
       </c>
       <c r="C122" t="n">
-        <v>75.59999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="D122" t="n">
-        <v>75.59999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="E122" t="n">
         <v>75.5</v>
       </c>
       <c r="F122" t="n">
-        <v>102231.3978</v>
+        <v>11640</v>
       </c>
       <c r="G122" t="n">
-        <v>75.41500000000009</v>
+        <v>75.49499999999992</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5339,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5356,22 +4722,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>75.7</v>
+        <v>75.5</v>
       </c>
       <c r="C123" t="n">
-        <v>75.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>75.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>75.7</v>
+        <v>75.5</v>
       </c>
       <c r="F123" t="n">
-        <v>13433.051</v>
+        <v>102231.3978</v>
       </c>
       <c r="G123" t="n">
-        <v>75.43000000000009</v>
+        <v>75.49999999999993</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5380,14 +4746,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5409,10 +4769,10 @@
         <v>75.7</v>
       </c>
       <c r="F124" t="n">
-        <v>1201.4369</v>
+        <v>13433.051</v>
       </c>
       <c r="G124" t="n">
-        <v>75.44500000000008</v>
+        <v>75.50166666666658</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5421,14 +4781,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5450,10 +4804,10 @@
         <v>75.7</v>
       </c>
       <c r="F125" t="n">
-        <v>100</v>
+        <v>1201.4369</v>
       </c>
       <c r="G125" t="n">
-        <v>75.46000000000008</v>
+        <v>75.49499999999991</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5462,14 +4816,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5479,22 +4827,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="C126" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="D126" t="n">
-        <v>76</v>
+        <v>75.7</v>
       </c>
       <c r="E126" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="F126" t="n">
-        <v>54556.4781</v>
+        <v>100</v>
       </c>
       <c r="G126" t="n">
-        <v>75.48000000000008</v>
+        <v>75.49166666666657</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5503,14 +4851,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5526,16 +4868,16 @@
         <v>75.8</v>
       </c>
       <c r="D127" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="E127" t="n">
         <v>75.8</v>
       </c>
       <c r="F127" t="n">
-        <v>9285.613300000001</v>
+        <v>54556.4781</v>
       </c>
       <c r="G127" t="n">
-        <v>75.50000000000007</v>
+        <v>75.49499999999991</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5544,14 +4886,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5561,22 +4897,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>75.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="C128" t="n">
-        <v>75.2</v>
+        <v>75.8</v>
       </c>
       <c r="D128" t="n">
-        <v>75.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="E128" t="n">
-        <v>75.2</v>
+        <v>75.8</v>
       </c>
       <c r="F128" t="n">
-        <v>30144.8908</v>
+        <v>9285.613300000001</v>
       </c>
       <c r="G128" t="n">
-        <v>75.51000000000006</v>
+        <v>75.49166666666657</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5585,14 +4921,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5602,22 +4932,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>75.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="D129" t="n">
-        <v>75.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="F129" t="n">
-        <v>3000</v>
+        <v>30144.8908</v>
       </c>
       <c r="G129" t="n">
-        <v>75.52500000000006</v>
+        <v>75.49333333333324</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5626,14 +4956,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5643,7 +4967,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>75.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="C130" t="n">
         <v>75.7</v>
@@ -5652,13 +4976,13 @@
         <v>75.7</v>
       </c>
       <c r="E130" t="n">
-        <v>75.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="F130" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="G130" t="n">
-        <v>75.53500000000005</v>
+        <v>75.50333333333323</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5667,14 +4991,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5684,7 +5002,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>75.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C131" t="n">
         <v>75.7</v>
@@ -5693,13 +5011,13 @@
         <v>75.7</v>
       </c>
       <c r="E131" t="n">
-        <v>75.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>13577.5033</v>
+        <v>6000</v>
       </c>
       <c r="G131" t="n">
-        <v>75.55000000000004</v>
+        <v>75.50166666666655</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5708,14 +5026,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5725,22 +5037,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="C132" t="n">
-        <v>75.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="D132" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="E132" t="n">
-        <v>75.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="F132" t="n">
-        <v>10369.6734</v>
+        <v>13577.5033</v>
       </c>
       <c r="G132" t="n">
-        <v>75.57000000000004</v>
+        <v>75.49833333333322</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5749,14 +5061,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5766,22 +5072,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>75.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="C133" t="n">
         <v>75.59999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>75.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="E133" t="n">
         <v>75.59999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>14560.9999</v>
+        <v>10369.6734</v>
       </c>
       <c r="G133" t="n">
-        <v>75.58000000000003</v>
+        <v>75.49333333333324</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5790,14 +5096,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5819,10 +5119,10 @@
         <v>75.59999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>4190.7131</v>
+        <v>14560.9999</v>
       </c>
       <c r="G134" t="n">
-        <v>75.59000000000002</v>
+        <v>75.49666666666658</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5831,14 +5131,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5848,22 +5142,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>75.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>75.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>75.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>75.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>7996</v>
+        <v>4190.7131</v>
       </c>
       <c r="G135" t="n">
-        <v>75.59500000000001</v>
+        <v>75.49333333333325</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5872,14 +5166,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5901,10 +5189,10 @@
         <v>75.5</v>
       </c>
       <c r="F136" t="n">
-        <v>18136.8013</v>
+        <v>7996</v>
       </c>
       <c r="G136" t="n">
-        <v>75.59500000000001</v>
+        <v>75.49166666666657</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5913,14 +5201,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5930,22 +5212,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>75.3</v>
+        <v>75.5</v>
       </c>
       <c r="C137" t="n">
-        <v>75.3</v>
+        <v>75.5</v>
       </c>
       <c r="D137" t="n">
-        <v>75.3</v>
+        <v>75.5</v>
       </c>
       <c r="E137" t="n">
-        <v>75.3</v>
+        <v>75.5</v>
       </c>
       <c r="F137" t="n">
-        <v>24759.8506</v>
+        <v>18136.8013</v>
       </c>
       <c r="G137" t="n">
-        <v>75.58500000000001</v>
+        <v>75.48999999999991</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5954,14 +5236,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5971,22 +5247,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="C138" t="n">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="D138" t="n">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="E138" t="n">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="F138" t="n">
-        <v>4851.1987</v>
+        <v>24759.8506</v>
       </c>
       <c r="G138" t="n">
-        <v>75.59</v>
+        <v>75.4849999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5995,14 +5271,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6012,22 +5282,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="C139" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="D139" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="E139" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="F139" t="n">
-        <v>145</v>
+        <v>4851.1987</v>
       </c>
       <c r="G139" t="n">
-        <v>75.58500000000001</v>
+        <v>75.48833333333323</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -6036,14 +5306,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6053,22 +5317,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>75.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>75.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>3096.9466</v>
+        <v>145</v>
       </c>
       <c r="G140" t="n">
-        <v>75.59</v>
+        <v>75.48999999999988</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6077,14 +5341,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6097,19 +5355,19 @@
         <v>75.3</v>
       </c>
       <c r="C141" t="n">
-        <v>75.3</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>75.3</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E141" t="n">
         <v>75.3</v>
       </c>
       <c r="F141" t="n">
-        <v>2050</v>
+        <v>3096.9466</v>
       </c>
       <c r="G141" t="n">
-        <v>75.58000000000001</v>
+        <v>75.49166666666656</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6118,14 +5376,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6147,10 +5399,10 @@
         <v>75.3</v>
       </c>
       <c r="F142" t="n">
-        <v>1364</v>
+        <v>2050</v>
       </c>
       <c r="G142" t="n">
-        <v>75.57000000000001</v>
+        <v>75.48833333333323</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6159,14 +5411,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6179,19 +5425,19 @@
         <v>75.3</v>
       </c>
       <c r="C143" t="n">
-        <v>74.7</v>
+        <v>75.3</v>
       </c>
       <c r="D143" t="n">
         <v>75.3</v>
       </c>
       <c r="E143" t="n">
-        <v>74.7</v>
+        <v>75.3</v>
       </c>
       <c r="F143" t="n">
-        <v>129570.3576</v>
+        <v>1364</v>
       </c>
       <c r="G143" t="n">
-        <v>75.55</v>
+        <v>75.4849999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6200,14 +5446,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6217,22 +5457,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="C144" t="n">
-        <v>75.2</v>
+        <v>74.7</v>
       </c>
       <c r="D144" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="E144" t="n">
-        <v>75.2</v>
+        <v>74.7</v>
       </c>
       <c r="F144" t="n">
-        <v>10630</v>
+        <v>129570.3576</v>
       </c>
       <c r="G144" t="n">
-        <v>75.52500000000001</v>
+        <v>75.47166666666656</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6241,14 +5481,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6258,22 +5492,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="C145" t="n">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="D145" t="n">
-        <v>75.09999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="E145" t="n">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="F145" t="n">
-        <v>13049</v>
+        <v>10630</v>
       </c>
       <c r="G145" t="n">
-        <v>75.48999999999999</v>
+        <v>75.46666666666655</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6282,14 +5516,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6305,16 +5533,16 @@
         <v>75</v>
       </c>
       <c r="D146" t="n">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E146" t="n">
         <v>75</v>
       </c>
       <c r="F146" t="n">
-        <v>2232</v>
+        <v>13049</v>
       </c>
       <c r="G146" t="n">
-        <v>75.45</v>
+        <v>75.45833333333323</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6323,14 +5551,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6352,10 +5574,10 @@
         <v>75</v>
       </c>
       <c r="F147" t="n">
-        <v>4460</v>
+        <v>2232</v>
       </c>
       <c r="G147" t="n">
-        <v>75.41</v>
+        <v>75.45166666666657</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6364,14 +5586,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6384,19 +5600,19 @@
         <v>75</v>
       </c>
       <c r="C148" t="n">
-        <v>75.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D148" t="n">
-        <v>75.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="E148" t="n">
         <v>75</v>
       </c>
       <c r="F148" t="n">
-        <v>8000</v>
+        <v>4460</v>
       </c>
       <c r="G148" t="n">
-        <v>75.38000000000001</v>
+        <v>75.44499999999991</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6405,14 +5621,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6422,22 +5632,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>75.2</v>
+        <v>75</v>
       </c>
       <c r="C149" t="n">
-        <v>75.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D149" t="n">
-        <v>75.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>75.2</v>
+        <v>75</v>
       </c>
       <c r="F149" t="n">
-        <v>2320</v>
+        <v>8000</v>
       </c>
       <c r="G149" t="n">
-        <v>75.355</v>
+        <v>75.43999999999991</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6446,14 +5656,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6463,22 +5667,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>74.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="C150" t="n">
-        <v>74.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="D150" t="n">
-        <v>74.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="E150" t="n">
-        <v>74.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="F150" t="n">
-        <v>139.0089</v>
+        <v>2320</v>
       </c>
       <c r="G150" t="n">
-        <v>75.30500000000001</v>
+        <v>75.43666666666658</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6487,14 +5691,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6504,22 +5702,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>74.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>74.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>74.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>74.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F151" t="n">
-        <v>7967.2929</v>
+        <v>139.0089</v>
       </c>
       <c r="G151" t="n">
-        <v>75.245</v>
+        <v>75.4216666666666</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6528,14 +5726,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6545,22 +5737,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="C152" t="n">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="D152" t="n">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="E152" t="n">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="F152" t="n">
-        <v>2020</v>
+        <v>7967.2929</v>
       </c>
       <c r="G152" t="n">
-        <v>75.185</v>
+        <v>75.4066666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6569,14 +5761,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6589,19 +5775,19 @@
         <v>74.59999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>74.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D153" t="n">
-        <v>74.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E153" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="F153" t="n">
-        <v>466</v>
+        <v>2020</v>
       </c>
       <c r="G153" t="n">
-        <v>75.13500000000001</v>
+        <v>75.39166666666661</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6610,14 +5796,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6627,7 +5807,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>74.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C154" t="n">
         <v>74.7</v>
@@ -6636,13 +5816,13 @@
         <v>74.7</v>
       </c>
       <c r="E154" t="n">
-        <v>74.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>3120</v>
+        <v>466</v>
       </c>
       <c r="G154" t="n">
-        <v>75.09</v>
+        <v>75.37833333333327</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6651,14 +5831,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6668,7 +5842,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>74.59999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="C155" t="n">
         <v>74.7</v>
@@ -6677,13 +5851,13 @@
         <v>74.7</v>
       </c>
       <c r="E155" t="n">
-        <v>74.59999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="F155" t="n">
-        <v>7492.8452</v>
+        <v>3120</v>
       </c>
       <c r="G155" t="n">
-        <v>75.045</v>
+        <v>75.36499999999994</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6692,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6712,19 +5880,19 @@
         <v>74.59999999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>74.59999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="D156" t="n">
-        <v>74.59999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="E156" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="F156" t="n">
-        <v>901</v>
+        <v>7492.8452</v>
       </c>
       <c r="G156" t="n">
-        <v>75</v>
+        <v>75.3516666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6733,14 +5901,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6762,10 +5924,10 @@
         <v>74.59999999999999</v>
       </c>
       <c r="F157" t="n">
-        <v>2172.4247</v>
+        <v>901</v>
       </c>
       <c r="G157" t="n">
-        <v>74.965</v>
+        <v>75.3366666666666</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6774,14 +5936,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6791,22 +5947,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>74.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>74.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D158" t="n">
-        <v>74.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E158" t="n">
-        <v>74.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F158" t="n">
-        <v>16716.4217</v>
+        <v>2172.4247</v>
       </c>
       <c r="G158" t="n">
-        <v>74.905</v>
+        <v>75.32166666666662</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6815,14 +5971,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6832,22 +5982,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="C159" t="n">
         <v>74.2</v>
       </c>
-      <c r="C159" t="n">
-        <v>74.5</v>
-      </c>
       <c r="D159" t="n">
-        <v>74.5</v>
+        <v>74.3</v>
       </c>
       <c r="E159" t="n">
         <v>74.2</v>
       </c>
       <c r="F159" t="n">
-        <v>854.9215</v>
+        <v>16716.4217</v>
       </c>
       <c r="G159" t="n">
-        <v>74.845</v>
+        <v>75.29999999999994</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6856,14 +6006,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6873,7 +6017,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>74.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="C160" t="n">
         <v>74.5</v>
@@ -6882,13 +6026,13 @@
         <v>74.5</v>
       </c>
       <c r="E160" t="n">
-        <v>74.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="F160" t="n">
-        <v>3452.6</v>
+        <v>854.9215</v>
       </c>
       <c r="G160" t="n">
-        <v>74.8</v>
+        <v>75.28333333333327</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6897,14 +6041,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6914,7 +6052,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>74.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C161" t="n">
         <v>74.5</v>
@@ -6923,13 +6061,13 @@
         <v>74.5</v>
       </c>
       <c r="E161" t="n">
-        <v>74.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F161" t="n">
-        <v>5624.0221</v>
+        <v>3452.6</v>
       </c>
       <c r="G161" t="n">
-        <v>74.76000000000001</v>
+        <v>75.26666666666661</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6938,14 +6076,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6967,10 +6099,10 @@
         <v>74.5</v>
       </c>
       <c r="F162" t="n">
-        <v>842</v>
+        <v>5624.0221</v>
       </c>
       <c r="G162" t="n">
-        <v>74.72</v>
+        <v>75.24999999999994</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6979,14 +6111,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7008,10 +6134,10 @@
         <v>74.5</v>
       </c>
       <c r="F163" t="n">
-        <v>921</v>
+        <v>842</v>
       </c>
       <c r="G163" t="n">
-        <v>74.68000000000001</v>
+        <v>75.23499999999994</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -7020,14 +6146,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7037,22 +6157,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>74.40000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="C164" t="n">
-        <v>74.40000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="D164" t="n">
-        <v>74.40000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="E164" t="n">
-        <v>74.40000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="F164" t="n">
-        <v>1680</v>
+        <v>921</v>
       </c>
       <c r="G164" t="n">
-        <v>74.64000000000001</v>
+        <v>75.21999999999996</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -7061,14 +6181,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7078,22 +6192,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>74.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>74.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>74.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>74.5</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F165" t="n">
-        <v>10</v>
+        <v>1680</v>
       </c>
       <c r="G165" t="n">
-        <v>74.61500000000001</v>
+        <v>75.20333333333329</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7102,14 +6216,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7131,10 +6239,10 @@
         <v>74.5</v>
       </c>
       <c r="F166" t="n">
-        <v>14.6308</v>
+        <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>74.59</v>
+        <v>75.18833333333329</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7143,14 +6251,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7172,10 +6274,10 @@
         <v>74.5</v>
       </c>
       <c r="F167" t="n">
-        <v>440</v>
+        <v>14.6308</v>
       </c>
       <c r="G167" t="n">
-        <v>74.56500000000001</v>
+        <v>75.1733333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -7184,14 +6286,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7213,10 +6309,10 @@
         <v>74.5</v>
       </c>
       <c r="F168" t="n">
-        <v>40.7187</v>
+        <v>440</v>
       </c>
       <c r="G168" t="n">
-        <v>74.54000000000001</v>
+        <v>75.1583333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7225,14 +6321,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7254,10 +6344,10 @@
         <v>74.5</v>
       </c>
       <c r="F169" t="n">
-        <v>4712</v>
+        <v>40.7187</v>
       </c>
       <c r="G169" t="n">
-        <v>74.50500000000001</v>
+        <v>75.1433333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7266,14 +6356,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7295,10 +6379,10 @@
         <v>74.5</v>
       </c>
       <c r="F170" t="n">
-        <v>3002.8807</v>
+        <v>4712</v>
       </c>
       <c r="G170" t="n">
-        <v>74.50000000000001</v>
+        <v>75.12833333333332</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7307,14 +6391,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7336,10 +6414,10 @@
         <v>74.5</v>
       </c>
       <c r="F171" t="n">
-        <v>6733</v>
+        <v>3002.8807</v>
       </c>
       <c r="G171" t="n">
-        <v>74.50000000000001</v>
+        <v>75.11333333333332</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7348,14 +6426,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7365,22 +6437,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>74.3</v>
+        <v>74.5</v>
       </c>
       <c r="C172" t="n">
-        <v>74.3</v>
+        <v>74.5</v>
       </c>
       <c r="D172" t="n">
-        <v>74.3</v>
+        <v>74.5</v>
       </c>
       <c r="E172" t="n">
-        <v>74.3</v>
+        <v>74.5</v>
       </c>
       <c r="F172" t="n">
-        <v>1775.3067</v>
+        <v>6733</v>
       </c>
       <c r="G172" t="n">
-        <v>74.48500000000001</v>
+        <v>75.09833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7389,14 +6461,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7406,22 +6472,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>74.5</v>
+        <v>74.3</v>
       </c>
       <c r="C173" t="n">
-        <v>74.5</v>
+        <v>74.3</v>
       </c>
       <c r="D173" t="n">
-        <v>74.5</v>
+        <v>74.3</v>
       </c>
       <c r="E173" t="n">
-        <v>74.5</v>
+        <v>74.3</v>
       </c>
       <c r="F173" t="n">
-        <v>5020</v>
+        <v>1775.3067</v>
       </c>
       <c r="G173" t="n">
-        <v>74.48000000000002</v>
+        <v>75.08</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7430,14 +6496,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7459,10 +6519,10 @@
         <v>74.5</v>
       </c>
       <c r="F174" t="n">
-        <v>5662.7516</v>
+        <v>5020</v>
       </c>
       <c r="G174" t="n">
-        <v>74.47000000000001</v>
+        <v>75.06500000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -7471,14 +6531,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7500,10 +6554,10 @@
         <v>74.5</v>
       </c>
       <c r="F175" t="n">
-        <v>4755.5032</v>
+        <v>5662.7516</v>
       </c>
       <c r="G175" t="n">
-        <v>74.46500000000002</v>
+        <v>75.05000000000001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7512,14 +6566,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7535,16 +6583,16 @@
         <v>74.5</v>
       </c>
       <c r="D176" t="n">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="E176" t="n">
         <v>74.5</v>
       </c>
       <c r="F176" t="n">
-        <v>172198.1152</v>
+        <v>4755.5032</v>
       </c>
       <c r="G176" t="n">
-        <v>74.46000000000002</v>
+        <v>75.03333333333335</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7553,14 +6601,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7570,22 +6612,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="D177" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="C177" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="D177" t="n">
-        <v>74.8</v>
-      </c>
       <c r="E177" t="n">
-        <v>74.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="F177" t="n">
-        <v>70385.15949999999</v>
+        <v>172198.1152</v>
       </c>
       <c r="G177" t="n">
-        <v>74.46000000000002</v>
+        <v>75.01666666666668</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7594,14 +6636,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7611,22 +6647,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C178" t="n">
-        <v>75</v>
+        <v>74.8</v>
       </c>
       <c r="D178" t="n">
-        <v>75</v>
+        <v>74.8</v>
       </c>
       <c r="E178" t="n">
-        <v>75</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F178" t="n">
-        <v>10</v>
+        <v>70385.15949999999</v>
       </c>
       <c r="G178" t="n">
-        <v>74.49500000000003</v>
+        <v>75.00500000000002</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7635,14 +6671,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7664,10 +6694,10 @@
         <v>75</v>
       </c>
       <c r="F179" t="n">
-        <v>18453.6266</v>
+        <v>10</v>
       </c>
       <c r="G179" t="n">
-        <v>74.53500000000003</v>
+        <v>74.99833333333336</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7676,14 +6706,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7693,22 +6717,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>74.5</v>
+        <v>75</v>
       </c>
       <c r="C180" t="n">
-        <v>74.5</v>
+        <v>75</v>
       </c>
       <c r="D180" t="n">
-        <v>74.5</v>
+        <v>75</v>
       </c>
       <c r="E180" t="n">
-        <v>74.5</v>
+        <v>75</v>
       </c>
       <c r="F180" t="n">
-        <v>1875.0682</v>
+        <v>18453.6266</v>
       </c>
       <c r="G180" t="n">
-        <v>74.54000000000002</v>
+        <v>74.99000000000002</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7717,14 +6741,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7746,10 +6764,10 @@
         <v>74.5</v>
       </c>
       <c r="F181" t="n">
-        <v>4717.0563</v>
+        <v>1875.0682</v>
       </c>
       <c r="G181" t="n">
-        <v>74.54000000000002</v>
+        <v>74.97833333333337</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7758,14 +6776,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7775,22 +6787,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="C182" t="n">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="D182" t="n">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="E182" t="n">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="F182" t="n">
-        <v>10</v>
+        <v>4717.0563</v>
       </c>
       <c r="G182" t="n">
-        <v>74.56500000000003</v>
+        <v>74.96166666666669</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7799,14 +6811,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7828,10 +6834,10 @@
         <v>75</v>
       </c>
       <c r="F183" t="n">
-        <v>445.3866666666667</v>
+        <v>10</v>
       </c>
       <c r="G183" t="n">
-        <v>74.59000000000002</v>
+        <v>74.95166666666668</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7840,14 +6846,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7857,22 +6857,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>74.5</v>
+        <v>75</v>
       </c>
       <c r="C184" t="n">
-        <v>74.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="D184" t="n">
-        <v>74.5</v>
+        <v>75</v>
       </c>
       <c r="E184" t="n">
-        <v>74.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="F184" t="n">
-        <v>7900</v>
+        <v>445.3866666666667</v>
       </c>
       <c r="G184" t="n">
-        <v>74.59500000000001</v>
+        <v>74.94000000000003</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7881,14 +6881,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7898,22 +6892,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>74.8</v>
+        <v>74.5</v>
       </c>
       <c r="C185" t="n">
-        <v>74.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D185" t="n">
-        <v>74.8</v>
+        <v>74.5</v>
       </c>
       <c r="E185" t="n">
-        <v>74.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F185" t="n">
-        <v>5317.4619</v>
+        <v>7900</v>
       </c>
       <c r="G185" t="n">
-        <v>74.61000000000001</v>
+        <v>74.91833333333335</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7922,14 +6916,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7939,22 +6927,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>74.5</v>
+        <v>74.8</v>
       </c>
       <c r="C186" t="n">
-        <v>74.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="D186" t="n">
-        <v>74.5</v>
+        <v>74.8</v>
       </c>
       <c r="E186" t="n">
-        <v>74.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="F186" t="n">
-        <v>18407.4925</v>
+        <v>5317.4619</v>
       </c>
       <c r="G186" t="n">
-        <v>74.61000000000001</v>
+        <v>74.90333333333336</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7963,14 +6951,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7980,22 +6962,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>74.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="C187" t="n">
-        <v>74.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D187" t="n">
-        <v>74.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="E187" t="n">
-        <v>74.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F187" t="n">
-        <v>10</v>
+        <v>18407.4925</v>
       </c>
       <c r="G187" t="n">
-        <v>74.63000000000002</v>
+        <v>74.88000000000002</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -8004,14 +6986,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8021,22 +6997,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>74.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C188" t="n">
-        <v>74.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D188" t="n">
-        <v>74.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E188" t="n">
-        <v>74.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F188" t="n">
-        <v>805.1904</v>
+        <v>10</v>
       </c>
       <c r="G188" t="n">
-        <v>74.64500000000001</v>
+        <v>74.86500000000001</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -8045,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8068,16 +7038,16 @@
         <v>74.8</v>
       </c>
       <c r="D189" t="n">
-        <v>74.90000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="E189" t="n">
         <v>74.8</v>
       </c>
       <c r="F189" t="n">
-        <v>5655.3042</v>
+        <v>805.1904</v>
       </c>
       <c r="G189" t="n">
-        <v>74.66000000000001</v>
+        <v>74.85833333333335</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -8086,14 +7056,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8109,16 +7073,16 @@
         <v>74.8</v>
       </c>
       <c r="D190" t="n">
-        <v>74.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E190" t="n">
         <v>74.8</v>
       </c>
       <c r="F190" t="n">
-        <v>378.5101</v>
+        <v>5655.3042</v>
       </c>
       <c r="G190" t="n">
-        <v>74.67500000000001</v>
+        <v>74.84333333333335</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -8127,14 +7091,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8144,22 +7102,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>74.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="C191" t="n">
-        <v>74.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="D191" t="n">
-        <v>74.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="E191" t="n">
-        <v>74.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="F191" t="n">
-        <v>6045.8833</v>
+        <v>378.5101</v>
       </c>
       <c r="G191" t="n">
-        <v>74.67000000000002</v>
+        <v>74.82833333333336</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -8168,14 +7126,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8185,22 +7137,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>74.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C192" t="n">
-        <v>74.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D192" t="n">
-        <v>74.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="E192" t="n">
-        <v>74.7</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F192" t="n">
-        <v>8000</v>
+        <v>6045.8833</v>
       </c>
       <c r="G192" t="n">
-        <v>74.69000000000003</v>
+        <v>74.80666666666669</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -8209,14 +7161,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8226,22 +7172,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="C193" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="C193" t="n">
-        <v>75</v>
-      </c>
       <c r="D193" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>74.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="F193" t="n">
-        <v>23647.88</v>
+        <v>8000</v>
       </c>
       <c r="G193" t="n">
-        <v>74.71000000000002</v>
+        <v>74.79500000000002</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -8250,14 +7196,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8267,7 +7207,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C194" t="n">
         <v>75</v>
@@ -8276,13 +7216,13 @@
         <v>75</v>
       </c>
       <c r="E194" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F194" t="n">
-        <v>5760</v>
+        <v>23647.88</v>
       </c>
       <c r="G194" t="n">
-        <v>74.73500000000003</v>
+        <v>74.78500000000001</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8291,14 +7231,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8320,10 +7254,10 @@
         <v>75</v>
       </c>
       <c r="F195" t="n">
-        <v>109.7197</v>
+        <v>5760</v>
       </c>
       <c r="G195" t="n">
-        <v>74.76000000000002</v>
+        <v>74.77500000000001</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8332,14 +7266,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8352,19 +7280,19 @@
         <v>75</v>
       </c>
       <c r="C196" t="n">
-        <v>75.3</v>
+        <v>75</v>
       </c>
       <c r="D196" t="n">
-        <v>75.3</v>
+        <v>75</v>
       </c>
       <c r="E196" t="n">
         <v>75</v>
       </c>
       <c r="F196" t="n">
-        <v>74873.5435</v>
+        <v>109.7197</v>
       </c>
       <c r="G196" t="n">
-        <v>74.78500000000003</v>
+        <v>74.76666666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8373,14 +7301,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8390,22 +7312,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>75.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="C197" t="n">
-        <v>76.3</v>
+        <v>75.3</v>
       </c>
       <c r="D197" t="n">
-        <v>76.3</v>
+        <v>75.3</v>
       </c>
       <c r="E197" t="n">
-        <v>75.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="F197" t="n">
-        <v>105828.5482</v>
+        <v>74873.5435</v>
       </c>
       <c r="G197" t="n">
-        <v>74.83500000000002</v>
+        <v>74.76333333333334</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8414,14 +7336,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8431,22 +7347,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>76.40000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C198" t="n">
-        <v>76.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D198" t="n">
-        <v>76.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="E198" t="n">
-        <v>76.40000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F198" t="n">
-        <v>158647.5174</v>
+        <v>105828.5482</v>
       </c>
       <c r="G198" t="n">
-        <v>74.90500000000003</v>
+        <v>74.78</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8455,14 +7371,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8472,22 +7382,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C199" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D199" t="n">
-        <v>76.90000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E199" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F199" t="n">
-        <v>9600.2875</v>
+        <v>158647.5174</v>
       </c>
       <c r="G199" t="n">
-        <v>74.99000000000004</v>
+        <v>74.79833333333335</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8496,14 +7406,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8513,40 +7417,34 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="C200" t="n">
-        <v>76.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D200" t="n">
-        <v>76.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E200" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F200" t="n">
-        <v>5502.9999</v>
+        <v>9600.2875</v>
       </c>
       <c r="G200" t="n">
-        <v>75.09000000000003</v>
+        <v>74.82333333333334</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>1.035871934604905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -8554,22 +7452,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C201" t="n">
         <v>76.40000000000001</v>
       </c>
       <c r="D201" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E201" t="n">
         <v>76.40000000000001</v>
       </c>
       <c r="F201" t="n">
-        <v>2875.8334</v>
+        <v>5502.9999</v>
       </c>
       <c r="G201" t="n">
-        <v>75.18500000000003</v>
+        <v>74.83666666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8589,7 +7487,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C202" t="n">
         <v>76.40000000000001</v>
@@ -8598,19 +7496,19 @@
         <v>76.40000000000001</v>
       </c>
       <c r="E202" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F202" t="n">
-        <v>13328</v>
+        <v>2875.8334</v>
       </c>
       <c r="G202" t="n">
-        <v>75.25000000000003</v>
+        <v>74.85499999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
@@ -8624,28 +7522,28 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="C203" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="C203" t="n">
-        <v>76.2</v>
-      </c>
       <c r="D203" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E203" t="n">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="F203" t="n">
-        <v>16285</v>
+        <v>13328</v>
       </c>
       <c r="G203" t="n">
-        <v>75.32000000000004</v>
+        <v>74.87333333333331</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
@@ -8659,28 +7557,28 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C204" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="D204" t="n">
-        <v>76.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E204" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>16285</v>
       </c>
       <c r="G204" t="n">
-        <v>75.41000000000004</v>
+        <v>74.89833333333331</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
@@ -8694,28 +7592,28 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="C205" t="n">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="D205" t="n">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="E205" t="n">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="F205" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G205" t="n">
-        <v>75.48000000000005</v>
+        <v>74.91666666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -8741,10 +7639,10 @@
         <v>76.2</v>
       </c>
       <c r="F206" t="n">
-        <v>1580.2394</v>
+        <v>3000</v>
       </c>
       <c r="G206" t="n">
-        <v>75.56500000000004</v>
+        <v>74.93666666666665</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8764,22 +7662,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>76</v>
+        <v>76.2</v>
       </c>
       <c r="C207" t="n">
-        <v>76.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="D207" t="n">
-        <v>76.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="E207" t="n">
-        <v>76</v>
+        <v>76.2</v>
       </c>
       <c r="F207" t="n">
-        <v>4000</v>
+        <v>1580.2394</v>
       </c>
       <c r="G207" t="n">
-        <v>75.62000000000003</v>
+        <v>74.95666666666665</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8802,19 +7700,19 @@
         <v>76</v>
       </c>
       <c r="C208" t="n">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D208" t="n">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E208" t="n">
         <v>76</v>
       </c>
       <c r="F208" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G208" t="n">
-        <v>75.68000000000004</v>
+        <v>74.97499999999998</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8834,22 +7732,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>76.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="C209" t="n">
-        <v>76.2</v>
+        <v>76</v>
       </c>
       <c r="D209" t="n">
-        <v>76.2</v>
+        <v>76</v>
       </c>
       <c r="E209" t="n">
-        <v>76.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="F209" t="n">
-        <v>3996</v>
+        <v>2000</v>
       </c>
       <c r="G209" t="n">
-        <v>75.74500000000003</v>
+        <v>74.98999999999998</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8869,22 +7767,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C210" t="n">
         <v>76.2</v>
       </c>
-      <c r="C210" t="n">
-        <v>76.3</v>
-      </c>
       <c r="D210" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="E210" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F210" t="n">
-        <v>402.1554</v>
+        <v>3996</v>
       </c>
       <c r="G210" t="n">
-        <v>75.81500000000004</v>
+        <v>75.00666666666665</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8904,7 +7802,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="C211" t="n">
         <v>76.3</v>
@@ -8913,13 +7811,13 @@
         <v>76.3</v>
       </c>
       <c r="E211" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="F211" t="n">
-        <v>1601.8446</v>
+        <v>402.1554</v>
       </c>
       <c r="G211" t="n">
-        <v>75.91000000000004</v>
+        <v>75.03499999999998</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8939,22 +7837,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C212" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="D212" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E212" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F212" t="n">
-        <v>2000</v>
+        <v>1601.8446</v>
       </c>
       <c r="G212" t="n">
-        <v>75.99500000000003</v>
+        <v>75.06499999999998</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8974,22 +7872,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C213" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D213" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E213" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F213" t="n">
-        <v>19891.3037</v>
+        <v>2000</v>
       </c>
       <c r="G213" t="n">
-        <v>76.07500000000003</v>
+        <v>75.09499999999997</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -9009,22 +7907,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C214" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D214" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E214" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="F214" t="n">
-        <v>1000</v>
+        <v>19891.3037</v>
       </c>
       <c r="G214" t="n">
-        <v>76.14500000000004</v>
+        <v>75.1283333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -9044,22 +7942,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>76.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C215" t="n">
-        <v>76.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D215" t="n">
-        <v>76.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E215" t="n">
-        <v>76</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F215" t="n">
-        <v>2740</v>
+        <v>1000</v>
       </c>
       <c r="G215" t="n">
-        <v>76.20000000000003</v>
+        <v>75.15666666666662</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -9079,22 +7977,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>75.90000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C216" t="n">
-        <v>75.90000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D216" t="n">
-        <v>75.90000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E216" t="n">
-        <v>75.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="F216" t="n">
-        <v>1493.4528</v>
+        <v>2740</v>
       </c>
       <c r="G216" t="n">
-        <v>76.24500000000003</v>
+        <v>75.17999999999998</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -9126,10 +8024,10 @@
         <v>75.90000000000001</v>
       </c>
       <c r="F217" t="n">
-        <v>1306.5472</v>
+        <v>1493.4528</v>
       </c>
       <c r="G217" t="n">
-        <v>76.26000000000005</v>
+        <v>75.20166666666663</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -9149,22 +8047,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>76.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C218" t="n">
-        <v>75.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D218" t="n">
-        <v>76.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E218" t="n">
-        <v>75.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F218" t="n">
-        <v>32010.8005</v>
+        <v>1306.5472</v>
       </c>
       <c r="G218" t="n">
-        <v>76.25000000000004</v>
+        <v>75.22333333333329</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9184,22 +8082,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>75.59999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="C219" t="n">
-        <v>75.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="D219" t="n">
-        <v>75.59999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="E219" t="n">
-        <v>75.59999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="F219" t="n">
-        <v>1000</v>
+        <v>32010.8005</v>
       </c>
       <c r="G219" t="n">
-        <v>76.19500000000004</v>
+        <v>75.24833333333328</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -9219,22 +8117,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>76.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C220" t="n">
-        <v>76.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D220" t="n">
-        <v>76.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E220" t="n">
-        <v>76.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F220" t="n">
-        <v>2020</v>
+        <v>1000</v>
       </c>
       <c r="G220" t="n">
-        <v>76.18000000000004</v>
+        <v>75.26666666666662</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -9254,22 +8152,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>76.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="C221" t="n">
-        <v>76.5</v>
+        <v>76.2</v>
       </c>
       <c r="D221" t="n">
-        <v>76.5</v>
+        <v>76.2</v>
       </c>
       <c r="E221" t="n">
-        <v>76.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="F221" t="n">
-        <v>3590</v>
+        <v>2020</v>
       </c>
       <c r="G221" t="n">
-        <v>76.18000000000004</v>
+        <v>75.29499999999994</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -9289,7 +8187,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C222" t="n">
         <v>76.5</v>
@@ -9298,13 +8196,13 @@
         <v>76.5</v>
       </c>
       <c r="E222" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F222" t="n">
-        <v>430</v>
+        <v>3590</v>
       </c>
       <c r="G222" t="n">
-        <v>76.19000000000004</v>
+        <v>75.32833333333329</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -9324,22 +8222,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>76.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C223" t="n">
-        <v>76.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D223" t="n">
-        <v>76.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E223" t="n">
-        <v>76.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F223" t="n">
-        <v>18421.1916</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
-        <v>76.17500000000004</v>
+        <v>75.36166666666662</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9359,22 +8257,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C224" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D224" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E224" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F224" t="n">
-        <v>555.0228</v>
+        <v>18421.1916</v>
       </c>
       <c r="G224" t="n">
-        <v>76.17000000000004</v>
+        <v>75.38833333333329</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9397,19 +8295,19 @@
         <v>76.2</v>
       </c>
       <c r="C225" t="n">
-        <v>76.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="D225" t="n">
         <v>76.2</v>
       </c>
       <c r="E225" t="n">
-        <v>76.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="F225" t="n">
-        <v>16088.6149</v>
+        <v>555.0228</v>
       </c>
       <c r="G225" t="n">
-        <v>76.17000000000004</v>
+        <v>75.41833333333329</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9429,22 +8327,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>75.8</v>
+        <v>76.2</v>
       </c>
       <c r="C226" t="n">
-        <v>75.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D226" t="n">
-        <v>75.8</v>
+        <v>76.2</v>
       </c>
       <c r="E226" t="n">
-        <v>75.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F226" t="n">
-        <v>139.6787</v>
+        <v>16088.6149</v>
       </c>
       <c r="G226" t="n">
-        <v>76.15000000000003</v>
+        <v>75.44499999999996</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9464,22 +8362,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="C227" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="D227" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="E227" t="n">
-        <v>75.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="F227" t="n">
-        <v>11722.9208</v>
+        <v>139.6787</v>
       </c>
       <c r="G227" t="n">
-        <v>76.14500000000004</v>
+        <v>75.46666666666664</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9499,22 +8397,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>75.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C228" t="n">
-        <v>75.7</v>
+        <v>76</v>
       </c>
       <c r="D228" t="n">
-        <v>75.7</v>
+        <v>76</v>
       </c>
       <c r="E228" t="n">
-        <v>75.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F228" t="n">
-        <v>1000</v>
+        <v>11722.9208</v>
       </c>
       <c r="G228" t="n">
-        <v>76.13000000000004</v>
+        <v>75.49166666666663</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9534,22 +8432,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>75.90000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="C229" t="n">
-        <v>75.90000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="D229" t="n">
-        <v>75.90000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="E229" t="n">
-        <v>75.90000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="F229" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G229" t="n">
-        <v>76.12000000000005</v>
+        <v>75.51166666666663</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9569,22 +8467,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C230" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D230" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E230" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F230" t="n">
-        <v>2884</v>
+        <v>5000</v>
       </c>
       <c r="G230" t="n">
-        <v>76.11000000000004</v>
+        <v>75.53499999999995</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9616,10 +8514,10 @@
         <v>76</v>
       </c>
       <c r="F231" t="n">
-        <v>3843</v>
+        <v>2884</v>
       </c>
       <c r="G231" t="n">
-        <v>76.09500000000006</v>
+        <v>75.55999999999996</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9651,10 +8549,10 @@
         <v>76</v>
       </c>
       <c r="F232" t="n">
-        <v>5769.2174</v>
+        <v>3843</v>
       </c>
       <c r="G232" t="n">
-        <v>76.07500000000005</v>
+        <v>75.58499999999997</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9686,10 +8584,10 @@
         <v>76</v>
       </c>
       <c r="F233" t="n">
-        <v>11827</v>
+        <v>5769.2174</v>
       </c>
       <c r="G233" t="n">
-        <v>76.05000000000004</v>
+        <v>75.61333333333329</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9721,10 +8619,10 @@
         <v>76</v>
       </c>
       <c r="F234" t="n">
-        <v>16831</v>
+        <v>11827</v>
       </c>
       <c r="G234" t="n">
-        <v>76.03000000000004</v>
+        <v>75.63833333333329</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9747,19 +8645,19 @@
         <v>76</v>
       </c>
       <c r="C235" t="n">
-        <v>76.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="D235" t="n">
-        <v>76.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="E235" t="n">
         <v>76</v>
       </c>
       <c r="F235" t="n">
-        <v>9890</v>
+        <v>16831</v>
       </c>
       <c r="G235" t="n">
-        <v>76.02500000000005</v>
+        <v>75.66333333333328</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9779,22 +8677,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="C236" t="n">
-        <v>76.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D236" t="n">
-        <v>76.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E236" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="F236" t="n">
-        <v>18570</v>
+        <v>9890</v>
       </c>
       <c r="G236" t="n">
-        <v>76.02000000000004</v>
+        <v>75.68999999999997</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9817,19 +8715,19 @@
         <v>75.8</v>
       </c>
       <c r="C237" t="n">
-        <v>75.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D237" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E237" t="n">
         <v>75.8</v>
       </c>
-      <c r="E237" t="n">
-        <v>75.7</v>
-      </c>
       <c r="F237" t="n">
-        <v>2854.5814</v>
+        <v>18570</v>
       </c>
       <c r="G237" t="n">
-        <v>76.01500000000003</v>
+        <v>75.72499999999997</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9849,22 +8747,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="C238" t="n">
         <v>75.7</v>
       </c>
       <c r="D238" t="n">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="E238" t="n">
         <v>75.7</v>
       </c>
       <c r="F238" t="n">
-        <v>6940</v>
+        <v>2854.5814</v>
       </c>
       <c r="G238" t="n">
-        <v>75.99000000000004</v>
+        <v>75.73999999999997</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9887,19 +8785,19 @@
         <v>75.7</v>
       </c>
       <c r="C239" t="n">
-        <v>75.3</v>
+        <v>75.7</v>
       </c>
       <c r="D239" t="n">
         <v>75.7</v>
       </c>
       <c r="E239" t="n">
-        <v>75.3</v>
+        <v>75.7</v>
       </c>
       <c r="F239" t="n">
-        <v>9734.370000000001</v>
+        <v>6940</v>
       </c>
       <c r="G239" t="n">
-        <v>75.99500000000003</v>
+        <v>75.75166666666662</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9919,22 +8817,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>75.3</v>
+        <v>75.7</v>
       </c>
       <c r="C240" t="n">
         <v>75.3</v>
       </c>
       <c r="D240" t="n">
-        <v>75.3</v>
+        <v>75.7</v>
       </c>
       <c r="E240" t="n">
         <v>75.3</v>
       </c>
       <c r="F240" t="n">
-        <v>15690</v>
+        <v>9734.370000000001</v>
       </c>
       <c r="G240" t="n">
-        <v>75.95000000000003</v>
+        <v>75.75666666666663</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9966,10 +8864,10 @@
         <v>75.3</v>
       </c>
       <c r="F241" t="n">
-        <v>1825.9999</v>
+        <v>15690</v>
       </c>
       <c r="G241" t="n">
-        <v>75.89500000000002</v>
+        <v>75.76999999999997</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -10001,10 +8899,10 @@
         <v>75.3</v>
       </c>
       <c r="F242" t="n">
-        <v>5317.894</v>
+        <v>1825.9999</v>
       </c>
       <c r="G242" t="n">
-        <v>75.83500000000002</v>
+        <v>75.7833333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -10036,10 +8934,10 @@
         <v>75.3</v>
       </c>
       <c r="F243" t="n">
-        <v>7128</v>
+        <v>5317.894</v>
       </c>
       <c r="G243" t="n">
-        <v>75.79500000000003</v>
+        <v>75.78833333333331</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -10062,19 +8960,19 @@
         <v>75.3</v>
       </c>
       <c r="C244" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="D244" t="n">
         <v>75.3</v>
       </c>
       <c r="E244" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="F244" t="n">
-        <v>16742.9999</v>
+        <v>7128</v>
       </c>
       <c r="G244" t="n">
-        <v>75.75000000000003</v>
+        <v>75.79333333333331</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -10094,22 +8992,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="C245" t="n">
         <v>75.2</v>
       </c>
       <c r="D245" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="E245" t="n">
         <v>75.2</v>
       </c>
       <c r="F245" t="n">
-        <v>3570</v>
+        <v>16742.9999</v>
       </c>
       <c r="G245" t="n">
-        <v>75.70000000000002</v>
+        <v>75.80666666666664</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -10141,10 +9039,10 @@
         <v>75.2</v>
       </c>
       <c r="F246" t="n">
-        <v>1257</v>
+        <v>3570</v>
       </c>
       <c r="G246" t="n">
-        <v>75.67000000000003</v>
+        <v>75.8133333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -10176,10 +9074,10 @@
         <v>75.2</v>
       </c>
       <c r="F247" t="n">
-        <v>4365.9999</v>
+        <v>1257</v>
       </c>
       <c r="G247" t="n">
-        <v>75.63500000000002</v>
+        <v>75.82666666666664</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -10211,10 +9109,10 @@
         <v>75.2</v>
       </c>
       <c r="F248" t="n">
-        <v>4303.9999</v>
+        <v>4365.9999</v>
       </c>
       <c r="G248" t="n">
-        <v>75.61000000000003</v>
+        <v>75.83166666666665</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -10234,22 +9132,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="C249" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="D249" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="E249" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="F249" t="n">
-        <v>2839.5175</v>
+        <v>4303.9999</v>
       </c>
       <c r="G249" t="n">
-        <v>75.58000000000001</v>
+        <v>75.83833333333331</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -10281,10 +9179,10 @@
         <v>75.3</v>
       </c>
       <c r="F250" t="n">
-        <v>6094.3221</v>
+        <v>2839.5175</v>
       </c>
       <c r="G250" t="n">
-        <v>75.54500000000002</v>
+        <v>75.84666666666664</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -10316,10 +9214,10 @@
         <v>75.3</v>
       </c>
       <c r="F251" t="n">
-        <v>563.4983999999999</v>
+        <v>6094.3221</v>
       </c>
       <c r="G251" t="n">
-        <v>75.51000000000002</v>
+        <v>75.85499999999998</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -10351,10 +9249,10 @@
         <v>75.3</v>
       </c>
       <c r="F252" t="n">
-        <v>10422.9807</v>
+        <v>563.4983999999999</v>
       </c>
       <c r="G252" t="n">
-        <v>75.47500000000001</v>
+        <v>75.86999999999998</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -10374,22 +9272,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="C253" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="D253" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="E253" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="F253" t="n">
-        <v>14691.2387</v>
+        <v>10422.9807</v>
       </c>
       <c r="G253" t="n">
-        <v>75.43500000000002</v>
+        <v>75.87666666666665</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -10421,10 +9319,10 @@
         <v>75.2</v>
       </c>
       <c r="F254" t="n">
-        <v>3761.8324</v>
+        <v>14691.2387</v>
       </c>
       <c r="G254" t="n">
-        <v>75.39500000000001</v>
+        <v>75.87999999999998</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -10456,10 +9354,10 @@
         <v>75.2</v>
       </c>
       <c r="F255" t="n">
-        <v>1053.3144</v>
+        <v>3761.8324</v>
       </c>
       <c r="G255" t="n">
-        <v>75.35500000000002</v>
+        <v>75.88333333333331</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10491,10 +9389,10 @@
         <v>75.2</v>
       </c>
       <c r="F256" t="n">
-        <v>24477.5603</v>
+        <v>1053.3144</v>
       </c>
       <c r="G256" t="n">
-        <v>75.32500000000002</v>
+        <v>75.88666666666664</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -10514,22 +9412,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="C257" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="D257" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="E257" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="F257" t="n">
-        <v>13234.6962</v>
+        <v>24477.5603</v>
       </c>
       <c r="G257" t="n">
-        <v>75.30000000000003</v>
+        <v>75.88499999999998</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10549,7 +9447,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="C258" t="n">
         <v>75.3</v>
@@ -10558,13 +9456,13 @@
         <v>75.3</v>
       </c>
       <c r="E258" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="F258" t="n">
-        <v>13483.3976</v>
+        <v>13234.6962</v>
       </c>
       <c r="G258" t="n">
-        <v>75.27500000000002</v>
+        <v>75.86833333333331</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10584,10 +9482,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C259" t="n">
         <v>75.3</v>
-      </c>
-      <c r="C259" t="n">
-        <v>75.2</v>
       </c>
       <c r="D259" t="n">
         <v>75.3</v>
@@ -10596,10 +9494,10 @@
         <v>75.2</v>
       </c>
       <c r="F259" t="n">
-        <v>2430</v>
+        <v>13483.3976</v>
       </c>
       <c r="G259" t="n">
-        <v>75.25500000000002</v>
+        <v>75.84666666666664</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10619,22 +9517,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="C260" t="n">
         <v>75.2</v>
       </c>
       <c r="D260" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="E260" t="n">
         <v>75.2</v>
       </c>
       <c r="F260" t="n">
-        <v>25337.4722</v>
+        <v>2430</v>
       </c>
       <c r="G260" t="n">
-        <v>75.25000000000003</v>
+        <v>75.81833333333331</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10666,10 +9564,10 @@
         <v>75.2</v>
       </c>
       <c r="F261" t="n">
-        <v>3060</v>
+        <v>25337.4722</v>
       </c>
       <c r="G261" t="n">
-        <v>75.24500000000003</v>
+        <v>75.79833333333332</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10692,19 +9590,19 @@
         <v>75.2</v>
       </c>
       <c r="C262" t="n">
-        <v>75.5</v>
+        <v>75.2</v>
       </c>
       <c r="D262" t="n">
-        <v>75.5</v>
+        <v>75.2</v>
       </c>
       <c r="E262" t="n">
         <v>75.2</v>
       </c>
       <c r="F262" t="n">
-        <v>709.5364</v>
+        <v>3060</v>
       </c>
       <c r="G262" t="n">
-        <v>75.24000000000004</v>
+        <v>75.77833333333332</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10724,22 +9622,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="C263" t="n">
-        <v>75.3</v>
+        <v>75.5</v>
       </c>
       <c r="D263" t="n">
-        <v>75.3</v>
+        <v>75.5</v>
       </c>
       <c r="E263" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="F263" t="n">
-        <v>210.0929</v>
+        <v>709.5364</v>
       </c>
       <c r="G263" t="n">
-        <v>75.24000000000004</v>
+        <v>75.76333333333332</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10759,22 +9657,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>75.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="C264" t="n">
-        <v>75.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="D264" t="n">
-        <v>75.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="E264" t="n">
-        <v>75.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="F264" t="n">
-        <v>7160.5524</v>
+        <v>210.0929</v>
       </c>
       <c r="G264" t="n">
-        <v>75.23000000000003</v>
+        <v>75.74833333333332</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10794,22 +9692,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>75.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C265" t="n">
-        <v>75.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D265" t="n">
-        <v>75.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E265" t="n">
-        <v>75.40000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F265" t="n">
-        <v>422.1167</v>
+        <v>7160.5524</v>
       </c>
       <c r="G265" t="n">
-        <v>75.24000000000004</v>
+        <v>75.72833333333332</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10829,22 +9727,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>75.09999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C266" t="n">
-        <v>75.09999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D266" t="n">
-        <v>75.09999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E266" t="n">
-        <v>75.09999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F266" t="n">
-        <v>17175.8383</v>
+        <v>422.1167</v>
       </c>
       <c r="G266" t="n">
-        <v>75.23500000000003</v>
+        <v>75.71499999999999</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10859,6 +9757,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C267" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D267" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E267" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F267" t="n">
+        <v>17175.8383</v>
+      </c>
+      <c r="G267" t="n">
+        <v>75.69666666666667</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-29 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-29 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M267"/>
+  <dimension ref="A1:N277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>23228.8471</v>
       </c>
       <c r="G2" t="n">
+        <v>74.60000000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>74.64833333333328</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>30</v>
       </c>
       <c r="G3" t="n">
+        <v>74.55333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>74.64166666666661</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>5000</v>
       </c>
       <c r="G4" t="n">
+        <v>74.54000000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>74.62499999999994</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>43098.5328</v>
       </c>
       <c r="G5" t="n">
+        <v>74.46666666666668</v>
+      </c>
+      <c r="H5" t="n">
         <v>74.61333333333327</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3932.3642</v>
       </c>
       <c r="G6" t="n">
+        <v>74.38000000000002</v>
+      </c>
+      <c r="H6" t="n">
         <v>74.58999999999995</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>3150</v>
       </c>
       <c r="G7" t="n">
+        <v>74.30000000000003</v>
+      </c>
+      <c r="H7" t="n">
         <v>74.57166666666662</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>12000</v>
       </c>
       <c r="G8" t="n">
+        <v>74.1866666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>74.55166666666661</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,25 @@
         <v>511</v>
       </c>
       <c r="G9" t="n">
+        <v>74.10666666666671</v>
+      </c>
+      <c r="H9" t="n">
         <v>74.53333333333327</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +761,27 @@
         <v>2056</v>
       </c>
       <c r="G10" t="n">
+        <v>74.0066666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>74.5116666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +805,27 @@
         <v>480.9999</v>
       </c>
       <c r="G11" t="n">
+        <v>73.92666666666672</v>
+      </c>
+      <c r="H11" t="n">
         <v>74.48666666666661</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +849,25 @@
         <v>646.4353</v>
       </c>
       <c r="G12" t="n">
+        <v>73.84666666666674</v>
+      </c>
+      <c r="H12" t="n">
         <v>74.4616666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L12" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +891,27 @@
         <v>1942</v>
       </c>
       <c r="G13" t="n">
+        <v>73.78000000000006</v>
+      </c>
+      <c r="H13" t="n">
         <v>74.4366666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +935,27 @@
         <v>1017</v>
       </c>
       <c r="G14" t="n">
+        <v>73.7133333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>74.40999999999993</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +979,21 @@
         <v>9999.999900000001</v>
       </c>
       <c r="G15" t="n">
+        <v>73.6333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>74.38999999999993</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1017,21 @@
         <v>5000</v>
       </c>
       <c r="G16" t="n">
+        <v>73.55333333333338</v>
+      </c>
+      <c r="H16" t="n">
         <v>74.36999999999993</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1055,25 @@
         <v>10000</v>
       </c>
       <c r="G17" t="n">
+        <v>73.46000000000006</v>
+      </c>
+      <c r="H17" t="n">
         <v>74.33833333333327</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,22 +1097,29 @@
         <v>31525.5787</v>
       </c>
       <c r="G18" t="n">
+        <v>73.40666666666674</v>
+      </c>
+      <c r="H18" t="n">
         <v>74.32833333333325</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>73.2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>73.2</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1047,24 +1143,29 @@
         <v>10400</v>
       </c>
       <c r="G19" t="n">
+        <v>73.36666666666675</v>
+      </c>
+      <c r="H19" t="n">
         <v>74.31666666666658</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L19" t="n">
         <v>73.2</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1088,26 +1189,25 @@
         <v>1096</v>
       </c>
       <c r="G20" t="n">
+        <v>73.36000000000008</v>
+      </c>
+      <c r="H20" t="n">
         <v>74.30666666666657</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="K20" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1131,22 +1231,29 @@
         <v>767</v>
       </c>
       <c r="G21" t="n">
+        <v>73.35333333333342</v>
+      </c>
+      <c r="H21" t="n">
         <v>74.29499999999989</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>73.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1170,26 +1277,29 @@
         <v>1107.9999</v>
       </c>
       <c r="G22" t="n">
+        <v>73.35333333333342</v>
+      </c>
+      <c r="H22" t="n">
         <v>74.28333333333322</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>73.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1213,26 +1323,25 @@
         <v>557.6786</v>
       </c>
       <c r="G23" t="n">
+        <v>73.36666666666676</v>
+      </c>
+      <c r="H23" t="n">
         <v>74.26499999999987</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>73.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1256,22 +1365,29 @@
         <v>1553.954</v>
       </c>
       <c r="G24" t="n">
+        <v>73.37333333333342</v>
+      </c>
+      <c r="H24" t="n">
         <v>74.24666666666653</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>73.5</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>73.5</v>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1295,24 +1411,29 @@
         <v>962.7007</v>
       </c>
       <c r="G25" t="n">
+        <v>73.38666666666674</v>
+      </c>
+      <c r="H25" t="n">
         <v>74.23166666666654</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="n">
         <v>73.5</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1336,24 +1457,25 @@
         <v>5000</v>
       </c>
       <c r="G26" t="n">
+        <v>73.40000000000006</v>
+      </c>
+      <c r="H26" t="n">
         <v>74.21666666666654</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1377,18 +1499,29 @@
         <v>6528.0911</v>
       </c>
       <c r="G27" t="n">
+        <v>73.42000000000006</v>
+      </c>
+      <c r="H27" t="n">
         <v>74.19999999999987</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="L27" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,18 +1545,27 @@
         <v>10000</v>
       </c>
       <c r="G28" t="n">
+        <v>73.44000000000005</v>
+      </c>
+      <c r="H28" t="n">
         <v>74.17999999999988</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1447,18 +1589,29 @@
         <v>6886.0174</v>
       </c>
       <c r="G29" t="n">
+        <v>73.46000000000005</v>
+      </c>
+      <c r="H29" t="n">
         <v>74.15999999999988</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,18 +1635,29 @@
         <v>7970</v>
       </c>
       <c r="G30" t="n">
+        <v>73.49333333333338</v>
+      </c>
+      <c r="H30" t="n">
         <v>74.13999999999989</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1517,18 +1681,29 @@
         <v>20095.7304</v>
       </c>
       <c r="G31" t="n">
+        <v>73.52666666666671</v>
+      </c>
+      <c r="H31" t="n">
         <v>74.11999999999989</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1552,18 +1727,29 @@
         <v>9566.7248</v>
       </c>
       <c r="G32" t="n">
+        <v>73.58000000000006</v>
+      </c>
+      <c r="H32" t="n">
         <v>74.10499999999989</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1587,18 +1773,27 @@
         <v>466.7694</v>
       </c>
       <c r="G33" t="n">
+        <v>73.58000000000006</v>
+      </c>
+      <c r="H33" t="n">
         <v>74.08166666666655</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1622,18 +1817,27 @@
         <v>14765.7233</v>
       </c>
       <c r="G34" t="n">
+        <v>73.58000000000006</v>
+      </c>
+      <c r="H34" t="n">
         <v>74.05666666666656</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,18 +1861,27 @@
         <v>5797.7717</v>
       </c>
       <c r="G35" t="n">
+        <v>73.58000000000006</v>
+      </c>
+      <c r="H35" t="n">
         <v>74.03166666666655</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,18 +1905,29 @@
         <v>12426</v>
       </c>
       <c r="G36" t="n">
+        <v>73.60000000000005</v>
+      </c>
+      <c r="H36" t="n">
         <v>74.01333333333322</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="L36" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,18 +1951,29 @@
         <v>4352.9644</v>
       </c>
       <c r="G37" t="n">
+        <v>73.62666666666671</v>
+      </c>
+      <c r="H37" t="n">
         <v>73.99499999999989</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1762,18 +1997,29 @@
         <v>3267</v>
       </c>
       <c r="G38" t="n">
+        <v>73.66000000000004</v>
+      </c>
+      <c r="H38" t="n">
         <v>73.97999999999989</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="L38" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1797,18 +2043,29 @@
         <v>2070</v>
       </c>
       <c r="G39" t="n">
+        <v>73.69333333333337</v>
+      </c>
+      <c r="H39" t="n">
         <v>73.9649999999999</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>74</v>
+      </c>
+      <c r="L39" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1832,18 +2089,27 @@
         <v>5666.9999</v>
       </c>
       <c r="G40" t="n">
+        <v>73.72000000000004</v>
+      </c>
+      <c r="H40" t="n">
         <v>73.95166666666657</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1867,18 +2133,27 @@
         <v>1031.3152</v>
       </c>
       <c r="G41" t="n">
+        <v>73.75333333333337</v>
+      </c>
+      <c r="H41" t="n">
         <v>73.93833333333325</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1902,18 +2177,27 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
+        <v>73.78000000000003</v>
+      </c>
+      <c r="H42" t="n">
         <v>73.93166666666659</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1937,18 +2221,27 @@
         <v>60</v>
       </c>
       <c r="G43" t="n">
+        <v>73.80666666666669</v>
+      </c>
+      <c r="H43" t="n">
         <v>73.91999999999992</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1972,18 +2265,27 @@
         <v>3508</v>
       </c>
       <c r="G44" t="n">
+        <v>73.83333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>73.90833333333326</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2007,18 +2309,27 @@
         <v>1412</v>
       </c>
       <c r="G45" t="n">
+        <v>73.86</v>
+      </c>
+      <c r="H45" t="n">
         <v>73.9016666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2042,18 +2353,27 @@
         <v>2336</v>
       </c>
       <c r="G46" t="n">
+        <v>73.89333333333335</v>
+      </c>
+      <c r="H46" t="n">
         <v>73.89666666666659</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,18 +2397,27 @@
         <v>2634</v>
       </c>
       <c r="G47" t="n">
+        <v>73.90666666666668</v>
+      </c>
+      <c r="H47" t="n">
         <v>73.88666666666659</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2112,18 +2441,27 @@
         <v>10000</v>
       </c>
       <c r="G48" t="n">
+        <v>73.96000000000001</v>
+      </c>
+      <c r="H48" t="n">
         <v>73.87499999999993</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2147,18 +2485,27 @@
         <v>10000</v>
       </c>
       <c r="G49" t="n">
+        <v>74.02</v>
+      </c>
+      <c r="H49" t="n">
         <v>73.87666666666659</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,18 +2529,27 @@
         <v>11030</v>
       </c>
       <c r="G50" t="n">
+        <v>74.06666666666665</v>
+      </c>
+      <c r="H50" t="n">
         <v>73.86833333333327</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2217,18 +2573,27 @@
         <v>687.6248000000001</v>
       </c>
       <c r="G51" t="n">
+        <v>74.09333333333331</v>
+      </c>
+      <c r="H51" t="n">
         <v>73.8566666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2252,18 +2617,27 @@
         <v>940</v>
       </c>
       <c r="G52" t="n">
+        <v>74.13999999999997</v>
+      </c>
+      <c r="H52" t="n">
         <v>73.85499999999993</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2287,18 +2661,27 @@
         <v>46874.8187</v>
       </c>
       <c r="G53" t="n">
+        <v>74.17333333333332</v>
+      </c>
+      <c r="H53" t="n">
         <v>73.84666666666659</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2322,18 +2705,27 @@
         <v>3000</v>
       </c>
       <c r="G54" t="n">
+        <v>74.20666666666665</v>
+      </c>
+      <c r="H54" t="n">
         <v>73.84499999999993</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2357,18 +2749,27 @@
         <v>5000</v>
       </c>
       <c r="G55" t="n">
+        <v>74.21333333333331</v>
+      </c>
+      <c r="H55" t="n">
         <v>73.83166666666661</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2392,18 +2793,27 @@
         <v>4000</v>
       </c>
       <c r="G56" t="n">
+        <v>74.23999999999998</v>
+      </c>
+      <c r="H56" t="n">
         <v>73.82999999999993</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2427,18 +2837,27 @@
         <v>18997.9466</v>
       </c>
       <c r="G57" t="n">
+        <v>74.27333333333331</v>
+      </c>
+      <c r="H57" t="n">
         <v>73.82999999999993</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2462,18 +2881,27 @@
         <v>10000</v>
       </c>
       <c r="G58" t="n">
+        <v>74.30666666666664</v>
+      </c>
+      <c r="H58" t="n">
         <v>73.83333333333327</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2497,18 +2925,27 @@
         <v>5000</v>
       </c>
       <c r="G59" t="n">
+        <v>74.33999999999997</v>
+      </c>
+      <c r="H59" t="n">
         <v>73.83666666666662</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2532,18 +2969,27 @@
         <v>12921.1813</v>
       </c>
       <c r="G60" t="n">
+        <v>74.37333333333331</v>
+      </c>
+      <c r="H60" t="n">
         <v>73.83999999999996</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2567,18 +3013,27 @@
         <v>5005</v>
       </c>
       <c r="G61" t="n">
+        <v>74.42666666666665</v>
+      </c>
+      <c r="H61" t="n">
         <v>73.84999999999997</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2602,18 +3057,27 @@
         <v>6253.7683</v>
       </c>
       <c r="G62" t="n">
+        <v>74.48666666666664</v>
+      </c>
+      <c r="H62" t="n">
         <v>73.85833333333331</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2637,18 +3101,27 @@
         <v>1000</v>
       </c>
       <c r="G63" t="n">
+        <v>74.55999999999996</v>
+      </c>
+      <c r="H63" t="n">
         <v>73.87666666666664</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,18 +3145,27 @@
         <v>17344.6691</v>
       </c>
       <c r="G64" t="n">
+        <v>74.64666666666662</v>
+      </c>
+      <c r="H64" t="n">
         <v>73.90333333333332</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2707,18 +3189,27 @@
         <v>63531.2904</v>
       </c>
       <c r="G65" t="n">
+        <v>74.77999999999996</v>
+      </c>
+      <c r="H65" t="n">
         <v>73.94666666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2742,18 +3233,27 @@
         <v>6031.8017</v>
       </c>
       <c r="G66" t="n">
+        <v>74.89999999999996</v>
+      </c>
+      <c r="H66" t="n">
         <v>73.98666666666665</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2777,18 +3277,27 @@
         <v>1250</v>
       </c>
       <c r="G67" t="n">
+        <v>74.9733333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>74.02333333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2812,18 +3321,27 @@
         <v>25653.8848</v>
       </c>
       <c r="G68" t="n">
+        <v>75.0733333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>74.06833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2847,18 +3365,27 @@
         <v>4829</v>
       </c>
       <c r="G69" t="n">
+        <v>75.11333333333329</v>
+      </c>
+      <c r="H69" t="n">
         <v>74.09666666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2882,18 +3409,27 @@
         <v>10000</v>
       </c>
       <c r="G70" t="n">
+        <v>75.17999999999996</v>
+      </c>
+      <c r="H70" t="n">
         <v>74.12500000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2917,18 +3453,27 @@
         <v>6980</v>
       </c>
       <c r="G71" t="n">
+        <v>75.26666666666662</v>
+      </c>
+      <c r="H71" t="n">
         <v>74.16500000000002</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2952,18 +3497,27 @@
         <v>19990</v>
       </c>
       <c r="G72" t="n">
+        <v>75.3533333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>74.20666666666669</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2987,18 +3541,27 @@
         <v>19157.6679</v>
       </c>
       <c r="G73" t="n">
+        <v>75.43999999999998</v>
+      </c>
+      <c r="H73" t="n">
         <v>74.24833333333336</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,18 +3585,27 @@
         <v>30000</v>
       </c>
       <c r="G74" t="n">
+        <v>75.49333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>74.28166666666669</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3057,18 +3629,27 @@
         <v>3189.327176781002</v>
       </c>
       <c r="G75" t="n">
+        <v>75.57333333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>74.32500000000003</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,18 +3673,27 @@
         <v>3640000</v>
       </c>
       <c r="G76" t="n">
+        <v>75.61333333333332</v>
+      </c>
+      <c r="H76" t="n">
         <v>74.36500000000004</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3127,18 +3717,27 @@
         <v>3220000</v>
       </c>
       <c r="G77" t="n">
+        <v>75.64666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>74.40500000000004</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,18 +3761,27 @@
         <v>1904119</v>
       </c>
       <c r="G78" t="n">
+        <v>75.66666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>74.44166666666673</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3197,18 +3805,27 @@
         <v>2399.7012</v>
       </c>
       <c r="G79" t="n">
+        <v>75.64666666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>74.4733333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,18 +3849,27 @@
         <v>941.9999</v>
       </c>
       <c r="G80" t="n">
+        <v>75.59333333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>74.50500000000008</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3267,18 +3893,27 @@
         <v>3186501.2039</v>
       </c>
       <c r="G81" t="n">
+        <v>75.56666666666665</v>
+      </c>
+      <c r="H81" t="n">
         <v>74.54000000000009</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,18 +3937,27 @@
         <v>7392000</v>
       </c>
       <c r="G82" t="n">
+        <v>75.55999999999999</v>
+      </c>
+      <c r="H82" t="n">
         <v>74.57500000000009</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3337,18 +3981,27 @@
         <v>9663652.2039</v>
       </c>
       <c r="G83" t="n">
+        <v>75.52666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>74.60833333333342</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,18 +4025,27 @@
         <v>9614347.7961</v>
       </c>
       <c r="G84" t="n">
+        <v>75.55333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>74.64166666666675</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3407,18 +4069,27 @@
         <v>4242000</v>
       </c>
       <c r="G85" t="n">
+        <v>75.58</v>
+      </c>
+      <c r="H85" t="n">
         <v>74.67333333333342</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,18 +4113,27 @@
         <v>2081000</v>
       </c>
       <c r="G86" t="n">
+        <v>75.56</v>
+      </c>
+      <c r="H86" t="n">
         <v>74.70500000000008</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3477,18 +4157,27 @@
         <v>10480000</v>
       </c>
       <c r="G87" t="n">
+        <v>75.52666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>74.73333333333341</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,18 +4201,27 @@
         <v>20400000</v>
       </c>
       <c r="G88" t="n">
+        <v>75.49333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>74.76166666666674</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3547,18 +4245,27 @@
         <v>20000000</v>
       </c>
       <c r="G89" t="n">
+        <v>75.49333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>74.79000000000006</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,18 +4289,27 @@
         <v>19840000</v>
       </c>
       <c r="G90" t="n">
+        <v>75.46666666666668</v>
+      </c>
+      <c r="H90" t="n">
         <v>74.8183333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3617,18 +4333,27 @@
         <v>12401000</v>
       </c>
       <c r="G91" t="n">
+        <v>75.46000000000002</v>
+      </c>
+      <c r="H91" t="n">
         <v>74.8483333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,18 +4377,27 @@
         <v>3010000</v>
       </c>
       <c r="G92" t="n">
+        <v>75.4466666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>74.87166666666673</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3687,18 +4421,27 @@
         <v>13510142.3034</v>
       </c>
       <c r="G93" t="n">
+        <v>75.44000000000004</v>
+      </c>
+      <c r="H93" t="n">
         <v>74.90666666666674</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,18 +4465,27 @@
         <v>4620000</v>
       </c>
       <c r="G94" t="n">
+        <v>75.45333333333338</v>
+      </c>
+      <c r="H94" t="n">
         <v>74.94166666666675</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3757,18 +4509,27 @@
         <v>16170141.8426</v>
       </c>
       <c r="G95" t="n">
+        <v>75.46666666666671</v>
+      </c>
+      <c r="H95" t="n">
         <v>74.97666666666674</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,18 +4553,27 @@
         <v>17500000</v>
       </c>
       <c r="G96" t="n">
+        <v>75.46666666666671</v>
+      </c>
+      <c r="H96" t="n">
         <v>75.00666666666675</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3827,18 +4597,27 @@
         <v>17156605.0198</v>
       </c>
       <c r="G97" t="n">
+        <v>75.46666666666671</v>
+      </c>
+      <c r="H97" t="n">
         <v>75.03500000000008</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,18 +4641,27 @@
         <v>17567145.2043</v>
       </c>
       <c r="G98" t="n">
+        <v>75.46666666666671</v>
+      </c>
+      <c r="H98" t="n">
         <v>75.06000000000009</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3897,18 +4685,27 @@
         <v>16872854.7957</v>
       </c>
       <c r="G99" t="n">
+        <v>75.46666666666671</v>
+      </c>
+      <c r="H99" t="n">
         <v>75.08500000000008</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3932,18 +4729,27 @@
         <v>16694507.1284</v>
       </c>
       <c r="G100" t="n">
+        <v>75.46666666666671</v>
+      </c>
+      <c r="H100" t="n">
         <v>75.11000000000008</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,18 +4773,27 @@
         <v>16104860.8878</v>
       </c>
       <c r="G101" t="n">
+        <v>75.46666666666671</v>
+      </c>
+      <c r="H101" t="n">
         <v>75.13333333333341</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,18 +4817,27 @@
         <v>12128372.3973</v>
       </c>
       <c r="G102" t="n">
+        <v>75.47333333333337</v>
+      </c>
+      <c r="H102" t="n">
         <v>75.15666666666674</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4037,18 +4861,27 @@
         <v>1184000</v>
       </c>
       <c r="G103" t="n">
+        <v>75.47333333333337</v>
+      </c>
+      <c r="H103" t="n">
         <v>75.17833333333338</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4072,18 +4905,27 @@
         <v>6365697.248</v>
       </c>
       <c r="G104" t="n">
+        <v>75.47333333333337</v>
+      </c>
+      <c r="H104" t="n">
         <v>75.20000000000005</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4107,18 +4949,27 @@
         <v>8208000</v>
       </c>
       <c r="G105" t="n">
+        <v>75.47333333333337</v>
+      </c>
+      <c r="H105" t="n">
         <v>75.22166666666671</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,18 +4993,27 @@
         <v>13014000</v>
       </c>
       <c r="G106" t="n">
+        <v>75.46666666666671</v>
+      </c>
+      <c r="H106" t="n">
         <v>75.2416666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4177,18 +5037,27 @@
         <v>13014000</v>
       </c>
       <c r="G107" t="n">
+        <v>75.46666666666671</v>
+      </c>
+      <c r="H107" t="n">
         <v>75.2616666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4212,18 +5081,27 @@
         <v>9289298.806299999</v>
       </c>
       <c r="G108" t="n">
+        <v>75.46000000000005</v>
+      </c>
+      <c r="H108" t="n">
         <v>75.28166666666669</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,18 +5125,27 @@
         <v>10800565.40935</v>
       </c>
       <c r="G109" t="n">
+        <v>75.45333333333339</v>
+      </c>
+      <c r="H109" t="n">
         <v>75.30000000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4282,18 +5169,27 @@
         <v>3515899.1813</v>
       </c>
       <c r="G110" t="n">
+        <v>75.44666666666673</v>
+      </c>
+      <c r="H110" t="n">
         <v>75.32166666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4317,18 +5213,27 @@
         <v>17430000</v>
       </c>
       <c r="G111" t="n">
+        <v>75.44000000000007</v>
+      </c>
+      <c r="H111" t="n">
         <v>75.34333333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,18 +5257,27 @@
         <v>16870427</v>
       </c>
       <c r="G112" t="n">
+        <v>75.43333333333341</v>
+      </c>
+      <c r="H112" t="n">
         <v>75.35833333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4387,18 +5301,27 @@
         <v>17150000</v>
       </c>
       <c r="G113" t="n">
+        <v>75.42666666666675</v>
+      </c>
+      <c r="H113" t="n">
         <v>75.37333333333331</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,18 +5345,27 @@
         <v>6539573</v>
       </c>
       <c r="G114" t="n">
+        <v>75.42000000000009</v>
+      </c>
+      <c r="H114" t="n">
         <v>75.38833333333331</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,18 +5389,27 @@
         <v>14460000</v>
       </c>
       <c r="G115" t="n">
+        <v>75.41333333333343</v>
+      </c>
+      <c r="H115" t="n">
         <v>75.40999999999995</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,18 +5433,27 @@
         <v>7394551.0202</v>
       </c>
       <c r="G116" t="n">
+        <v>75.41333333333343</v>
+      </c>
+      <c r="H116" t="n">
         <v>75.42666666666663</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4527,18 +5477,27 @@
         <v>16281851.0365</v>
       </c>
       <c r="G117" t="n">
+        <v>75.41333333333343</v>
+      </c>
+      <c r="H117" t="n">
         <v>75.44166666666662</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,18 +5521,27 @@
         <v>2777839.3017</v>
       </c>
       <c r="G118" t="n">
+        <v>75.42000000000009</v>
+      </c>
+      <c r="H118" t="n">
         <v>75.45666666666662</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4597,18 +5565,27 @@
         <v>441.4769</v>
       </c>
       <c r="G119" t="n">
+        <v>75.42000000000009</v>
+      </c>
+      <c r="H119" t="n">
         <v>75.46999999999994</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,18 +5609,27 @@
         <v>21615.6174</v>
       </c>
       <c r="G120" t="n">
+        <v>75.42666666666675</v>
+      </c>
+      <c r="H120" t="n">
         <v>75.48499999999993</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4667,18 +5653,27 @@
         <v>33.0728</v>
       </c>
       <c r="G121" t="n">
+        <v>75.41333333333341</v>
+      </c>
+      <c r="H121" t="n">
         <v>75.48833333333326</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,18 +5697,27 @@
         <v>11640</v>
       </c>
       <c r="G122" t="n">
+        <v>75.42000000000007</v>
+      </c>
+      <c r="H122" t="n">
         <v>75.49499999999992</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4737,18 +5741,27 @@
         <v>102231.3978</v>
       </c>
       <c r="G123" t="n">
+        <v>75.43333333333339</v>
+      </c>
+      <c r="H123" t="n">
         <v>75.49999999999993</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,18 +5785,27 @@
         <v>13433.051</v>
       </c>
       <c r="G124" t="n">
+        <v>75.45333333333339</v>
+      </c>
+      <c r="H124" t="n">
         <v>75.50166666666658</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,18 +5829,27 @@
         <v>1201.4369</v>
       </c>
       <c r="G125" t="n">
+        <v>75.47333333333339</v>
+      </c>
+      <c r="H125" t="n">
         <v>75.49499999999991</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,18 +5873,27 @@
         <v>100</v>
       </c>
       <c r="G126" t="n">
+        <v>75.49333333333338</v>
+      </c>
+      <c r="H126" t="n">
         <v>75.49166666666657</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4877,18 +5917,27 @@
         <v>54556.4781</v>
       </c>
       <c r="G127" t="n">
+        <v>75.52000000000004</v>
+      </c>
+      <c r="H127" t="n">
         <v>75.49499999999991</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,18 +5961,27 @@
         <v>9285.613300000001</v>
       </c>
       <c r="G128" t="n">
+        <v>75.5466666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>75.49166666666657</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4947,18 +6005,27 @@
         <v>30144.8908</v>
       </c>
       <c r="G129" t="n">
+        <v>75.53333333333336</v>
+      </c>
+      <c r="H129" t="n">
         <v>75.49333333333324</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,18 +6049,27 @@
         <v>3000</v>
       </c>
       <c r="G130" t="n">
+        <v>75.55333333333336</v>
+      </c>
+      <c r="H130" t="n">
         <v>75.50333333333323</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,18 +6093,27 @@
         <v>6000</v>
       </c>
       <c r="G131" t="n">
+        <v>75.56666666666669</v>
+      </c>
+      <c r="H131" t="n">
         <v>75.50166666666655</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,18 +6137,27 @@
         <v>13577.5033</v>
       </c>
       <c r="G132" t="n">
+        <v>75.58000000000003</v>
+      </c>
+      <c r="H132" t="n">
         <v>75.49833333333322</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,18 +6181,27 @@
         <v>10369.6734</v>
       </c>
       <c r="G133" t="n">
+        <v>75.58666666666669</v>
+      </c>
+      <c r="H133" t="n">
         <v>75.49333333333324</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,18 +6225,27 @@
         <v>14560.9999</v>
       </c>
       <c r="G134" t="n">
+        <v>75.60000000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>75.49666666666658</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5157,18 +6269,27 @@
         <v>4190.7131</v>
       </c>
       <c r="G135" t="n">
+        <v>75.60666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>75.49333333333325</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5192,18 +6313,27 @@
         <v>7996</v>
       </c>
       <c r="G136" t="n">
+        <v>75.62666666666668</v>
+      </c>
+      <c r="H136" t="n">
         <v>75.49166666666657</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5227,18 +6357,27 @@
         <v>18136.8013</v>
       </c>
       <c r="G137" t="n">
+        <v>75.62666666666668</v>
+      </c>
+      <c r="H137" t="n">
         <v>75.48999999999991</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5262,18 +6401,27 @@
         <v>24759.8506</v>
       </c>
       <c r="G138" t="n">
+        <v>75.60666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>75.4849999999999</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5297,18 +6445,27 @@
         <v>4851.1987</v>
       </c>
       <c r="G139" t="n">
+        <v>75.59333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>75.48833333333323</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5332,18 +6489,27 @@
         <v>145</v>
       </c>
       <c r="G140" t="n">
+        <v>75.57333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>75.48999999999988</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5367,18 +6533,27 @@
         <v>3096.9466</v>
       </c>
       <c r="G141" t="n">
+        <v>75.56666666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>75.49166666666656</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5402,18 +6577,27 @@
         <v>2050</v>
       </c>
       <c r="G142" t="n">
+        <v>75.53333333333333</v>
+      </c>
+      <c r="H142" t="n">
         <v>75.48833333333323</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5437,18 +6621,27 @@
         <v>1364</v>
       </c>
       <c r="G143" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="H143" t="n">
         <v>75.4849999999999</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,18 +6665,27 @@
         <v>129570.3576</v>
       </c>
       <c r="G144" t="n">
+        <v>75.46666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>75.47166666666656</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5507,18 +6709,27 @@
         <v>10630</v>
       </c>
       <c r="G145" t="n">
+        <v>75.43333333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>75.46666666666655</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5542,18 +6753,27 @@
         <v>13049</v>
       </c>
       <c r="G146" t="n">
+        <v>75.38666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>75.45833333333323</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5577,18 +6797,27 @@
         <v>2232</v>
       </c>
       <c r="G147" t="n">
+        <v>75.33999999999999</v>
+      </c>
+      <c r="H147" t="n">
         <v>75.45166666666657</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5612,18 +6841,27 @@
         <v>4460</v>
       </c>
       <c r="G148" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="H148" t="n">
         <v>75.44499999999991</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,18 +6885,27 @@
         <v>8000</v>
       </c>
       <c r="G149" t="n">
+        <v>75.26666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>75.43999999999991</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,18 +6929,27 @@
         <v>2320</v>
       </c>
       <c r="G150" t="n">
+        <v>75.24000000000001</v>
+      </c>
+      <c r="H150" t="n">
         <v>75.43666666666658</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5717,18 +6973,27 @@
         <v>139.0089</v>
       </c>
       <c r="G151" t="n">
+        <v>75.18000000000001</v>
+      </c>
+      <c r="H151" t="n">
         <v>75.4216666666666</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,18 +7017,27 @@
         <v>7967.2929</v>
       </c>
       <c r="G152" t="n">
+        <v>75.11333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>75.4066666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5787,18 +7061,27 @@
         <v>2020</v>
       </c>
       <c r="G153" t="n">
+        <v>75.06666666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>75.39166666666661</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5822,18 +7105,27 @@
         <v>466</v>
       </c>
       <c r="G154" t="n">
+        <v>75.01333333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>75.37833333333327</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5857,18 +7149,27 @@
         <v>3120</v>
       </c>
       <c r="G155" t="n">
+        <v>74.96666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>75.36499999999994</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,18 +7193,27 @@
         <v>7492.8452</v>
       </c>
       <c r="G156" t="n">
+        <v>74.90666666666668</v>
+      </c>
+      <c r="H156" t="n">
         <v>75.3516666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5927,18 +7237,27 @@
         <v>901</v>
       </c>
       <c r="G157" t="n">
+        <v>74.86</v>
+      </c>
+      <c r="H157" t="n">
         <v>75.3366666666666</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5962,18 +7281,27 @@
         <v>2172.4247</v>
       </c>
       <c r="G158" t="n">
+        <v>74.81333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>75.32166666666662</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5997,18 +7325,27 @@
         <v>16716.4217</v>
       </c>
       <c r="G159" t="n">
+        <v>74.78</v>
+      </c>
+      <c r="H159" t="n">
         <v>75.29999999999994</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,18 +7369,27 @@
         <v>854.9215</v>
       </c>
       <c r="G160" t="n">
+        <v>74.73333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>75.28333333333327</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6067,18 +7413,27 @@
         <v>3452.6</v>
       </c>
       <c r="G161" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="H161" t="n">
         <v>75.26666666666661</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,18 +7457,27 @@
         <v>5624.0221</v>
       </c>
       <c r="G162" t="n">
+        <v>74.66666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>75.24999999999994</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6137,18 +7501,27 @@
         <v>842</v>
       </c>
       <c r="G163" t="n">
+        <v>74.63333333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>75.23499999999994</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6172,18 +7545,27 @@
         <v>921</v>
       </c>
       <c r="G164" t="n">
+        <v>74.59333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>75.21999999999996</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6207,18 +7589,27 @@
         <v>1680</v>
       </c>
       <c r="G165" t="n">
+        <v>74.54000000000001</v>
+      </c>
+      <c r="H165" t="n">
         <v>75.20333333333329</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6242,18 +7633,27 @@
         <v>10</v>
       </c>
       <c r="G166" t="n">
+        <v>74.53333333333335</v>
+      </c>
+      <c r="H166" t="n">
         <v>75.18833333333329</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6277,18 +7677,27 @@
         <v>14.6308</v>
       </c>
       <c r="G167" t="n">
+        <v>74.53333333333335</v>
+      </c>
+      <c r="H167" t="n">
         <v>75.1733333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,18 +7721,27 @@
         <v>440</v>
       </c>
       <c r="G168" t="n">
+        <v>74.52666666666669</v>
+      </c>
+      <c r="H168" t="n">
         <v>75.1583333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6347,18 +7765,27 @@
         <v>40.7187</v>
       </c>
       <c r="G169" t="n">
+        <v>74.51333333333335</v>
+      </c>
+      <c r="H169" t="n">
         <v>75.1433333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6382,18 +7809,27 @@
         <v>4712</v>
       </c>
       <c r="G170" t="n">
+        <v>74.50000000000001</v>
+      </c>
+      <c r="H170" t="n">
         <v>75.12833333333332</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6417,18 +7853,27 @@
         <v>3002.8807</v>
       </c>
       <c r="G171" t="n">
+        <v>74.48666666666668</v>
+      </c>
+      <c r="H171" t="n">
         <v>75.11333333333332</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6452,18 +7897,27 @@
         <v>6733</v>
       </c>
       <c r="G172" t="n">
+        <v>74.48000000000002</v>
+      </c>
+      <c r="H172" t="n">
         <v>75.09833333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6487,18 +7941,27 @@
         <v>1775.3067</v>
       </c>
       <c r="G173" t="n">
+        <v>74.46000000000002</v>
+      </c>
+      <c r="H173" t="n">
         <v>75.08</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6522,18 +7985,27 @@
         <v>5020</v>
       </c>
       <c r="G174" t="n">
+        <v>74.48000000000002</v>
+      </c>
+      <c r="H174" t="n">
         <v>75.06500000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6557,18 +8029,27 @@
         <v>5662.7516</v>
       </c>
       <c r="G175" t="n">
+        <v>74.48000000000002</v>
+      </c>
+      <c r="H175" t="n">
         <v>75.05000000000001</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6592,18 +8073,27 @@
         <v>4755.5032</v>
       </c>
       <c r="G176" t="n">
+        <v>74.48000000000002</v>
+      </c>
+      <c r="H176" t="n">
         <v>75.03333333333335</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6627,18 +8117,27 @@
         <v>172198.1152</v>
       </c>
       <c r="G177" t="n">
+        <v>74.48000000000002</v>
+      </c>
+      <c r="H177" t="n">
         <v>75.01666666666668</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6662,18 +8161,27 @@
         <v>70385.15949999999</v>
       </c>
       <c r="G178" t="n">
+        <v>74.50000000000001</v>
+      </c>
+      <c r="H178" t="n">
         <v>75.00500000000002</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6697,18 +8205,27 @@
         <v>10</v>
       </c>
       <c r="G179" t="n">
+        <v>74.53333333333335</v>
+      </c>
+      <c r="H179" t="n">
         <v>74.99833333333336</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6732,18 +8249,27 @@
         <v>18453.6266</v>
       </c>
       <c r="G180" t="n">
+        <v>74.57333333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>74.99000000000002</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6767,18 +8293,27 @@
         <v>1875.0682</v>
       </c>
       <c r="G181" t="n">
+        <v>74.57333333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>74.97833333333337</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6802,18 +8337,27 @@
         <v>4717.0563</v>
       </c>
       <c r="G182" t="n">
+        <v>74.57333333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>74.96166666666669</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6837,18 +8381,27 @@
         <v>10</v>
       </c>
       <c r="G183" t="n">
+        <v>74.60666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>74.95166666666668</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6872,18 +8425,27 @@
         <v>445.3866666666667</v>
       </c>
       <c r="G184" t="n">
+        <v>74.64000000000001</v>
+      </c>
+      <c r="H184" t="n">
         <v>74.94000000000003</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6907,18 +8469,27 @@
         <v>7900</v>
       </c>
       <c r="G185" t="n">
+        <v>74.63333333333335</v>
+      </c>
+      <c r="H185" t="n">
         <v>74.91833333333335</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6942,18 +8513,27 @@
         <v>5317.4619</v>
       </c>
       <c r="G186" t="n">
+        <v>74.65333333333335</v>
+      </c>
+      <c r="H186" t="n">
         <v>74.90333333333336</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6977,18 +8557,27 @@
         <v>18407.4925</v>
       </c>
       <c r="G187" t="n">
+        <v>74.64666666666669</v>
+      </c>
+      <c r="H187" t="n">
         <v>74.88000000000002</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7012,18 +8601,27 @@
         <v>10</v>
       </c>
       <c r="G188" t="n">
+        <v>74.6866666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>74.86500000000001</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7047,18 +8645,27 @@
         <v>805.1904</v>
       </c>
       <c r="G189" t="n">
+        <v>74.70666666666669</v>
+      </c>
+      <c r="H189" t="n">
         <v>74.85833333333335</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7082,18 +8689,27 @@
         <v>5655.3042</v>
       </c>
       <c r="G190" t="n">
+        <v>74.72666666666669</v>
+      </c>
+      <c r="H190" t="n">
         <v>74.84333333333335</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7117,18 +8733,27 @@
         <v>378.5101</v>
       </c>
       <c r="G191" t="n">
+        <v>74.74666666666668</v>
+      </c>
+      <c r="H191" t="n">
         <v>74.82833333333336</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7152,18 +8777,27 @@
         <v>6045.8833</v>
       </c>
       <c r="G192" t="n">
+        <v>74.74000000000002</v>
+      </c>
+      <c r="H192" t="n">
         <v>74.80666666666669</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7187,18 +8821,27 @@
         <v>8000</v>
       </c>
       <c r="G193" t="n">
+        <v>74.7466666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>74.79500000000002</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7222,18 +8865,27 @@
         <v>23647.88</v>
       </c>
       <c r="G194" t="n">
+        <v>74.7466666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>74.78500000000001</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7257,18 +8909,27 @@
         <v>5760</v>
       </c>
       <c r="G195" t="n">
+        <v>74.7466666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>74.77500000000001</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7292,18 +8953,27 @@
         <v>109.7197</v>
       </c>
       <c r="G196" t="n">
+        <v>74.78000000000003</v>
+      </c>
+      <c r="H196" t="n">
         <v>74.76666666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7327,18 +8997,27 @@
         <v>74873.5435</v>
       </c>
       <c r="G197" t="n">
+        <v>74.83333333333336</v>
+      </c>
+      <c r="H197" t="n">
         <v>74.76333333333334</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7362,18 +9041,27 @@
         <v>105828.5482</v>
       </c>
       <c r="G198" t="n">
+        <v>74.92000000000003</v>
+      </c>
+      <c r="H198" t="n">
         <v>74.78</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7397,18 +9085,27 @@
         <v>158647.5174</v>
       </c>
       <c r="G199" t="n">
+        <v>75.02666666666669</v>
+      </c>
+      <c r="H199" t="n">
         <v>74.79833333333335</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7432,18 +9129,27 @@
         <v>9600.2875</v>
       </c>
       <c r="G200" t="n">
+        <v>75.19333333333336</v>
+      </c>
+      <c r="H200" t="n">
         <v>74.82333333333334</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7467,18 +9173,27 @@
         <v>5502.9999</v>
       </c>
       <c r="G201" t="n">
+        <v>75.30000000000003</v>
+      </c>
+      <c r="H201" t="n">
         <v>74.83666666666666</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7502,18 +9217,27 @@
         <v>2875.8334</v>
       </c>
       <c r="G202" t="n">
+        <v>75.43333333333337</v>
+      </c>
+      <c r="H202" t="n">
         <v>74.85499999999999</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,18 +9261,27 @@
         <v>13328</v>
       </c>
       <c r="G203" t="n">
+        <v>75.53333333333336</v>
+      </c>
+      <c r="H203" t="n">
         <v>74.87333333333331</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7572,18 +9305,27 @@
         <v>16285</v>
       </c>
       <c r="G204" t="n">
+        <v>75.62666666666671</v>
+      </c>
+      <c r="H204" t="n">
         <v>74.89833333333331</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7607,18 +9349,27 @@
         <v>2000</v>
       </c>
       <c r="G205" t="n">
+        <v>75.7266666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>74.91666666666666</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7642,18 +9393,27 @@
         <v>3000</v>
       </c>
       <c r="G206" t="n">
+        <v>75.82000000000004</v>
+      </c>
+      <c r="H206" t="n">
         <v>74.93666666666665</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7677,18 +9437,27 @@
         <v>1580.2394</v>
       </c>
       <c r="G207" t="n">
+        <v>75.94000000000004</v>
+      </c>
+      <c r="H207" t="n">
         <v>74.95666666666665</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7712,18 +9481,27 @@
         <v>4000</v>
       </c>
       <c r="G208" t="n">
+        <v>76.02000000000002</v>
+      </c>
+      <c r="H208" t="n">
         <v>74.97499999999998</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7747,18 +9525,27 @@
         <v>2000</v>
       </c>
       <c r="G209" t="n">
+        <v>76.08666666666669</v>
+      </c>
+      <c r="H209" t="n">
         <v>74.98999999999998</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7782,18 +9569,27 @@
         <v>3996</v>
       </c>
       <c r="G210" t="n">
+        <v>76.1666666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>75.00666666666665</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7817,18 +9613,27 @@
         <v>402.1554</v>
       </c>
       <c r="G211" t="n">
+        <v>76.25333333333336</v>
+      </c>
+      <c r="H211" t="n">
         <v>75.03499999999998</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7852,19 +9657,28 @@
         <v>1601.8446</v>
       </c>
       <c r="G212" t="n">
+        <v>76.32000000000002</v>
+      </c>
+      <c r="H212" t="n">
         <v>75.06499999999998</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
+      <c r="L212" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>1.031684782608696</v>
       </c>
     </row>
     <row r="213">
@@ -7887,18 +9701,21 @@
         <v>2000</v>
       </c>
       <c r="G213" t="n">
+        <v>76.3266666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>75.09499999999997</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7922,18 +9739,21 @@
         <v>19891.3037</v>
       </c>
       <c r="G214" t="n">
+        <v>76.33333333333339</v>
+      </c>
+      <c r="H214" t="n">
         <v>75.1283333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7957,18 +9777,21 @@
         <v>1000</v>
       </c>
       <c r="G215" t="n">
+        <v>76.30000000000004</v>
+      </c>
+      <c r="H215" t="n">
         <v>75.15666666666662</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7992,18 +9815,21 @@
         <v>2740</v>
       </c>
       <c r="G216" t="n">
+        <v>76.28000000000003</v>
+      </c>
+      <c r="H216" t="n">
         <v>75.17999999999998</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8027,18 +9853,21 @@
         <v>1493.4528</v>
       </c>
       <c r="G217" t="n">
+        <v>76.2466666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>75.20166666666663</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8062,18 +9891,21 @@
         <v>1306.5472</v>
       </c>
       <c r="G218" t="n">
+        <v>76.21333333333337</v>
+      </c>
+      <c r="H218" t="n">
         <v>75.22333333333329</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8097,18 +9929,21 @@
         <v>32010.8005</v>
       </c>
       <c r="G219" t="n">
+        <v>76.18000000000004</v>
+      </c>
+      <c r="H219" t="n">
         <v>75.24833333333328</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8132,18 +9967,21 @@
         <v>1000</v>
       </c>
       <c r="G220" t="n">
+        <v>76.13333333333337</v>
+      </c>
+      <c r="H220" t="n">
         <v>75.26666666666662</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8167,18 +10005,21 @@
         <v>2020</v>
       </c>
       <c r="G221" t="n">
+        <v>76.13333333333337</v>
+      </c>
+      <c r="H221" t="n">
         <v>75.29499999999994</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8202,18 +10043,21 @@
         <v>3590</v>
       </c>
       <c r="G222" t="n">
+        <v>76.15333333333336</v>
+      </c>
+      <c r="H222" t="n">
         <v>75.32833333333329</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8237,18 +10081,21 @@
         <v>430</v>
       </c>
       <c r="G223" t="n">
+        <v>76.18000000000004</v>
+      </c>
+      <c r="H223" t="n">
         <v>75.36166666666662</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8272,18 +10119,21 @@
         <v>18421.1916</v>
       </c>
       <c r="G224" t="n">
+        <v>76.1866666666667</v>
+      </c>
+      <c r="H224" t="n">
         <v>75.38833333333329</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8307,18 +10157,21 @@
         <v>555.0228</v>
       </c>
       <c r="G225" t="n">
+        <v>76.1866666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>75.41833333333329</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8342,18 +10195,21 @@
         <v>16088.6149</v>
       </c>
       <c r="G226" t="n">
+        <v>76.17333333333336</v>
+      </c>
+      <c r="H226" t="n">
         <v>75.44499999999996</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8377,18 +10233,21 @@
         <v>139.6787</v>
       </c>
       <c r="G227" t="n">
+        <v>76.14000000000003</v>
+      </c>
+      <c r="H227" t="n">
         <v>75.46666666666664</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8412,18 +10271,21 @@
         <v>11722.9208</v>
       </c>
       <c r="G228" t="n">
+        <v>76.11333333333336</v>
+      </c>
+      <c r="H228" t="n">
         <v>75.49166666666663</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8447,18 +10309,21 @@
         <v>1000</v>
       </c>
       <c r="G229" t="n">
+        <v>76.04666666666668</v>
+      </c>
+      <c r="H229" t="n">
         <v>75.51166666666663</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8482,18 +10347,21 @@
         <v>5000</v>
       </c>
       <c r="G230" t="n">
+        <v>76.01333333333335</v>
+      </c>
+      <c r="H230" t="n">
         <v>75.53499999999995</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8517,18 +10385,21 @@
         <v>2884</v>
       </c>
       <c r="G231" t="n">
+        <v>76.00666666666669</v>
+      </c>
+      <c r="H231" t="n">
         <v>75.55999999999996</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8552,18 +10423,21 @@
         <v>3843</v>
       </c>
       <c r="G232" t="n">
+        <v>76.01333333333335</v>
+      </c>
+      <c r="H232" t="n">
         <v>75.58499999999997</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8587,18 +10461,21 @@
         <v>5769.2174</v>
       </c>
       <c r="G233" t="n">
+        <v>76.02000000000001</v>
+      </c>
+      <c r="H233" t="n">
         <v>75.61333333333329</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8622,18 +10499,21 @@
         <v>11827</v>
       </c>
       <c r="G234" t="n">
+        <v>76.04000000000001</v>
+      </c>
+      <c r="H234" t="n">
         <v>75.63833333333329</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8657,18 +10537,21 @@
         <v>16831</v>
       </c>
       <c r="G235" t="n">
+        <v>76.06666666666668</v>
+      </c>
+      <c r="H235" t="n">
         <v>75.66333333333328</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8692,18 +10575,21 @@
         <v>9890</v>
       </c>
       <c r="G236" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="H236" t="n">
         <v>75.68999999999997</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8727,18 +10613,21 @@
         <v>18570</v>
       </c>
       <c r="G237" t="n">
+        <v>76.06666666666666</v>
+      </c>
+      <c r="H237" t="n">
         <v>75.72499999999997</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8762,18 +10651,21 @@
         <v>2854.5814</v>
       </c>
       <c r="G238" t="n">
+        <v>76.01333333333334</v>
+      </c>
+      <c r="H238" t="n">
         <v>75.73999999999997</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8797,18 +10689,21 @@
         <v>6940</v>
       </c>
       <c r="G239" t="n">
+        <v>75.98666666666668</v>
+      </c>
+      <c r="H239" t="n">
         <v>75.75166666666662</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8832,18 +10727,21 @@
         <v>9734.370000000001</v>
       </c>
       <c r="G240" t="n">
+        <v>75.92666666666668</v>
+      </c>
+      <c r="H240" t="n">
         <v>75.75666666666663</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8867,18 +10765,21 @@
         <v>15690</v>
       </c>
       <c r="G241" t="n">
+        <v>75.87333333333335</v>
+      </c>
+      <c r="H241" t="n">
         <v>75.76999999999997</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8902,18 +10803,21 @@
         <v>1825.9999</v>
       </c>
       <c r="G242" t="n">
+        <v>75.84</v>
+      </c>
+      <c r="H242" t="n">
         <v>75.7833333333333</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8937,18 +10841,21 @@
         <v>5317.894</v>
       </c>
       <c r="G243" t="n">
+        <v>75.79333333333334</v>
+      </c>
+      <c r="H243" t="n">
         <v>75.78833333333331</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8972,18 +10879,21 @@
         <v>7128</v>
       </c>
       <c r="G244" t="n">
+        <v>75.76666666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>75.79333333333331</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9007,18 +10917,21 @@
         <v>16742.9999</v>
       </c>
       <c r="G245" t="n">
+        <v>75.72</v>
+      </c>
+      <c r="H245" t="n">
         <v>75.80666666666664</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9042,18 +10955,21 @@
         <v>3570</v>
       </c>
       <c r="G246" t="n">
+        <v>75.66666666666667</v>
+      </c>
+      <c r="H246" t="n">
         <v>75.8133333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9077,18 +10993,21 @@
         <v>1257</v>
       </c>
       <c r="G247" t="n">
+        <v>75.61333333333333</v>
+      </c>
+      <c r="H247" t="n">
         <v>75.82666666666664</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9112,18 +11031,21 @@
         <v>4365.9999</v>
       </c>
       <c r="G248" t="n">
+        <v>75.56</v>
+      </c>
+      <c r="H248" t="n">
         <v>75.83166666666665</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9147,18 +11069,21 @@
         <v>4303.9999</v>
       </c>
       <c r="G249" t="n">
+        <v>75.50666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>75.83833333333331</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9182,18 +11107,21 @@
         <v>2839.5175</v>
       </c>
       <c r="G250" t="n">
+        <v>75.46000000000001</v>
+      </c>
+      <c r="H250" t="n">
         <v>75.84666666666664</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9217,18 +11145,21 @@
         <v>6094.3221</v>
       </c>
       <c r="G251" t="n">
+        <v>75.40666666666668</v>
+      </c>
+      <c r="H251" t="n">
         <v>75.85499999999998</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9252,18 +11183,21 @@
         <v>563.4983999999999</v>
       </c>
       <c r="G252" t="n">
+        <v>75.32000000000001</v>
+      </c>
+      <c r="H252" t="n">
         <v>75.86999999999998</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9287,18 +11221,21 @@
         <v>10422.9807</v>
       </c>
       <c r="G253" t="n">
+        <v>75.29333333333334</v>
+      </c>
+      <c r="H253" t="n">
         <v>75.87666666666665</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9322,18 +11259,21 @@
         <v>14691.2387</v>
       </c>
       <c r="G254" t="n">
+        <v>75.26000000000001</v>
+      </c>
+      <c r="H254" t="n">
         <v>75.87999999999998</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9357,18 +11297,21 @@
         <v>3761.8324</v>
       </c>
       <c r="G255" t="n">
+        <v>75.25333333333334</v>
+      </c>
+      <c r="H255" t="n">
         <v>75.88333333333331</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9392,18 +11335,21 @@
         <v>1053.3144</v>
       </c>
       <c r="G256" t="n">
+        <v>75.24666666666668</v>
+      </c>
+      <c r="H256" t="n">
         <v>75.88666666666664</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9427,18 +11373,21 @@
         <v>24477.5603</v>
       </c>
       <c r="G257" t="n">
+        <v>75.24000000000002</v>
+      </c>
+      <c r="H257" t="n">
         <v>75.88499999999998</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9462,18 +11411,21 @@
         <v>13234.6962</v>
       </c>
       <c r="G258" t="n">
+        <v>75.24000000000002</v>
+      </c>
+      <c r="H258" t="n">
         <v>75.86833333333331</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9497,18 +11449,21 @@
         <v>13483.3976</v>
       </c>
       <c r="G259" t="n">
+        <v>75.24000000000002</v>
+      </c>
+      <c r="H259" t="n">
         <v>75.84666666666664</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9532,18 +11487,21 @@
         <v>2430</v>
       </c>
       <c r="G260" t="n">
+        <v>75.24000000000002</v>
+      </c>
+      <c r="H260" t="n">
         <v>75.81833333333331</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9567,18 +11525,21 @@
         <v>25337.4722</v>
       </c>
       <c r="G261" t="n">
+        <v>75.24000000000002</v>
+      </c>
+      <c r="H261" t="n">
         <v>75.79833333333332</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9602,18 +11563,21 @@
         <v>3060</v>
       </c>
       <c r="G262" t="n">
+        <v>75.24000000000002</v>
+      </c>
+      <c r="H262" t="n">
         <v>75.77833333333332</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9637,18 +11601,21 @@
         <v>709.5364</v>
       </c>
       <c r="G263" t="n">
+        <v>75.26000000000002</v>
+      </c>
+      <c r="H263" t="n">
         <v>75.76333333333332</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9672,18 +11639,21 @@
         <v>210.0929</v>
       </c>
       <c r="G264" t="n">
+        <v>75.26666666666668</v>
+      </c>
+      <c r="H264" t="n">
         <v>75.74833333333332</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9707,18 +11677,21 @@
         <v>7160.5524</v>
       </c>
       <c r="G265" t="n">
+        <v>75.25333333333334</v>
+      </c>
+      <c r="H265" t="n">
         <v>75.72833333333332</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9742,18 +11715,21 @@
         <v>422.1167</v>
       </c>
       <c r="G266" t="n">
+        <v>75.26000000000002</v>
+      </c>
+      <c r="H266" t="n">
         <v>75.71499999999999</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9777,18 +11753,401 @@
         <v>17175.8383</v>
       </c>
       <c r="G267" t="n">
+        <v>75.24666666666668</v>
+      </c>
+      <c r="H267" t="n">
         <v>75.69666666666667</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C268" t="n">
+        <v>75</v>
+      </c>
+      <c r="D268" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E268" t="n">
+        <v>75</v>
+      </c>
+      <c r="F268" t="n">
+        <v>3646.7141</v>
+      </c>
+      <c r="G268" t="n">
+        <v>75.22666666666669</v>
+      </c>
+      <c r="H268" t="n">
+        <v>75.67833333333333</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="C269" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D269" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E269" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="F269" t="n">
+        <v>424.6949602122016</v>
+      </c>
+      <c r="G269" t="n">
+        <v>75.24000000000002</v>
+      </c>
+      <c r="H269" t="n">
+        <v>75.66833333333332</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C270" t="n">
+        <v>75</v>
+      </c>
+      <c r="D270" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E270" t="n">
+        <v>75</v>
+      </c>
+      <c r="F270" t="n">
+        <v>979</v>
+      </c>
+      <c r="G270" t="n">
+        <v>75.22666666666669</v>
+      </c>
+      <c r="H270" t="n">
+        <v>75.64833333333333</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C271" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D271" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E271" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F271" t="n">
+        <v>133.843</v>
+      </c>
+      <c r="G271" t="n">
+        <v>75.22000000000001</v>
+      </c>
+      <c r="H271" t="n">
+        <v>75.62833333333333</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>75</v>
+      </c>
+      <c r="C272" t="n">
+        <v>75</v>
+      </c>
+      <c r="D272" t="n">
+        <v>75</v>
+      </c>
+      <c r="E272" t="n">
+        <v>75</v>
+      </c>
+      <c r="F272" t="n">
+        <v>23110.8005</v>
+      </c>
+      <c r="G272" t="n">
+        <v>75.20666666666668</v>
+      </c>
+      <c r="H272" t="n">
+        <v>75.60666666666665</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="C273" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D273" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="E273" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="F273" t="n">
+        <v>20</v>
+      </c>
+      <c r="G273" t="n">
+        <v>75.20666666666668</v>
+      </c>
+      <c r="H273" t="n">
+        <v>75.58833333333334</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="C274" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D274" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E274" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="F274" t="n">
+        <v>4010</v>
+      </c>
+      <c r="G274" t="n">
+        <v>75.21333333333335</v>
+      </c>
+      <c r="H274" t="n">
+        <v>75.56666666666666</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="C275" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="D275" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E275" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="F275" t="n">
+        <v>10</v>
+      </c>
+      <c r="G275" t="n">
+        <v>75.24000000000001</v>
+      </c>
+      <c r="H275" t="n">
+        <v>75.55333333333334</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="C276" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="D276" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="E276" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="F276" t="n">
+        <v>573.9734</v>
+      </c>
+      <c r="G276" t="n">
+        <v>75.26000000000001</v>
+      </c>
+      <c r="H276" t="n">
+        <v>75.54333333333334</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="C277" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="D277" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E277" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="F277" t="n">
+        <v>12</v>
+      </c>
+      <c r="G277" t="n">
+        <v>75.28666666666666</v>
+      </c>
+      <c r="H277" t="n">
+        <v>75.53833333333336</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-29 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N335"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,22 +2662,15 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K69" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2908,26 +2695,15 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K70" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2952,26 +2728,15 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K71" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2996,22 +2761,15 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K72" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3036,26 +2794,21 @@
         <v>85754.38239999993</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="K73" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3080,26 +2833,21 @@
         <v>85754.38239999993</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
         <v>73.2</v>
       </c>
-      <c r="K74" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3124,26 +2872,21 @@
         <v>85754.38239999993</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
         <v>73.2</v>
       </c>
-      <c r="K75" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3168,26 +2911,21 @@
         <v>117279.9610999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
         <v>73.2</v>
       </c>
-      <c r="K76" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3212,26 +2950,21 @@
         <v>117279.9610999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="K77" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3256,26 +2989,21 @@
         <v>117279.9610999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="K78" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3300,26 +3028,21 @@
         <v>117279.9610999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="K79" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3344,26 +3067,21 @@
         <v>117279.9610999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="K80" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3388,26 +3106,19 @@
         <v>117837.6396999999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K81" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3432,26 +3143,21 @@
         <v>117837.6396999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>73.5</v>
       </c>
-      <c r="K82" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3476,26 +3182,19 @@
         <v>118800.3403999999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="K83" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3520,26 +3219,21 @@
         <v>118800.3403999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="K84" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3564,26 +3258,21 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="K85" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3608,24 +3297,21 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>73.7</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3650,24 +3336,21 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>73.7</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3692,24 +3375,21 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>73.7</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3734,24 +3414,21 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>73.7</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3776,24 +3453,21 @@
         <v>134895.1562999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>73.7</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3818,24 +3492,21 @@
         <v>134428.3869</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3860,24 +3531,21 @@
         <v>134428.3869</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3902,24 +3570,21 @@
         <v>134428.3869</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3944,24 +3609,21 @@
         <v>146854.3869</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3988,22 +3650,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4030,22 +3687,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4072,22 +3724,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4114,22 +3761,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4156,22 +3798,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4198,22 +3835,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4240,22 +3872,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4282,22 +3909,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4324,22 +3946,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4366,22 +3983,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4408,22 +4020,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4450,22 +4057,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4492,22 +4094,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4534,22 +4131,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4576,22 +4168,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4618,22 +4205,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4660,22 +4242,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4702,22 +4279,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4744,22 +4316,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4786,22 +4353,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4828,22 +4390,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4870,22 +4427,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4912,22 +4464,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4954,22 +4501,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4996,22 +4538,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5038,22 +4575,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5080,22 +4612,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5122,22 +4649,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5164,22 +4686,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5206,22 +4723,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5248,22 +4760,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5290,22 +4797,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5332,22 +4834,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5374,22 +4871,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5416,22 +4908,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5458,22 +4945,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5500,22 +4982,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5542,22 +5019,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5584,22 +5056,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5626,22 +5093,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5668,22 +5130,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5710,22 +5167,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5752,22 +5204,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5794,22 +5241,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5836,22 +5278,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5878,22 +5315,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5920,22 +5352,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5962,22 +5389,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6004,22 +5426,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6046,22 +5463,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6088,22 +5500,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6130,22 +5537,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6172,22 +5574,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6214,22 +5611,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6256,22 +5648,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6298,22 +5685,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6340,22 +5722,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6382,22 +5759,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6424,22 +5796,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6466,22 +5833,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6508,22 +5870,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6550,22 +5907,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6592,22 +5944,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6634,22 +5981,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6676,22 +6018,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6718,22 +6055,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6760,22 +6092,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6802,22 +6129,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6844,22 +6166,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6886,22 +6203,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6928,22 +6240,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6970,22 +6277,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7012,22 +6314,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7054,22 +6351,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7096,22 +6388,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7138,22 +6425,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7180,22 +6462,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7222,22 +6499,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7264,22 +6536,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7306,22 +6573,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7348,22 +6610,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7390,22 +6647,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7432,22 +6684,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7474,22 +6721,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7516,22 +6758,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7558,22 +6795,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7600,22 +6832,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7642,22 +6869,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7684,22 +6906,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7726,22 +6943,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7768,22 +6980,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7810,22 +7017,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7852,22 +7054,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7894,22 +7091,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7936,22 +7128,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7978,22 +7165,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8020,22 +7202,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8062,22 +7239,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8104,22 +7276,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8146,22 +7313,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8188,22 +7350,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8230,22 +7387,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8272,22 +7424,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8314,22 +7461,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8356,22 +7498,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8398,22 +7535,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8440,22 +7572,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8482,22 +7609,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8524,22 +7646,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8566,22 +7683,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8608,22 +7720,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8650,22 +7757,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8692,22 +7794,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8734,22 +7831,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8776,22 +7868,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8818,22 +7905,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8860,22 +7942,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8902,22 +7979,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8944,22 +8016,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8986,22 +8053,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9028,22 +8090,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9070,22 +8127,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9112,22 +8164,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9154,22 +8201,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9196,22 +8238,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9238,22 +8275,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9280,22 +8312,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9322,22 +8349,17 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9364,22 +8386,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9406,22 +8423,17 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9448,22 +8460,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9490,22 +8497,17 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9532,22 +8534,17 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9574,22 +8571,17 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9616,22 +8608,17 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9658,22 +8645,17 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9700,22 +8682,17 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9742,22 +8719,17 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9784,22 +8756,17 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9826,22 +8793,17 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9868,22 +8830,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9910,22 +8867,17 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9952,22 +8904,17 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9994,22 +8941,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10036,22 +8978,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10078,22 +9015,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10120,22 +9052,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10162,22 +9089,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10204,22 +9126,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10246,22 +9163,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10288,22 +9200,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10330,22 +9237,17 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10372,22 +9274,17 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10414,22 +9311,17 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10456,22 +9348,17 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10498,22 +9385,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10540,22 +9422,17 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10582,22 +9459,17 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10624,22 +9496,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10666,22 +9533,17 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10708,22 +9570,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10750,22 +9607,17 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10792,22 +9644,17 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10832,24 +9679,17 @@
         <v>18875685.59987678</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10874,24 +9714,15 @@
         <v>18870182.59997679</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10916,24 +9747,15 @@
         <v>18870182.59997679</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10958,24 +9780,15 @@
         <v>18870182.59997679</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1.035871934604905</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -11000,18 +9813,15 @@
         <v>18853897.59997679</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -11038,16 +9848,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -11074,16 +9881,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -11110,16 +9914,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -11146,16 +9947,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -11182,16 +9980,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>1</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -11218,16 +10013,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>1</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -11254,16 +10046,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>1</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11290,16 +10079,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11326,16 +10112,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11360,18 +10143,15 @@
         <v>18873187.05907679</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11396,18 +10176,15 @@
         <v>18872187.05907679</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11432,18 +10209,15 @@
         <v>18869447.05907679</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11468,18 +10242,15 @@
         <v>18867953.60627679</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11506,16 +10277,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11542,16 +10310,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11578,16 +10343,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11614,16 +10376,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11650,16 +10409,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11686,16 +10442,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11722,16 +10475,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11758,16 +10508,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11794,16 +10541,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>1</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11830,16 +10574,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>1</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11866,16 +10607,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11902,16 +10640,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>1</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11938,16 +10673,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11972,18 +10704,15 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -12010,16 +10739,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>1</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -12046,16 +10772,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>1</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -12082,16 +10805,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>1</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -12118,16 +10838,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>1</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -12154,16 +10871,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>1</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -12190,16 +10904,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>1</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -12226,16 +10937,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>1</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -12262,16 +10970,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>1</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -12298,16 +11003,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>1</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -12334,16 +11036,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12370,16 +11069,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12404,18 +11100,15 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12440,18 +11133,15 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12476,18 +11166,15 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12512,18 +11199,15 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12548,18 +11232,15 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12586,16 +11267,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12622,16 +11300,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12658,16 +11333,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12694,16 +11366,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12730,16 +11399,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12766,16 +11432,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12802,16 +11465,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12838,16 +11498,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12874,16 +11531,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12910,16 +11564,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12946,16 +11597,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12982,16 +11630,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -13018,16 +11663,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -13054,16 +11696,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -13090,16 +11729,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -13126,16 +11762,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -13162,16 +11795,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -13198,16 +11828,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -13234,16 +11861,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -13270,16 +11894,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -13306,16 +11927,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -13342,16 +11960,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -13378,16 +11993,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -13414,16 +12026,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -13450,16 +12059,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -13486,16 +12092,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -13522,16 +12125,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -13558,16 +12158,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -13594,16 +12191,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -13630,18 +12224,15 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-29 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2662,10 +2662,14 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J69" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2695,11 +2699,19 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J70" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2740,19 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J71" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,10 +2781,14 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J72" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2794,12 +2818,14 @@
         <v>85754.38239999993</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2833,12 +2859,14 @@
         <v>85754.38239999993</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>73.2</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,12 +2900,14 @@
         <v>85754.38239999993</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>73.2</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2911,12 +2941,14 @@
         <v>117279.9610999999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>73.2</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,12 +2982,14 @@
         <v>117279.9610999999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2989,12 +3023,14 @@
         <v>117279.9610999999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,12 +3064,14 @@
         <v>117279.9610999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3067,12 +3105,14 @@
         <v>117279.9610999999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3106,10 +3146,14 @@
         <v>117837.6396999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J81" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3143,12 +3187,14 @@
         <v>117837.6396999999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>73.5</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3182,10 +3228,14 @@
         <v>118800.3403999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3219,12 +3269,14 @@
         <v>118800.3403999999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3258,12 +3310,14 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3297,12 +3351,14 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>73.7</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3336,12 +3392,14 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>73.7</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3375,12 +3433,12 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,12 +3472,12 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3453,12 +3511,12 @@
         <v>134895.1562999999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,12 +3550,12 @@
         <v>134428.3869</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>74</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,12 +3589,12 @@
         <v>134428.3869</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3570,12 +3628,12 @@
         <v>134428.3869</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3609,12 +3667,12 @@
         <v>146854.3869</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3651,7 +3709,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3688,7 +3748,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3725,7 +3787,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3762,7 +3826,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3799,7 +3865,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3836,7 +3904,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3873,7 +3943,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3910,7 +3982,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3947,7 +4021,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3984,7 +4060,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,7 +4099,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,7 +4138,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4095,7 +4177,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4132,7 +4216,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4169,7 +4255,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4206,7 +4294,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4243,7 +4333,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,7 +4372,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4317,7 +4411,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4354,7 +4450,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4391,7 +4489,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4428,7 +4528,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4465,7 +4567,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,7 +4606,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4539,7 +4645,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,7 +4684,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4613,7 +4723,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4650,7 +4762,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4687,7 +4801,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,7 +4840,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,7 +4879,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4798,7 +4918,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4835,7 +4957,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4872,7 +4996,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4909,7 +5035,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4946,7 +5074,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4983,7 +5113,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5020,7 +5152,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5057,7 +5191,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5094,7 +5230,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5131,7 +5269,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,7 +5308,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5205,7 +5347,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5242,7 +5386,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5279,7 +5425,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5316,7 +5464,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5353,7 +5503,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5390,7 +5542,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5427,7 +5581,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5464,7 +5620,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5501,7 +5659,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5538,7 +5698,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5575,7 +5737,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5612,7 +5776,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5649,7 +5815,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5686,7 +5854,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5723,7 +5893,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5760,7 +5932,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5797,7 +5971,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5834,7 +6010,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,7 +6049,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5908,7 +6088,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5945,7 +6127,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5982,7 +6166,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6019,7 +6205,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6056,7 +6244,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6093,7 +6283,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6130,7 +6322,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,7 +6361,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,7 +6400,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,7 +6439,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6278,7 +6478,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6315,7 +6517,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6352,7 +6556,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6389,7 +6595,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6426,7 +6634,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6463,7 +6673,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6500,7 +6712,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6537,7 +6751,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6574,7 +6790,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6611,7 +6829,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6648,7 +6868,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6685,7 +6907,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6722,7 +6946,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6759,7 +6985,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6796,7 +7024,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6833,7 +7063,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6870,7 +7102,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6907,7 +7141,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6944,7 +7180,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6981,7 +7219,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7018,7 +7258,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7055,7 +7297,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7092,7 +7336,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7129,7 +7375,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7166,7 +7414,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7203,7 +7453,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7240,7 +7492,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7277,7 +7531,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7314,7 +7570,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7351,7 +7609,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7388,7 +7648,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7425,7 +7687,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7462,7 +7726,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7496,17 +7762,19 @@
         <v>18598916.30257678</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>1.024972752043597</v>
       </c>
       <c r="M199" t="inlineStr"/>
     </row>
@@ -7533,15 +7801,11 @@
         <v>18596866.30257678</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7570,15 +7834,11 @@
         <v>18596866.30257678</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7607,15 +7867,11 @@
         <v>18467295.94497678</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7644,15 +7900,11 @@
         <v>18477925.94497678</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7681,15 +7933,11 @@
         <v>18464876.94497678</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7718,15 +7966,11 @@
         <v>18464876.94497678</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7755,15 +7999,11 @@
         <v>18464876.94497678</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7792,15 +8032,11 @@
         <v>18472876.94497678</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7829,15 +8065,11 @@
         <v>18475196.94497678</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7866,15 +8098,11 @@
         <v>18475057.93607678</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7903,15 +8131,11 @@
         <v>18467090.64317678</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7940,15 +8164,11 @@
         <v>18469110.64317678</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7977,15 +8197,11 @@
         <v>18469576.64317678</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8014,15 +8230,11 @@
         <v>18469576.64317678</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8051,15 +8263,11 @@
         <v>18469576.64317678</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8088,15 +8296,11 @@
         <v>18468675.64317678</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8125,15 +8329,11 @@
         <v>18468675.64317678</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8162,15 +8362,11 @@
         <v>18451959.22147678</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8199,15 +8395,11 @@
         <v>18452814.14297678</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8236,15 +8428,11 @@
         <v>18452814.14297678</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8273,15 +8461,11 @@
         <v>18452814.14297678</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8310,15 +8494,11 @@
         <v>18452814.14297678</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8347,15 +8527,11 @@
         <v>18452814.14297678</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8384,15 +8560,11 @@
         <v>18451134.14297678</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8421,15 +8593,11 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8458,15 +8626,11 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8495,15 +8659,11 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8532,15 +8692,11 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8573,11 +8729,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8606,15 +8758,11 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8643,15 +8791,11 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8680,15 +8824,11 @@
         <v>18449368.83627678</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8717,15 +8857,11 @@
         <v>18454388.83627678</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8754,15 +8890,11 @@
         <v>18454388.83627678</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8795,11 +8927,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8832,11 +8960,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8869,11 +8993,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8906,11 +9026,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8943,11 +9059,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8980,11 +9092,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9017,11 +9125,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9054,11 +9158,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9091,11 +9191,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9128,11 +9224,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9165,11 +9257,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9202,11 +9290,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9239,11 +9323,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9276,11 +9356,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9313,11 +9389,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9350,11 +9422,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9387,11 +9455,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9424,11 +9488,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9461,11 +9521,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9498,11 +9554,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9535,11 +9587,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9572,11 +9620,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9609,11 +9653,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9646,11 +9686,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9679,16 +9715,14 @@
         <v>18875685.59987678</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
       <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
@@ -9714,7 +9748,7 @@
         <v>18870182.59997679</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9747,7 +9781,7 @@
         <v>18870182.59997679</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9780,7 +9814,7 @@
         <v>18870182.59997679</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9813,7 +9847,7 @@
         <v>18853897.59997679</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10143,7 +10177,7 @@
         <v>18873187.05907679</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10176,7 +10210,7 @@
         <v>18872187.05907679</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10209,7 +10243,7 @@
         <v>18869447.05907679</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10242,7 +10276,7 @@
         <v>18867953.60627679</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10275,7 +10309,7 @@
         <v>18867953.60627679</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10308,7 +10342,7 @@
         <v>18835942.80577679</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10341,7 +10375,7 @@
         <v>18834942.80577679</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10374,7 +10408,7 @@
         <v>18836962.80577679</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10407,7 +10441,7 @@
         <v>18840552.80577679</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10440,7 +10474,7 @@
         <v>18840552.80577679</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10473,7 +10507,7 @@
         <v>18822131.61417679</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10506,7 +10540,7 @@
         <v>18822686.63697679</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10539,7 +10573,7 @@
         <v>18806598.02207679</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10572,7 +10606,7 @@
         <v>18806458.34337679</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10704,7 +10738,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11034,7 +11068,7 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11067,7 +11101,7 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11100,7 +11134,7 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11133,7 +11167,7 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11166,7 +11200,7 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11199,7 +11233,7 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11232,7 +11266,7 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11265,7 +11299,7 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11298,7 +11332,7 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11331,7 +11365,7 @@
         <v>18827032.83037679</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11364,7 +11398,7 @@
         <v>18827032.83037679</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11397,7 +11431,7 @@
         <v>18827032.83037679</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11430,7 +11464,7 @@
         <v>18827032.83037679</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11463,7 +11497,7 @@
         <v>18812341.59167679</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11529,7 +11563,7 @@
         <v>18812341.59167679</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11562,7 +11596,7 @@
         <v>18812341.59167679</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11595,7 +11629,7 @@
         <v>18825576.28787678</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11628,7 +11662,7 @@
         <v>18825576.28787678</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11694,7 +11728,7 @@
         <v>18823146.28787678</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11727,7 +11761,7 @@
         <v>18823146.28787678</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11760,7 +11794,7 @@
         <v>18823855.82427679</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11793,7 +11827,7 @@
         <v>18823645.73137679</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11826,7 +11860,7 @@
         <v>18816485.17897679</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12090,7 +12124,7 @@
         <v>18772573.48073699</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12123,7 +12157,7 @@
         <v>18776583.48073699</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12156,7 +12190,7 @@
         <v>18776593.48073699</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12189,7 +12223,7 @@
         <v>18776019.50733699</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12222,7 +12256,7 @@
         <v>18776031.50733699</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12233,6 +12267,6 @@
       <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-29 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2662,14 +2662,10 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J69" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2699,19 +2695,11 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J70" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2740,19 +2728,11 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J71" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,14 +2761,10 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J72" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2823,9 +2799,7 @@
       <c r="I73" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J73" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2864,9 +2838,7 @@
       <c r="I74" t="n">
         <v>73.2</v>
       </c>
-      <c r="J74" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2905,9 +2877,7 @@
       <c r="I75" t="n">
         <v>73.2</v>
       </c>
-      <c r="J75" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2946,9 +2916,7 @@
       <c r="I76" t="n">
         <v>73.2</v>
       </c>
-      <c r="J76" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2987,9 +2955,7 @@
       <c r="I77" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J77" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,9 +2994,7 @@
       <c r="I78" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J78" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3069,9 +3033,7 @@
       <c r="I79" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J79" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,9 +3072,7 @@
       <c r="I80" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J80" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3151,9 +3111,7 @@
       <c r="I81" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J81" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,9 +3150,7 @@
       <c r="I82" t="n">
         <v>73.5</v>
       </c>
-      <c r="J82" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3233,9 +3189,7 @@
       <c r="I83" t="n">
         <v>73.5</v>
       </c>
-      <c r="J83" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3269,14 +3223,10 @@
         <v>118800.3403999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="J84" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,14 +3260,10 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="J85" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,14 +3297,10 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3392,14 +3334,10 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>73.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3436,9 +3374,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,9 +3411,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3514,9 +3448,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3553,9 +3485,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,9 +3522,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3631,9 +3559,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3670,9 +3596,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3709,9 +3633,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3748,9 +3670,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,9 +3707,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,9 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3865,9 +3781,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,9 +3818,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,9 +3855,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3982,9 +3892,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4021,9 +3929,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4060,9 +3966,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,9 +4003,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4138,9 +4040,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,9 +4077,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4216,9 +4114,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,9 +4151,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,9 +4188,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,9 +4225,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,9 +4262,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,9 +4299,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4450,9 +4336,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4489,9 +4373,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,9 +4410,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,9 +4447,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4606,9 +4484,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,9 +4521,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4681,20 +4555,16 @@
         <v>187008.3814</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -4720,17 +4590,11 @@
         <v>188008.3814</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4759,17 +4623,11 @@
         <v>205353.0505</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4798,17 +4656,11 @@
         <v>268884.3409</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4837,17 +4689,11 @@
         <v>262852.5391999999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4876,17 +4722,11 @@
         <v>261602.5391999999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4915,17 +4755,11 @@
         <v>287256.4239999999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4957,14 +4791,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4996,14 +4824,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5032,17 +4854,11 @@
         <v>289407.4239999999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5071,17 +4887,11 @@
         <v>309397.4239999999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5110,17 +4920,11 @@
         <v>309397.4239999999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5149,17 +4953,11 @@
         <v>279397.4239999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5191,14 +4989,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5230,14 +5022,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5269,14 +5055,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5308,14 +5088,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5347,14 +5121,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +5154,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5425,14 +5187,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5464,14 +5220,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5503,14 +5253,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5542,14 +5286,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5581,14 +5319,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5620,14 +5352,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5659,14 +5385,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5698,14 +5418,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5737,14 +5451,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5776,14 +5484,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5815,14 +5517,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5854,14 +5550,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5890,17 +5580,11 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5932,14 +5616,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5971,14 +5649,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6010,14 +5682,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6049,14 +5715,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6085,17 +5745,11 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6124,17 +5778,11 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6163,17 +5811,11 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6202,17 +5844,11 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6241,17 +5877,11 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6283,14 +5913,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6322,14 +5946,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6361,14 +5979,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6400,14 +6012,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6439,14 +6045,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6478,14 +6078,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6517,14 +6111,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6556,14 +6144,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6595,14 +6177,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6634,14 +6210,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6673,14 +6243,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6712,14 +6276,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6751,14 +6309,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6790,14 +6342,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6829,14 +6375,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6868,14 +6408,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6907,14 +6441,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6946,14 +6474,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6985,14 +6507,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7024,14 +6540,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7063,14 +6573,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7102,14 +6606,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7141,14 +6639,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7180,14 +6672,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7219,14 +6705,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7258,14 +6738,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7297,14 +6771,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7336,14 +6804,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7375,14 +6837,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7414,14 +6870,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7453,14 +6903,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7492,14 +6936,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7531,14 +6969,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7570,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7609,14 +7035,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7648,14 +7068,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7687,14 +7101,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7726,14 +7134,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7762,19 +7164,13 @@
         <v>18598916.30257678</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
-        <v>1.024972752043597</v>
+        <v>1</v>
       </c>
       <c r="M199" t="inlineStr"/>
     </row>
@@ -7801,7 +7197,7 @@
         <v>18596866.30257678</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7834,7 +7230,7 @@
         <v>18596866.30257678</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7867,7 +7263,7 @@
         <v>18467295.94497678</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7900,7 +7296,7 @@
         <v>18477925.94497678</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7933,7 +7329,7 @@
         <v>18464876.94497678</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7966,7 +7362,7 @@
         <v>18464876.94497678</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7999,7 +7395,7 @@
         <v>18464876.94497678</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8032,7 +7428,7 @@
         <v>18472876.94497678</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8065,7 +7461,7 @@
         <v>18475196.94497678</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8098,7 +7494,7 @@
         <v>18475057.93607678</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8131,7 +7527,7 @@
         <v>18467090.64317678</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8164,7 +7560,7 @@
         <v>18469110.64317678</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8197,7 +7593,7 @@
         <v>18469576.64317678</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8230,7 +7626,7 @@
         <v>18469576.64317678</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8263,7 +7659,7 @@
         <v>18469576.64317678</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8296,7 +7692,7 @@
         <v>18468675.64317678</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8329,7 +7725,7 @@
         <v>18468675.64317678</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8362,7 +7758,7 @@
         <v>18451959.22147678</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8395,7 +7791,7 @@
         <v>18452814.14297678</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8428,7 +7824,7 @@
         <v>18452814.14297678</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8461,7 +7857,7 @@
         <v>18452814.14297678</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8494,7 +7890,7 @@
         <v>18452814.14297678</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8527,7 +7923,7 @@
         <v>18452814.14297678</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8560,7 +7956,7 @@
         <v>18451134.14297678</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8593,7 +7989,7 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8626,7 +8022,7 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8659,7 +8055,7 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8692,7 +8088,7 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8758,7 +8154,7 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8791,7 +8187,7 @@
         <v>18451144.14297678</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8824,7 +8220,7 @@
         <v>18449368.83627678</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8857,7 +8253,7 @@
         <v>18454388.83627678</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8890,7 +8286,7 @@
         <v>18454388.83627678</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -10309,7 +9705,7 @@
         <v>18867953.60627679</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10342,7 +9738,7 @@
         <v>18835942.80577679</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10375,7 +9771,7 @@
         <v>18834942.80577679</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10408,7 +9804,7 @@
         <v>18836962.80577679</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10441,7 +9837,7 @@
         <v>18840552.80577679</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10474,7 +9870,7 @@
         <v>18840552.80577679</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10507,7 +9903,7 @@
         <v>18822131.61417679</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10540,7 +9936,7 @@
         <v>18822686.63697679</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10573,7 +9969,7 @@
         <v>18806598.02207679</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10606,7 +10002,7 @@
         <v>18806458.34337679</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10639,7 +10035,7 @@
         <v>18818181.26417679</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11068,7 +10464,7 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11101,7 +10497,7 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11134,7 +10530,7 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11167,7 +10563,7 @@
         <v>18840936.31277679</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11200,7 +10596,7 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11233,7 +10629,7 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11266,7 +10662,7 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11299,7 +10695,7 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11332,7 +10728,7 @@
         <v>18824193.31287679</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11365,7 +10761,7 @@
         <v>18827032.83037679</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11398,7 +10794,7 @@
         <v>18827032.83037679</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11431,7 +10827,7 @@
         <v>18827032.83037679</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11464,7 +10860,7 @@
         <v>18827032.83037679</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11497,7 +10893,7 @@
         <v>18812341.59167679</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11563,7 +10959,7 @@
         <v>18812341.59167679</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11596,7 +10992,7 @@
         <v>18812341.59167679</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11629,7 +11025,7 @@
         <v>18825576.28787678</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11662,7 +11058,7 @@
         <v>18825576.28787678</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11728,7 +11124,7 @@
         <v>18823146.28787678</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11761,7 +11157,7 @@
         <v>18823146.28787678</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11794,7 +11190,7 @@
         <v>18823855.82427679</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11827,7 +11223,7 @@
         <v>18823645.73137679</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11860,7 +11256,7 @@
         <v>18816485.17897679</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12124,7 +11520,7 @@
         <v>18772573.48073699</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12157,7 +11553,7 @@
         <v>18776583.48073699</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12190,7 +11586,7 @@
         <v>18776593.48073699</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12223,7 +11619,7 @@
         <v>18776019.50733699</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12256,7 +11652,7 @@
         <v>18776031.50733699</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12267,6 +11663,6 @@
       <c r="M335" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-29 BackTest ENJ.xlsx
@@ -2695,10 +2695,14 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J70" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2728,11 +2732,19 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J71" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2773,19 @@
         <v>95754.38229999992</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J72" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2799,7 +2819,9 @@
       <c r="I73" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2838,7 +2860,9 @@
       <c r="I74" t="n">
         <v>73.2</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2877,7 +2901,9 @@
       <c r="I75" t="n">
         <v>73.2</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,7 +2942,9 @@
       <c r="I76" t="n">
         <v>73.2</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2955,7 +2983,9 @@
       <c r="I77" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2994,7 +3024,9 @@
       <c r="I78" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3033,7 +3065,9 @@
       <c r="I79" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3072,7 +3106,9 @@
       <c r="I80" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3111,7 +3147,9 @@
       <c r="I81" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3150,7 +3188,9 @@
       <c r="I82" t="n">
         <v>73.5</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3189,7 +3229,9 @@
       <c r="I83" t="n">
         <v>73.5</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3223,10 +3265,14 @@
         <v>118800.3403999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="J84" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3260,10 +3306,14 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="J85" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3297,10 +3347,14 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3337,7 +3391,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3374,7 +3430,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3408,10 +3466,14 @@
         <v>125328.4314999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3445,10 +3507,14 @@
         <v>134895.1562999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="J90" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3482,10 +3548,14 @@
         <v>134428.3869</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>74</v>
+      </c>
+      <c r="J91" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,10 +3589,14 @@
         <v>134428.3869</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J92" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,10 +3630,14 @@
         <v>134428.3869</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J93" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3593,10 +3671,14 @@
         <v>146854.3869</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="J94" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,10 +3712,14 @@
         <v>151207.3513</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,10 +3753,14 @@
         <v>154474.3513</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J96" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3704,10 +3794,14 @@
         <v>154474.3513</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>74</v>
+      </c>
+      <c r="J97" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,10 +3835,14 @@
         <v>154474.3513</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>74</v>
+      </c>
+      <c r="J98" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,10 +3876,14 @@
         <v>155505.6665</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>74</v>
+      </c>
+      <c r="J99" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,10 +3917,14 @@
         <v>155505.6665</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J100" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3852,10 +3958,14 @@
         <v>155505.6665</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J101" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3889,10 +3999,14 @@
         <v>155505.6665</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J102" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,10 +4040,14 @@
         <v>155505.6665</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J103" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3963,10 +4081,14 @@
         <v>157841.6665</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J104" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4000,10 +4122,14 @@
         <v>157841.6665</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4037,10 +4163,14 @@
         <v>157841.6665</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4074,10 +4204,14 @@
         <v>167841.6665</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,10 +4245,14 @@
         <v>156811.6665</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4148,10 +4286,14 @@
         <v>156811.6665</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J109" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,10 +4327,14 @@
         <v>157751.6665</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J110" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4222,10 +4368,14 @@
         <v>157751.6665</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J111" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4259,10 +4409,14 @@
         <v>157751.6665</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4296,10 +4450,14 @@
         <v>152751.6665</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J113" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,10 +4491,14 @@
         <v>156751.6665</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="J114" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4370,10 +4532,14 @@
         <v>175749.6131</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="J115" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,10 +4573,14 @@
         <v>175749.6131</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J116" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,10 +4614,14 @@
         <v>175749.6131</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J117" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4481,10 +4655,14 @@
         <v>175749.6131</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J118" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4518,10 +4696,14 @@
         <v>180754.6131</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="J119" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4555,16 +4737,22 @@
         <v>187008.3814</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>75</v>
+      </c>
+      <c r="J120" t="n">
+        <v>73.40000000000001</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
       <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -4590,11 +4778,19 @@
         <v>188008.3814</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="J121" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4623,11 +4819,17 @@
         <v>205353.0505</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4656,11 +4858,17 @@
         <v>268884.3409</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4689,11 +4897,17 @@
         <v>262852.5391999999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4722,11 +4936,17 @@
         <v>261602.5391999999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4755,11 +4975,17 @@
         <v>287256.4239999999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4791,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4824,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4854,11 +5092,17 @@
         <v>289407.4239999999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4887,11 +5131,17 @@
         <v>309397.4239999999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4920,11 +5170,17 @@
         <v>309397.4239999999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4953,11 +5209,17 @@
         <v>279397.4239999999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4989,8 +5251,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5022,8 +5290,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5055,8 +5329,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5088,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5121,8 +5407,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5154,8 +5446,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5187,8 +5485,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5220,8 +5524,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5253,8 +5563,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5286,8 +5602,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5319,8 +5641,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5352,8 +5680,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5385,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5418,8 +5758,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5451,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5484,8 +5836,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5517,8 +5875,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5550,8 +5914,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5580,11 +5950,17 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5616,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5649,8 +6031,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5682,8 +6070,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5715,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5745,11 +6145,17 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5778,11 +6184,17 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5811,11 +6223,17 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5844,11 +6262,17 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5877,11 +6301,17 @@
         <v>12247830.55727678</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5913,8 +6343,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5946,8 +6382,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5979,8 +6421,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6012,8 +6460,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6045,8 +6499,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6078,8 +6538,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6111,8 +6577,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6144,8 +6616,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6177,8 +6655,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6210,8 +6694,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6243,8 +6733,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6276,8 +6772,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6309,8 +6811,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6342,8 +6850,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6375,8 +6889,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6408,8 +6928,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6441,8 +6967,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6474,8 +7006,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6507,8 +7045,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6540,8 +7084,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6573,8 +7123,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6606,8 +7162,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6639,8 +7201,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6672,8 +7240,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6702,13 +7276,19 @@
         <v>18661383.57207678</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>1.027697547683924</v>
       </c>
       <c r="M185" t="inlineStr"/>
     </row>
@@ -6735,7 +7315,7 @@
         <v>18661383.57207678</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6768,7 +7348,7 @@
         <v>18631238.68127678</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7032,7 +7612,7 @@
         <v>18615873.00787678</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7164,7 +7744,7 @@
         <v>18598916.30257678</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7263,7 +7843,7 @@
         <v>18467295.94497678</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7296,7 +7876,7 @@
         <v>18477925.94497678</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -9606,7 +10186,7 @@
         <v>18872187.05907679</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9738,7 +10318,7 @@
         <v>18835942.80577679</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9804,7 +10384,7 @@
         <v>18836962.80577679</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9837,7 +10417,7 @@
         <v>18840552.80577679</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9870,7 +10450,7 @@
         <v>18840552.80577679</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9903,7 +10483,7 @@
         <v>18822131.61417679</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9936,7 +10516,7 @@
         <v>18822686.63697679</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10002,7 +10582,7 @@
         <v>18806458.34337679</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10068,7 +10648,7 @@
         <v>18817181.26417679</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10101,7 +10681,7 @@
         <v>18822181.26417679</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10134,7 +10714,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10167,7 +10747,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10200,7 +10780,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10233,7 +10813,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10266,7 +10846,7 @@
         <v>18825065.26417679</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10299,7 +10879,7 @@
         <v>18834955.26417679</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10332,7 +10912,7 @@
         <v>18853525.26417679</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10365,7 +10945,7 @@
         <v>18850670.68277679</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10398,7 +10978,7 @@
         <v>18850670.68277679</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest ENJ.xlsx
+++ b/BackTest/2019-10-29 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M335"/>
+  <dimension ref="A1:L335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>-36007.706</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>18000</v>
       </c>
       <c r="G3" t="n">
-        <v>-54007.706</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>-53997.706</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>249.3606</v>
       </c>
       <c r="G5" t="n">
-        <v>-54247.0666</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>441.6103</v>
       </c>
       <c r="G6" t="n">
-        <v>-54247.0666</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1273.7798</v>
       </c>
       <c r="G7" t="n">
-        <v>-54247.0666</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>46338.721</v>
       </c>
       <c r="G8" t="n">
-        <v>-7908.345600000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>33629.1707</v>
       </c>
       <c r="G9" t="n">
-        <v>25720.8251</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10698.7696</v>
       </c>
       <c r="G10" t="n">
-        <v>25720.8251</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>17257</v>
       </c>
       <c r="G11" t="n">
-        <v>25720.8251</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4618.6818</v>
       </c>
       <c r="G12" t="n">
-        <v>30339.5069</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>18912.8914</v>
       </c>
       <c r="G13" t="n">
-        <v>11426.6155</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1361.0748</v>
       </c>
       <c r="G14" t="n">
-        <v>11426.6155</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>11436.6155</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>29000</v>
       </c>
       <c r="G16" t="n">
-        <v>-17563.3845</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>5200</v>
       </c>
       <c r="G17" t="n">
-        <v>-12363.3845</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>37890</v>
       </c>
       <c r="G18" t="n">
-        <v>-50253.3845</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2557.5956</v>
       </c>
       <c r="G19" t="n">
-        <v>-47695.7889</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>767.6756</v>
       </c>
       <c r="G20" t="n">
-        <v>-47695.7889</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>143308.995</v>
       </c>
       <c r="G21" t="n">
-        <v>95613.2061</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1086.382</v>
       </c>
       <c r="G22" t="n">
-        <v>95613.2061</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>991.6328</v>
       </c>
       <c r="G23" t="n">
-        <v>94621.57329999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1818.4744</v>
       </c>
       <c r="G24" t="n">
-        <v>94621.57329999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>18096.9105</v>
       </c>
       <c r="G25" t="n">
-        <v>112718.4838</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1990</v>
       </c>
       <c r="G26" t="n">
-        <v>114708.4838</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>12767.1398</v>
       </c>
       <c r="G27" t="n">
-        <v>114708.4838</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>114708.4838</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>90</v>
       </c>
       <c r="G29" t="n">
-        <v>114708.4838</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>114708.4838</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>400</v>
       </c>
       <c r="G31" t="n">
-        <v>114308.4838</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>7274</v>
       </c>
       <c r="G32" t="n">
-        <v>121582.4838</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>837.1328</v>
       </c>
       <c r="G33" t="n">
-        <v>121582.4838</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>455.3989</v>
       </c>
       <c r="G34" t="n">
-        <v>121127.0849</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2333.2269</v>
       </c>
       <c r="G35" t="n">
-        <v>123460.3118</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>3250</v>
       </c>
       <c r="G36" t="n">
-        <v>123460.3118</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>3317.2331</v>
       </c>
       <c r="G37" t="n">
-        <v>123460.3118</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5000</v>
       </c>
       <c r="G38" t="n">
-        <v>118460.3118</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>4080.3</v>
       </c>
       <c r="G39" t="n">
-        <v>122540.6118</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>7000</v>
       </c>
       <c r="G40" t="n">
-        <v>115540.6118</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>115550.6118</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>5270</v>
       </c>
       <c r="G42" t="n">
-        <v>115550.6118</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>4983</v>
       </c>
       <c r="G43" t="n">
-        <v>110567.6118</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>5197</v>
       </c>
       <c r="G44" t="n">
-        <v>110567.6118</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>33999.9807</v>
       </c>
       <c r="G45" t="n">
-        <v>144567.5925</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>144577.5925</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>16000</v>
       </c>
       <c r="G47" t="n">
-        <v>128577.5925</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>6876.7706</v>
       </c>
       <c r="G48" t="n">
-        <v>135454.3631</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>12250</v>
       </c>
       <c r="G49" t="n">
-        <v>147704.3631</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>19774</v>
       </c>
       <c r="G50" t="n">
-        <v>127930.3631</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>127940.3631</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>10284</v>
       </c>
       <c r="G52" t="n">
-        <v>117656.3631</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>20000</v>
       </c>
       <c r="G53" t="n">
-        <v>137656.3631</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1123.5951</v>
       </c>
       <c r="G54" t="n">
-        <v>136532.768</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>301.6342</v>
       </c>
       <c r="G55" t="n">
-        <v>136532.768</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1239.7</v>
       </c>
       <c r="G56" t="n">
-        <v>135293.0679999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>5489.9869</v>
       </c>
       <c r="G57" t="n">
-        <v>135293.0679999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>32134.4764</v>
       </c>
       <c r="G58" t="n">
-        <v>135293.0679999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>71.6835</v>
       </c>
       <c r="G59" t="n">
-        <v>135293.0679999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>23228.8471</v>
       </c>
       <c r="G60" t="n">
-        <v>158521.9150999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>30</v>
       </c>
       <c r="G61" t="n">
-        <v>158491.9150999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>5000</v>
       </c>
       <c r="G62" t="n">
-        <v>153491.9150999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>43098.5328</v>
       </c>
       <c r="G63" t="n">
-        <v>110393.3822999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3932.3642</v>
       </c>
       <c r="G64" t="n">
-        <v>110393.3822999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>3150</v>
       </c>
       <c r="G65" t="n">
-        <v>107243.3822999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>12000</v>
       </c>
       <c r="G66" t="n">
-        <v>95243.38229999992</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>511</v>
       </c>
       <c r="G67" t="n">
-        <v>95754.38229999992</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>2056</v>
       </c>
       <c r="G68" t="n">
-        <v>95754.38229999992</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>480.9999</v>
       </c>
       <c r="G69" t="n">
-        <v>95754.38229999992</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,22 +2483,15 @@
         <v>646.4353</v>
       </c>
       <c r="G70" t="n">
-        <v>95754.38229999992</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J70" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2729,313 +2513,243 @@
         <v>1942</v>
       </c>
       <c r="G71" t="n">
-        <v>95754.38229999992</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J71" t="n">
+      <c r="C72" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="D72" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="E72" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1017</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="C73" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="E73" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9999.999900000001</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="C76" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="E76" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="F76" t="n">
+        <v>31525.5787</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="C77" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="E77" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C78" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D78" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E78" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="F72" t="n">
-        <v>1017</v>
-      </c>
-      <c r="G72" t="n">
-        <v>95754.38229999992</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
+      <c r="F78" t="n">
+        <v>1096</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J72" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K72" t="inlineStr">
+      <c r="I78" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="C73" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="E73" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="F73" t="n">
-        <v>9999.999900000001</v>
-      </c>
-      <c r="G73" t="n">
-        <v>85754.38239999993</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J73" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="C74" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="E74" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G74" t="n">
-        <v>85754.38239999993</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="C75" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="D75" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="E75" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="F75" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G75" t="n">
-        <v>85754.38239999993</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="C76" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="D76" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="E76" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="F76" t="n">
-        <v>31525.5787</v>
-      </c>
-      <c r="G76" t="n">
-        <v>117279.9610999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>73.2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="C77" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="D77" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="E77" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="F77" t="n">
-        <v>10400</v>
-      </c>
-      <c r="G77" t="n">
-        <v>117279.9610999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J77" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="C78" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="D78" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="E78" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="F78" t="n">
-        <v>1096</v>
-      </c>
-      <c r="G78" t="n">
-        <v>117279.9610999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J78" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3057,26 +2771,19 @@
         <v>767</v>
       </c>
       <c r="G79" t="n">
-        <v>117279.9610999999</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I79" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J79" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3098,26 +2805,23 @@
         <v>1107.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>117279.9610999999</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I80" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J80" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3139,26 +2843,23 @@
         <v>557.6786</v>
       </c>
       <c r="G81" t="n">
-        <v>117837.6396999999</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I81" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="J81" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3180,26 +2881,19 @@
         <v>1553.954</v>
       </c>
       <c r="G82" t="n">
-        <v>117837.6396999999</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>73.5</v>
       </c>
       <c r="I82" t="n">
         <v>73.5</v>
       </c>
-      <c r="J82" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3221,26 +2915,23 @@
         <v>962.7007</v>
       </c>
       <c r="G83" t="n">
-        <v>118800.3403999999</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>73.5</v>
       </c>
       <c r="I83" t="n">
         <v>73.5</v>
       </c>
-      <c r="J83" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3262,26 +2953,23 @@
         <v>5000</v>
       </c>
       <c r="G84" t="n">
-        <v>118800.3403999999</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I84" t="n">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="J84" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K84" t="inlineStr">
+        <v>73.5</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3303,26 +2991,15 @@
         <v>6528.0911</v>
       </c>
       <c r="G85" t="n">
-        <v>125328.4314999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="J85" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3344,26 +3021,15 @@
         <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>125328.4314999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3385,24 +3051,15 @@
         <v>6886.0174</v>
       </c>
       <c r="G87" t="n">
-        <v>125328.4314999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3424,24 +3081,15 @@
         <v>7970</v>
       </c>
       <c r="G88" t="n">
-        <v>125328.4314999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3463,26 +3111,15 @@
         <v>20095.7304</v>
       </c>
       <c r="G89" t="n">
-        <v>125328.4314999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3504,26 +3141,15 @@
         <v>9566.7248</v>
       </c>
       <c r="G90" t="n">
-        <v>134895.1562999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3545,26 +3171,15 @@
         <v>466.7694</v>
       </c>
       <c r="G91" t="n">
-        <v>134428.3869</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>74</v>
-      </c>
-      <c r="J91" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3586,26 +3201,15 @@
         <v>14765.7233</v>
       </c>
       <c r="G92" t="n">
-        <v>134428.3869</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J92" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3627,26 +3231,15 @@
         <v>5797.7717</v>
       </c>
       <c r="G93" t="n">
-        <v>134428.3869</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J93" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3668,26 +3261,15 @@
         <v>12426</v>
       </c>
       <c r="G94" t="n">
-        <v>146854.3869</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="J94" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3709,26 +3291,15 @@
         <v>4352.9644</v>
       </c>
       <c r="G95" t="n">
-        <v>151207.3513</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>73.7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3750,26 +3321,15 @@
         <v>3267</v>
       </c>
       <c r="G96" t="n">
-        <v>154474.3513</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3791,26 +3351,15 @@
         <v>2070</v>
       </c>
       <c r="G97" t="n">
-        <v>154474.3513</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>74</v>
-      </c>
-      <c r="J97" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3832,26 +3381,15 @@
         <v>5666.9999</v>
       </c>
       <c r="G98" t="n">
-        <v>154474.3513</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3873,26 +3411,15 @@
         <v>1031.3152</v>
       </c>
       <c r="G99" t="n">
-        <v>155505.6665</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>74</v>
-      </c>
-      <c r="J99" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3914,26 +3441,15 @@
         <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>155505.6665</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="J100" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3955,26 +3471,15 @@
         <v>60</v>
       </c>
       <c r="G101" t="n">
-        <v>155505.6665</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="J101" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3996,26 +3501,15 @@
         <v>3508</v>
       </c>
       <c r="G102" t="n">
-        <v>155505.6665</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="J102" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4037,26 +3531,15 @@
         <v>1412</v>
       </c>
       <c r="G103" t="n">
-        <v>155505.6665</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="J103" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4078,26 +3561,15 @@
         <v>2336</v>
       </c>
       <c r="G104" t="n">
-        <v>157841.6665</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="J104" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4119,26 +3591,15 @@
         <v>2634</v>
       </c>
       <c r="G105" t="n">
-        <v>157841.6665</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="J105" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4160,26 +3621,15 @@
         <v>10000</v>
       </c>
       <c r="G106" t="n">
-        <v>157841.6665</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="J106" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4201,26 +3651,15 @@
         <v>10000</v>
       </c>
       <c r="G107" t="n">
-        <v>167841.6665</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4242,26 +3681,15 @@
         <v>11030</v>
       </c>
       <c r="G108" t="n">
-        <v>156811.6665</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4283,26 +3711,15 @@
         <v>687.6248000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>156811.6665</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="J109" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4324,26 +3741,15 @@
         <v>940</v>
       </c>
       <c r="G110" t="n">
-        <v>157751.6665</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="J110" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4365,26 +3771,15 @@
         <v>46874.8187</v>
       </c>
       <c r="G111" t="n">
-        <v>157751.6665</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4406,26 +3801,15 @@
         <v>3000</v>
       </c>
       <c r="G112" t="n">
-        <v>157751.6665</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4447,26 +3831,15 @@
         <v>5000</v>
       </c>
       <c r="G113" t="n">
-        <v>152751.6665</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,26 +3861,15 @@
         <v>4000</v>
       </c>
       <c r="G114" t="n">
-        <v>156751.6665</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="J114" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4529,26 +3891,15 @@
         <v>18997.9466</v>
       </c>
       <c r="G115" t="n">
-        <v>175749.6131</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J115" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4570,26 +3921,15 @@
         <v>10000</v>
       </c>
       <c r="G116" t="n">
-        <v>175749.6131</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J116" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4611,26 +3951,15 @@
         <v>5000</v>
       </c>
       <c r="G117" t="n">
-        <v>175749.6131</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J117" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4652,26 +3981,15 @@
         <v>12921.1813</v>
       </c>
       <c r="G118" t="n">
-        <v>175749.6131</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J118" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4693,26 +4011,15 @@
         <v>5005</v>
       </c>
       <c r="G119" t="n">
-        <v>180754.6131</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J119" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4734,26 +4041,15 @@
         <v>6253.7683</v>
       </c>
       <c r="G120" t="n">
-        <v>187008.3814</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>75</v>
-      </c>
-      <c r="J120" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4775,26 +4071,15 @@
         <v>1000</v>
       </c>
       <c r="G121" t="n">
-        <v>188008.3814</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J121" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4816,24 +4101,15 @@
         <v>17344.6691</v>
       </c>
       <c r="G122" t="n">
-        <v>205353.0505</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4855,24 +4131,15 @@
         <v>63531.2904</v>
       </c>
       <c r="G123" t="n">
-        <v>268884.3409</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4894,24 +4161,15 @@
         <v>6031.8017</v>
       </c>
       <c r="G124" t="n">
-        <v>262852.5391999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4933,24 +4191,15 @@
         <v>1250</v>
       </c>
       <c r="G125" t="n">
-        <v>261602.5391999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4972,24 +4221,15 @@
         <v>25653.8848</v>
       </c>
       <c r="G126" t="n">
-        <v>287256.4239999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5011,24 +4251,15 @@
         <v>4829</v>
       </c>
       <c r="G127" t="n">
-        <v>282427.4239999999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5050,24 +4281,15 @@
         <v>10000</v>
       </c>
       <c r="G128" t="n">
-        <v>282427.4239999999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5089,24 +4311,15 @@
         <v>6980</v>
       </c>
       <c r="G129" t="n">
-        <v>289407.4239999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5128,24 +4341,15 @@
         <v>19990</v>
       </c>
       <c r="G130" t="n">
-        <v>309397.4239999999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5167,24 +4371,15 @@
         <v>19157.6679</v>
       </c>
       <c r="G131" t="n">
-        <v>309397.4239999999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5206,24 +4401,15 @@
         <v>30000</v>
       </c>
       <c r="G132" t="n">
-        <v>279397.4239999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5245,24 +4431,15 @@
         <v>3189.327176781002</v>
       </c>
       <c r="G133" t="n">
-        <v>282586.751176781</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5284,24 +4461,15 @@
         <v>3640000</v>
       </c>
       <c r="G134" t="n">
-        <v>-3357413.248823219</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5323,24 +4491,15 @@
         <v>3220000</v>
       </c>
       <c r="G135" t="n">
-        <v>-3357413.248823219</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5362,24 +4521,15 @@
         <v>1904119</v>
       </c>
       <c r="G136" t="n">
-        <v>-3357413.248823219</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5401,24 +4551,15 @@
         <v>2399.7012</v>
       </c>
       <c r="G137" t="n">
-        <v>-3359812.950023219</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5440,24 +4581,15 @@
         <v>941.9999</v>
       </c>
       <c r="G138" t="n">
-        <v>-3359812.950023219</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5479,24 +4611,15 @@
         <v>3186501.2039</v>
       </c>
       <c r="G139" t="n">
-        <v>-173311.7461232189</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5518,24 +4641,15 @@
         <v>7392000</v>
       </c>
       <c r="G140" t="n">
-        <v>-173311.7461232189</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5557,24 +4671,15 @@
         <v>9663652.2039</v>
       </c>
       <c r="G141" t="n">
-        <v>-173311.7461232189</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5596,24 +4701,15 @@
         <v>9614347.7961</v>
       </c>
       <c r="G142" t="n">
-        <v>-173311.7461232189</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5635,24 +4731,15 @@
         <v>4242000</v>
       </c>
       <c r="G143" t="n">
-        <v>-173311.7461232189</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5674,24 +4761,15 @@
         <v>2081000</v>
       </c>
       <c r="G144" t="n">
-        <v>-173311.7461232189</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5713,24 +4791,15 @@
         <v>10480000</v>
       </c>
       <c r="G145" t="n">
-        <v>-10653311.74612322</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5752,24 +4821,15 @@
         <v>20400000</v>
       </c>
       <c r="G146" t="n">
-        <v>-10653311.74612322</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5791,24 +4851,15 @@
         <v>20000000</v>
       </c>
       <c r="G147" t="n">
-        <v>-10653311.74612322</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5830,24 +4881,15 @@
         <v>19840000</v>
       </c>
       <c r="G148" t="n">
-        <v>-10653311.74612322</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5869,24 +4911,15 @@
         <v>12401000</v>
       </c>
       <c r="G149" t="n">
-        <v>1747688.253876781</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5908,24 +4941,15 @@
         <v>3010000</v>
       </c>
       <c r="G150" t="n">
-        <v>-1262311.746123219</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5947,24 +4971,15 @@
         <v>13510142.3034</v>
       </c>
       <c r="G151" t="n">
-        <v>12247830.55727678</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5986,24 +5001,15 @@
         <v>4620000</v>
       </c>
       <c r="G152" t="n">
-        <v>12247830.55727678</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6025,24 +5031,15 @@
         <v>16170141.8426</v>
       </c>
       <c r="G153" t="n">
-        <v>12247830.55727678</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6064,24 +5061,15 @@
         <v>17500000</v>
       </c>
       <c r="G154" t="n">
-        <v>12247830.55727678</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6103,24 +5091,15 @@
         <v>17156605.0198</v>
       </c>
       <c r="G155" t="n">
-        <v>12247830.55727678</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6142,24 +5121,15 @@
         <v>17567145.2043</v>
       </c>
       <c r="G156" t="n">
-        <v>12247830.55727678</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6181,24 +5151,15 @@
         <v>16872854.7957</v>
       </c>
       <c r="G157" t="n">
-        <v>12247830.55727678</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6220,24 +5181,15 @@
         <v>16694507.1284</v>
       </c>
       <c r="G158" t="n">
-        <v>12247830.55727678</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6259,24 +5211,15 @@
         <v>16104860.8878</v>
       </c>
       <c r="G159" t="n">
-        <v>12247830.55727678</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6298,24 +5241,15 @@
         <v>12128372.3973</v>
       </c>
       <c r="G160" t="n">
-        <v>12247830.55727678</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6337,24 +5271,15 @@
         <v>1184000</v>
       </c>
       <c r="G161" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6376,24 +5301,15 @@
         <v>6365697.248</v>
       </c>
       <c r="G162" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6415,24 +5331,15 @@
         <v>8208000</v>
       </c>
       <c r="G163" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6454,24 +5361,15 @@
         <v>13014000</v>
       </c>
       <c r="G164" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6493,24 +5391,15 @@
         <v>13014000</v>
       </c>
       <c r="G165" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6532,24 +5421,15 @@
         <v>9289298.806299999</v>
       </c>
       <c r="G166" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6571,24 +5451,15 @@
         <v>10800565.40935</v>
       </c>
       <c r="G167" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6610,24 +5481,15 @@
         <v>3515899.1813</v>
       </c>
       <c r="G168" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6649,24 +5511,15 @@
         <v>17430000</v>
       </c>
       <c r="G169" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6688,24 +5541,15 @@
         <v>16870427</v>
       </c>
       <c r="G170" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6727,24 +5571,15 @@
         <v>17150000</v>
       </c>
       <c r="G171" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6766,24 +5601,15 @@
         <v>6539573</v>
       </c>
       <c r="G172" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6805,24 +5631,15 @@
         <v>14460000</v>
       </c>
       <c r="G173" t="n">
-        <v>11063830.55727678</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6844,24 +5661,15 @@
         <v>7394551.0202</v>
       </c>
       <c r="G174" t="n">
-        <v>18458381.57747678</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6883,24 +5691,15 @@
         <v>16281851.0365</v>
       </c>
       <c r="G175" t="n">
-        <v>18458381.57747678</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6922,24 +5721,15 @@
         <v>2777839.3017</v>
       </c>
       <c r="G176" t="n">
-        <v>18458381.57747678</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6961,24 +5751,15 @@
         <v>441.4769</v>
       </c>
       <c r="G177" t="n">
-        <v>18457940.10057678</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7000,24 +5781,15 @@
         <v>21615.6174</v>
       </c>
       <c r="G178" t="n">
-        <v>18479555.71797678</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7039,24 +5811,15 @@
         <v>33.0728</v>
       </c>
       <c r="G179" t="n">
-        <v>18479522.64517678</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7078,24 +5841,15 @@
         <v>11640</v>
       </c>
       <c r="G180" t="n">
-        <v>18491162.64517678</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7117,24 +5871,15 @@
         <v>102231.3978</v>
       </c>
       <c r="G181" t="n">
-        <v>18593394.04297678</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7156,24 +5901,15 @@
         <v>13433.051</v>
       </c>
       <c r="G182" t="n">
-        <v>18606827.09397678</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7195,24 +5931,15 @@
         <v>1201.4369</v>
       </c>
       <c r="G183" t="n">
-        <v>18606827.09397678</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7234,24 +5961,15 @@
         <v>100</v>
       </c>
       <c r="G184" t="n">
-        <v>18606827.09397678</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7273,24 +5991,15 @@
         <v>54556.4781</v>
       </c>
       <c r="G185" t="n">
-        <v>18661383.57207678</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1.027697547683924</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7312,18 +6021,15 @@
         <v>9285.613300000001</v>
       </c>
       <c r="G186" t="n">
-        <v>18661383.57207678</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7345,18 +6051,15 @@
         <v>30144.8908</v>
       </c>
       <c r="G187" t="n">
-        <v>18631238.68127678</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7378,18 +6081,15 @@
         <v>3000</v>
       </c>
       <c r="G188" t="n">
-        <v>18634238.68127678</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7411,18 +6111,15 @@
         <v>6000</v>
       </c>
       <c r="G189" t="n">
-        <v>18634238.68127678</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7444,18 +6141,15 @@
         <v>13577.5033</v>
       </c>
       <c r="G190" t="n">
-        <v>18634238.68127678</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7477,18 +6171,15 @@
         <v>10369.6734</v>
       </c>
       <c r="G191" t="n">
-        <v>18623869.00787678</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7510,18 +6201,15 @@
         <v>14560.9999</v>
       </c>
       <c r="G192" t="n">
-        <v>18623869.00787678</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7543,18 +6231,15 @@
         <v>4190.7131</v>
       </c>
       <c r="G193" t="n">
-        <v>18623869.00787678</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7576,18 +6261,15 @@
         <v>7996</v>
       </c>
       <c r="G194" t="n">
-        <v>18615873.00787678</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7609,18 +6291,15 @@
         <v>18136.8013</v>
       </c>
       <c r="G195" t="n">
-        <v>18615873.00787678</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7642,18 +6321,15 @@
         <v>24759.8506</v>
       </c>
       <c r="G196" t="n">
-        <v>18591113.15727678</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7675,18 +6351,15 @@
         <v>4851.1987</v>
       </c>
       <c r="G197" t="n">
-        <v>18595964.35597678</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7708,18 +6381,15 @@
         <v>145</v>
       </c>
       <c r="G198" t="n">
-        <v>18595819.35597678</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7741,18 +6411,15 @@
         <v>3096.9466</v>
       </c>
       <c r="G199" t="n">
-        <v>18598916.30257678</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7774,18 +6441,15 @@
         <v>2050</v>
       </c>
       <c r="G200" t="n">
-        <v>18596866.30257678</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7807,18 +6471,15 @@
         <v>1364</v>
       </c>
       <c r="G201" t="n">
-        <v>18596866.30257678</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7840,18 +6501,15 @@
         <v>129570.3576</v>
       </c>
       <c r="G202" t="n">
-        <v>18467295.94497678</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7873,18 +6531,15 @@
         <v>10630</v>
       </c>
       <c r="G203" t="n">
-        <v>18477925.94497678</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7906,18 +6561,15 @@
         <v>13049</v>
       </c>
       <c r="G204" t="n">
-        <v>18464876.94497678</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7939,18 +6591,15 @@
         <v>2232</v>
       </c>
       <c r="G205" t="n">
-        <v>18464876.94497678</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7972,18 +6621,15 @@
         <v>4460</v>
       </c>
       <c r="G206" t="n">
-        <v>18464876.94497678</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8005,18 +6651,15 @@
         <v>8000</v>
       </c>
       <c r="G207" t="n">
-        <v>18472876.94497678</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8038,18 +6681,15 @@
         <v>2320</v>
       </c>
       <c r="G208" t="n">
-        <v>18475196.94497678</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8071,18 +6711,15 @@
         <v>139.0089</v>
       </c>
       <c r="G209" t="n">
-        <v>18475057.93607678</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8104,18 +6741,15 @@
         <v>7967.2929</v>
       </c>
       <c r="G210" t="n">
-        <v>18467090.64317678</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8137,18 +6771,15 @@
         <v>2020</v>
       </c>
       <c r="G211" t="n">
-        <v>18469110.64317678</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8170,18 +6801,15 @@
         <v>466</v>
       </c>
       <c r="G212" t="n">
-        <v>18469576.64317678</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8203,18 +6831,15 @@
         <v>3120</v>
       </c>
       <c r="G213" t="n">
-        <v>18469576.64317678</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8236,18 +6861,15 @@
         <v>7492.8452</v>
       </c>
       <c r="G214" t="n">
-        <v>18469576.64317678</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8269,18 +6891,15 @@
         <v>901</v>
       </c>
       <c r="G215" t="n">
-        <v>18468675.64317678</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8302,18 +6921,15 @@
         <v>2172.4247</v>
       </c>
       <c r="G216" t="n">
-        <v>18468675.64317678</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8335,18 +6951,15 @@
         <v>16716.4217</v>
       </c>
       <c r="G217" t="n">
-        <v>18451959.22147678</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8368,18 +6981,15 @@
         <v>854.9215</v>
       </c>
       <c r="G218" t="n">
-        <v>18452814.14297678</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8401,18 +7011,15 @@
         <v>3452.6</v>
       </c>
       <c r="G219" t="n">
-        <v>18452814.14297678</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8434,18 +7041,15 @@
         <v>5624.0221</v>
       </c>
       <c r="G220" t="n">
-        <v>18452814.14297678</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8467,18 +7071,15 @@
         <v>842</v>
       </c>
       <c r="G221" t="n">
-        <v>18452814.14297678</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8500,18 +7101,15 @@
         <v>921</v>
       </c>
       <c r="G222" t="n">
-        <v>18452814.14297678</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8533,18 +7131,15 @@
         <v>1680</v>
       </c>
       <c r="G223" t="n">
-        <v>18451134.14297678</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8566,18 +7161,15 @@
         <v>10</v>
       </c>
       <c r="G224" t="n">
-        <v>18451144.14297678</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8599,18 +7191,15 @@
         <v>14.6308</v>
       </c>
       <c r="G225" t="n">
-        <v>18451144.14297678</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8632,18 +7221,15 @@
         <v>440</v>
       </c>
       <c r="G226" t="n">
-        <v>18451144.14297678</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8665,18 +7251,15 @@
         <v>40.7187</v>
       </c>
       <c r="G227" t="n">
-        <v>18451144.14297678</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8698,18 +7281,15 @@
         <v>4712</v>
       </c>
       <c r="G228" t="n">
-        <v>18451144.14297678</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8731,18 +7311,15 @@
         <v>3002.8807</v>
       </c>
       <c r="G229" t="n">
-        <v>18451144.14297678</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8764,18 +7341,15 @@
         <v>6733</v>
       </c>
       <c r="G230" t="n">
-        <v>18451144.14297678</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8797,18 +7371,15 @@
         <v>1775.3067</v>
       </c>
       <c r="G231" t="n">
-        <v>18449368.83627678</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8830,18 +7401,15 @@
         <v>5020</v>
       </c>
       <c r="G232" t="n">
-        <v>18454388.83627678</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8863,18 +7431,15 @@
         <v>5662.7516</v>
       </c>
       <c r="G233" t="n">
-        <v>18454388.83627678</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8896,18 +7461,15 @@
         <v>4755.5032</v>
       </c>
       <c r="G234" t="n">
-        <v>18454388.83627678</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8929,18 +7491,15 @@
         <v>172198.1152</v>
       </c>
       <c r="G235" t="n">
-        <v>18454388.83627678</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8962,18 +7521,15 @@
         <v>70385.15949999999</v>
       </c>
       <c r="G236" t="n">
-        <v>18524773.99577678</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8995,18 +7551,15 @@
         <v>10</v>
       </c>
       <c r="G237" t="n">
-        <v>18524783.99577678</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9028,18 +7581,15 @@
         <v>18453.6266</v>
       </c>
       <c r="G238" t="n">
-        <v>18524783.99577678</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9061,18 +7611,15 @@
         <v>1875.0682</v>
       </c>
       <c r="G239" t="n">
-        <v>18522908.92757678</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9094,18 +7641,15 @@
         <v>4717.0563</v>
       </c>
       <c r="G240" t="n">
-        <v>18522908.92757678</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9127,18 +7671,15 @@
         <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>18522918.92757678</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9160,18 +7701,15 @@
         <v>445.3866666666667</v>
       </c>
       <c r="G242" t="n">
-        <v>18522918.92757678</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9193,18 +7731,15 @@
         <v>7900</v>
       </c>
       <c r="G243" t="n">
-        <v>18515018.92757678</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9226,18 +7761,15 @@
         <v>5317.4619</v>
       </c>
       <c r="G244" t="n">
-        <v>18520336.38947678</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9259,18 +7791,15 @@
         <v>18407.4925</v>
       </c>
       <c r="G245" t="n">
-        <v>18501928.89697678</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9292,18 +7821,15 @@
         <v>10</v>
       </c>
       <c r="G246" t="n">
-        <v>18501938.89697678</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9325,18 +7851,15 @@
         <v>805.1904</v>
       </c>
       <c r="G247" t="n">
-        <v>18501133.70657678</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9358,18 +7881,15 @@
         <v>5655.3042</v>
       </c>
       <c r="G248" t="n">
-        <v>18501133.70657678</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9391,18 +7911,15 @@
         <v>378.5101</v>
       </c>
       <c r="G249" t="n">
-        <v>18501133.70657678</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9424,18 +7941,15 @@
         <v>6045.8833</v>
       </c>
       <c r="G250" t="n">
-        <v>18495087.82327678</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9457,18 +7971,15 @@
         <v>8000</v>
       </c>
       <c r="G251" t="n">
-        <v>18503087.82327678</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9490,18 +8001,15 @@
         <v>23647.88</v>
       </c>
       <c r="G252" t="n">
-        <v>18526735.70327678</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9523,18 +8031,15 @@
         <v>5760</v>
       </c>
       <c r="G253" t="n">
-        <v>18526735.70327678</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9556,18 +8061,15 @@
         <v>109.7197</v>
       </c>
       <c r="G254" t="n">
-        <v>18526735.70327678</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9589,18 +8091,15 @@
         <v>74873.5435</v>
       </c>
       <c r="G255" t="n">
-        <v>18601609.24677678</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9622,18 +8121,15 @@
         <v>105828.5482</v>
       </c>
       <c r="G256" t="n">
-        <v>18707437.79497678</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9655,18 +8151,15 @@
         <v>158647.5174</v>
       </c>
       <c r="G257" t="n">
-        <v>18866085.31237678</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9688,18 +8181,15 @@
         <v>9600.2875</v>
       </c>
       <c r="G258" t="n">
-        <v>18875685.59987678</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9721,18 +8211,15 @@
         <v>5502.9999</v>
       </c>
       <c r="G259" t="n">
-        <v>18870182.59997679</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9754,18 +8241,15 @@
         <v>2875.8334</v>
       </c>
       <c r="G260" t="n">
-        <v>18870182.59997679</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9787,18 +8271,15 @@
         <v>13328</v>
       </c>
       <c r="G261" t="n">
-        <v>18870182.59997679</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9820,18 +8301,15 @@
         <v>16285</v>
       </c>
       <c r="G262" t="n">
-        <v>18853897.59997679</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9853,18 +8331,15 @@
         <v>2000</v>
       </c>
       <c r="G263" t="n">
-        <v>18855897.59997679</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9886,18 +8361,15 @@
         <v>3000</v>
       </c>
       <c r="G264" t="n">
-        <v>18852897.59997679</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9919,18 +8391,15 @@
         <v>1580.2394</v>
       </c>
       <c r="G265" t="n">
-        <v>18852897.59997679</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9952,18 +8421,15 @@
         <v>4000</v>
       </c>
       <c r="G266" t="n">
-        <v>18848897.59997679</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9985,18 +8451,15 @@
         <v>2000</v>
       </c>
       <c r="G267" t="n">
-        <v>18846897.59997679</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10018,18 +8481,15 @@
         <v>3996</v>
       </c>
       <c r="G268" t="n">
-        <v>18850893.59997679</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10051,18 +8511,15 @@
         <v>402.1554</v>
       </c>
       <c r="G269" t="n">
-        <v>18851295.75537679</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10084,18 +8541,15 @@
         <v>1601.8446</v>
       </c>
       <c r="G270" t="n">
-        <v>18851295.75537679</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10117,18 +8571,15 @@
         <v>2000</v>
       </c>
       <c r="G271" t="n">
-        <v>18853295.75537679</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10150,18 +8601,15 @@
         <v>19891.3037</v>
       </c>
       <c r="G272" t="n">
-        <v>18873187.05907679</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10183,18 +8631,15 @@
         <v>1000</v>
       </c>
       <c r="G273" t="n">
-        <v>18872187.05907679</v>
-      </c>
-      <c r="H273" t="n">
         <v>2</v>
       </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10216,18 +8661,15 @@
         <v>2740</v>
       </c>
       <c r="G274" t="n">
-        <v>18869447.05907679</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10249,18 +8691,15 @@
         <v>1493.4528</v>
       </c>
       <c r="G275" t="n">
-        <v>18867953.60627679</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10282,18 +8721,15 @@
         <v>1306.5472</v>
       </c>
       <c r="G276" t="n">
-        <v>18867953.60627679</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10315,18 +8751,15 @@
         <v>32010.8005</v>
       </c>
       <c r="G277" t="n">
-        <v>18835942.80577679</v>
-      </c>
-      <c r="H277" t="n">
         <v>2</v>
       </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10348,18 +8781,15 @@
         <v>1000</v>
       </c>
       <c r="G278" t="n">
-        <v>18834942.80577679</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10381,18 +8811,15 @@
         <v>2020</v>
       </c>
       <c r="G279" t="n">
-        <v>18836962.80577679</v>
-      </c>
-      <c r="H279" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10414,18 +8841,15 @@
         <v>3590</v>
       </c>
       <c r="G280" t="n">
-        <v>18840552.80577679</v>
-      </c>
-      <c r="H280" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10447,18 +8871,15 @@
         <v>430</v>
       </c>
       <c r="G281" t="n">
-        <v>18840552.80577679</v>
-      </c>
-      <c r="H281" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10480,18 +8901,15 @@
         <v>18421.1916</v>
       </c>
       <c r="G282" t="n">
-        <v>18822131.61417679</v>
-      </c>
-      <c r="H282" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10513,18 +8931,15 @@
         <v>555.0228</v>
       </c>
       <c r="G283" t="n">
-        <v>18822686.63697679</v>
-      </c>
-      <c r="H283" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10546,18 +8961,15 @@
         <v>16088.6149</v>
       </c>
       <c r="G284" t="n">
-        <v>18806598.02207679</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10579,18 +8991,15 @@
         <v>139.6787</v>
       </c>
       <c r="G285" t="n">
-        <v>18806458.34337679</v>
-      </c>
-      <c r="H285" t="n">
         <v>2</v>
       </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10612,18 +9021,15 @@
         <v>11722.9208</v>
       </c>
       <c r="G286" t="n">
-        <v>18818181.26417679</v>
-      </c>
-      <c r="H286" t="n">
         <v>2</v>
       </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10645,18 +9051,15 @@
         <v>1000</v>
       </c>
       <c r="G287" t="n">
-        <v>18817181.26417679</v>
-      </c>
-      <c r="H287" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10678,18 +9081,15 @@
         <v>5000</v>
       </c>
       <c r="G288" t="n">
-        <v>18822181.26417679</v>
-      </c>
-      <c r="H288" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10711,18 +9111,15 @@
         <v>2884</v>
       </c>
       <c r="G289" t="n">
-        <v>18825065.26417679</v>
-      </c>
-      <c r="H289" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10744,18 +9141,15 @@
         <v>3843</v>
       </c>
       <c r="G290" t="n">
-        <v>18825065.26417679</v>
-      </c>
-      <c r="H290" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10777,18 +9171,15 @@
         <v>5769.2174</v>
       </c>
       <c r="G291" t="n">
-        <v>18825065.26417679</v>
-      </c>
-      <c r="H291" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10810,18 +9201,15 @@
         <v>11827</v>
       </c>
       <c r="G292" t="n">
-        <v>18825065.26417679</v>
-      </c>
-      <c r="H292" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10843,18 +9231,15 @@
         <v>16831</v>
       </c>
       <c r="G293" t="n">
-        <v>18825065.26417679</v>
-      </c>
-      <c r="H293" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10876,18 +9261,15 @@
         <v>9890</v>
       </c>
       <c r="G294" t="n">
-        <v>18834955.26417679</v>
-      </c>
-      <c r="H294" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10909,18 +9291,15 @@
         <v>18570</v>
       </c>
       <c r="G295" t="n">
-        <v>18853525.26417679</v>
-      </c>
-      <c r="H295" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10942,18 +9321,15 @@
         <v>2854.5814</v>
       </c>
       <c r="G296" t="n">
-        <v>18850670.68277679</v>
-      </c>
-      <c r="H296" t="n">
         <v>2</v>
       </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10975,18 +9351,15 @@
         <v>6940</v>
       </c>
       <c r="G297" t="n">
-        <v>18850670.68277679</v>
-      </c>
-      <c r="H297" t="n">
         <v>2</v>
       </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11008,18 +9381,15 @@
         <v>9734.370000000001</v>
       </c>
       <c r="G298" t="n">
-        <v>18840936.31277679</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11041,18 +9411,15 @@
         <v>15690</v>
       </c>
       <c r="G299" t="n">
-        <v>18840936.31277679</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11074,18 +9441,15 @@
         <v>1825.9999</v>
       </c>
       <c r="G300" t="n">
-        <v>18840936.31277679</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11107,18 +9471,15 @@
         <v>5317.894</v>
       </c>
       <c r="G301" t="n">
-        <v>18840936.31277679</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11140,18 +9501,15 @@
         <v>7128</v>
       </c>
       <c r="G302" t="n">
-        <v>18840936.31277679</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11173,18 +9531,15 @@
         <v>16742.9999</v>
       </c>
       <c r="G303" t="n">
-        <v>18824193.31287679</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11206,18 +9561,15 @@
         <v>3570</v>
       </c>
       <c r="G304" t="n">
-        <v>18824193.31287679</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11239,18 +9591,15 @@
         <v>1257</v>
       </c>
       <c r="G305" t="n">
-        <v>18824193.31287679</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11272,18 +9621,15 @@
         <v>4365.9999</v>
       </c>
       <c r="G306" t="n">
-        <v>18824193.31287679</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11305,18 +9651,15 @@
         <v>4303.9999</v>
       </c>
       <c r="G307" t="n">
-        <v>18824193.31287679</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11338,18 +9681,15 @@
         <v>2839.5175</v>
       </c>
       <c r="G308" t="n">
-        <v>18827032.83037679</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11371,18 +9711,15 @@
         <v>6094.3221</v>
       </c>
       <c r="G309" t="n">
-        <v>18827032.83037679</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11404,18 +9741,15 @@
         <v>563.4983999999999</v>
       </c>
       <c r="G310" t="n">
-        <v>18827032.83037679</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11437,18 +9771,15 @@
         <v>10422.9807</v>
       </c>
       <c r="G311" t="n">
-        <v>18827032.83037679</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11470,18 +9801,15 @@
         <v>14691.2387</v>
       </c>
       <c r="G312" t="n">
-        <v>18812341.59167679</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11503,18 +9831,15 @@
         <v>3761.8324</v>
       </c>
       <c r="G313" t="n">
-        <v>18812341.59167679</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11536,18 +9861,15 @@
         <v>1053.3144</v>
       </c>
       <c r="G314" t="n">
-        <v>18812341.59167679</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11569,18 +9891,15 @@
         <v>24477.5603</v>
       </c>
       <c r="G315" t="n">
-        <v>18812341.59167679</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11602,18 +9921,15 @@
         <v>13234.6962</v>
       </c>
       <c r="G316" t="n">
-        <v>18825576.28787678</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11635,18 +9951,15 @@
         <v>13483.3976</v>
       </c>
       <c r="G317" t="n">
-        <v>18825576.28787678</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11668,18 +9981,15 @@
         <v>2430</v>
       </c>
       <c r="G318" t="n">
-        <v>18823146.28787678</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11701,18 +10011,15 @@
         <v>25337.4722</v>
       </c>
       <c r="G319" t="n">
-        <v>18823146.28787678</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11734,18 +10041,15 @@
         <v>3060</v>
       </c>
       <c r="G320" t="n">
-        <v>18823146.28787678</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11767,18 +10071,15 @@
         <v>709.5364</v>
       </c>
       <c r="G321" t="n">
-        <v>18823855.82427679</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11800,18 +10101,15 @@
         <v>210.0929</v>
       </c>
       <c r="G322" t="n">
-        <v>18823645.73137679</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11833,18 +10131,15 @@
         <v>7160.5524</v>
       </c>
       <c r="G323" t="n">
-        <v>18816485.17897679</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11866,18 +10161,15 @@
         <v>422.1167</v>
       </c>
       <c r="G324" t="n">
-        <v>18816907.29567679</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11899,18 +10191,15 @@
         <v>17175.8383</v>
       </c>
       <c r="G325" t="n">
-        <v>18799731.45737679</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11932,18 +10221,15 @@
         <v>3646.7141</v>
       </c>
       <c r="G326" t="n">
-        <v>18796084.74327679</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11965,18 +10251,15 @@
         <v>424.6949602122016</v>
       </c>
       <c r="G327" t="n">
-        <v>18796509.438237</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11998,18 +10281,15 @@
         <v>979</v>
       </c>
       <c r="G328" t="n">
-        <v>18795530.438237</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12031,18 +10311,15 @@
         <v>133.843</v>
       </c>
       <c r="G329" t="n">
-        <v>18795664.281237</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12064,18 +10341,15 @@
         <v>23110.8005</v>
       </c>
       <c r="G330" t="n">
-        <v>18772553.48073699</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12097,18 +10371,15 @@
         <v>20</v>
       </c>
       <c r="G331" t="n">
-        <v>18772573.48073699</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12130,18 +10401,15 @@
         <v>4010</v>
       </c>
       <c r="G332" t="n">
-        <v>18776583.48073699</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12163,18 +10431,15 @@
         <v>10</v>
       </c>
       <c r="G333" t="n">
-        <v>18776593.48073699</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12196,18 +10461,15 @@
         <v>573.9734</v>
       </c>
       <c r="G334" t="n">
-        <v>18776019.50733699</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12229,18 +10491,15 @@
         <v>12</v>
       </c>
       <c r="G335" t="n">
-        <v>18776031.50733699</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
